--- a/pyloghub/sample_data/shipmentAnalyzerAddresses.xlsx
+++ b/pyloghub/sample_data/shipmentAnalyzerAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\log-hub\log_hub\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C522A3-FA43-4BF3-A414-803716D7BB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850FDE3-F5B0-4026-AD44-3675E7BD7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{82123591-4274-42B6-A793-97DDA489CF4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{82123591-4274-42B6-A793-97DDA489CF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="surcharges" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5513" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5518" uniqueCount="314">
   <si>
     <t>*</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>surcharge</t>
+  </si>
+  <si>
+    <t>Container</t>
   </si>
 </sst>
 </file>
@@ -1048,13 +1051,13 @@
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,8 +1085,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FFB102-27B4-4D41-9CA0-0C475A961F07}" name="Table28" displayName="Table28" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{49FFB102-27B4-4D41-9CA0-0C475A961F07}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FFB102-27B4-4D41-9CA0-0C475A961F07}" name="Table28" displayName="Table28" ref="A1:I5" totalsRowShown="0">
+  <autoFilter ref="A1:I5" xr:uid="{49FFB102-27B4-4D41-9CA0-0C475A961F07}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{BC0A8FD5-0CE4-4998-9C93-534E6298C0E2}" name="id"/>
     <tableColumn id="9" xr3:uid="{19CEA88D-182B-4095-A677-9F8C7D84B97E}" name="truckShipPlaneType"/>
@@ -1159,9 +1162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1199,7 +1202,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1305,7 +1308,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1447,7 +1450,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1455,8 +1458,11 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="5">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="6">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </wetp:taskpane>
 </wetp:taskpanes>
 </file>
@@ -1468,16 +1474,56 @@
     <we:reference id="WA104381181" version="2.0.0.2" store="" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
+    <we:property name="15_0consolidation" value="&quot;f7354af6-9e654420-c37e73eb&quot;"/>
     <we:property name="15_0costAdjustment" value="&quot;3fcc1551-e396d0db-9f7b870b&quot;"/>
-    <we:property name="15_0consolidation" value="&quot;f7354af6-9e654420-c37e73eb&quot;"/>
+    <we:property name="15_0shipments" value="&quot;74d5455d-67d81ff9-16464bd3&quot;"/>
     <we:property name="15_0surcharges" value="&quot;a3254a08-4bc5d81c-2840edad&quot;"/>
-    <we:property name="15_0shipments" value="&quot;74d5455d-67d81ff9-16464bd3&quot;"/>
+    <we:property name="2_9consolidatedShipments" value="&quot;b7ff2d7a-f319728c-696cb300&quot;"/>
+    <we:property name="2_9consolidation" value="&quot;00b7118e-883b47f2-a53bd33f&quot;"/>
+    <we:property name="2_9costAdjustment" value="&quot;651d40f7-273deb9d-38912c6d&quot;"/>
+    <we:property name="2_9expendedShipments" value="&quot;074f2202-1ae76981-9dcf2cca&quot;"/>
+    <we:property name="2_9parameters" value="&quot;a6370016-3fb9600e-65e748c8&quot;"/>
+    <we:property name="2_9shipments" value="&quot;e91c7318-72a7426e-36c77278&quot;"/>
+    <we:property name="2_9surcharges" value="&quot;ecff081d-f6292db3-b0faac6d&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="3fcc1551-e396d0db-9f7b870b" type="table" appref="{E426ACCB-F54C-48B1-9A85-F962DE51A88C}"/>
     <we:binding id="f7354af6-9e654420-c37e73eb" type="table" appref="{0DC4B20C-EB6B-47DC-B3D6-E6475CB11A2F}"/>
     <we:binding id="a3254a08-4bc5d81c-2840edad" type="table" appref="{1B2BDE56-3A2B-472C-872D-E09552E4B8CC}"/>
     <we:binding id="74d5455d-67d81ff9-16464bd3" type="table" appref="{C78EB8DB-AC5A-45EC-9F03-87A0D2C3E6F4}"/>
+    <we:binding id="e91c7318-72a7426e-36c77278" type="table" appref="{A9538F04-7818-4D70-B3DF-B3987B37A7EE}"/>
+    <we:binding id="651d40f7-273deb9d-38912c6d" type="table" appref="{F1662484-9245-488B-818D-28F76211E40A}"/>
+    <we:binding id="00b7118e-883b47f2-a53bd33f" type="table" appref="{B88437F1-9B7B-47DF-8EE1-A17266563342}"/>
+    <we:binding id="ecff081d-f6292db3-b0faac6d" type="table" appref="{D65EB086-5517-4709-B826-67BBBE67838C}"/>
+    <we:binding id="074f2202-1ae76981-9dcf2cca" type="table" appref="{601BB51C-158C-4870-B346-3969C72B60DA}"/>
+    <we:binding id="a6370016-3fb9600e-65e748c8" type="table" appref="{8C61C9BE-BB51-4F10-849F-C1ED8C9EB9C6}"/>
+    <we:binding id="b7ff2d7a-f319728c-696cb300" type="table" appref="{BC108DF4-0847-4D14-AFFD-DBEC1A9E48F9}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
+<file path=xl/webextensions/webextension2.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{C059140B-5BD3-4C61-BBE9-46CA1203BFDF}">
+  <we:reference id="e504fb41-a92a-4526-b101-542f357b7983" version="1.0.0.0" store="\\LAPTOP-ULOOTDBM\Manifest" storeType="Filesystem"/>
+  <we:alternateReferences/>
+  <we:properties>
+    <we:property name="2_9costAdjustment" value="&quot;fbb863cb-568d6e32-ce931d0c&quot;"/>
+    <we:property name="2_9shipments" value="&quot;24f46a52-76cdb72b-1dac2036&quot;"/>
+    <we:property name="2_9surcharges" value="&quot;ffef376e-5715c032-53d86d33&quot;"/>
+    <we:property name="2_9consolidation" value="&quot;28dee4c2-7a6870b4-6a57b128&quot;"/>
+    <we:property name="2_9expendedShipments" value="&quot;622d9ba6-af100ff6-29a685f8&quot;"/>
+    <we:property name="2_9parameters" value="&quot;b2b2f3f8-ab1f7bea-c0f5d8aa&quot;"/>
+    <we:property name="2_9consolidatedShipments" value="&quot;839766a4-ad3603e4-826dbf8b&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="fbb863cb-568d6e32-ce931d0c" type="table" appref="{FD427309-C2D6-4345-ABFC-319F8D2A5754}"/>
+    <we:binding id="24f46a52-76cdb72b-1dac2036" type="table" appref="{A4F49051-2952-4FFD-BB57-351A48956488}"/>
+    <we:binding id="ffef376e-5715c032-53d86d33" type="table" appref="{F5DF92BA-E873-49CD-A8D3-C7EEBBBF75AE}"/>
+    <we:binding id="28dee4c2-7a6870b4-6a57b128" type="table" appref="{BEC873F6-7110-46B7-8E19-5CEF081F8969}"/>
+    <we:binding id="622d9ba6-af100ff6-29a685f8" type="table" appref="{6DA8CD72-D0ED-4B4B-A442-F6F2C8EF85C2}"/>
+    <we:binding id="b2b2f3f8-ab1f7bea-c0f5d8aa" type="table" appref="{F75E0ECE-781E-469C-9527-5B96C8809B17}"/>
+    <we:binding id="839766a4-ad3603e4-826dbf8b" type="table" appref="{D0720898-9E65-4561-9C30-8D03C5AD9F96}"/>
   </we:bindings>
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </we:webextension>
@@ -1487,18 +1533,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{892424C6-DC87-4FF8-AE36-1045C9D7D6FD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1509,7 +1555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1520,7 +1566,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1551,6 +1597,24 @@
         <x15:webExtension appRef="{C78EB8DB-AC5A-45EC-9F03-87A0D2C3E6F4}">
           <xm:f>#REF!</xm:f>
         </x15:webExtension>
+        <x15:webExtension appRef="{6DA8CD72-D0ED-4B4B-A442-F6F2C8EF85C2}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{F75E0ECE-781E-469C-9527-5B96C8809B17}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{D0720898-9E65-4561-9C30-8D03C5AD9F96}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{601BB51C-158C-4870-B346-3969C72B60DA}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{8C61C9BE-BB51-4F10-849F-C1ED8C9EB9C6}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BC108DF4-0847-4D14-AFFD-DBEC1A9E48F9}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
       </x15:webExtensions>
     </ext>
   </extLst>
@@ -1559,26 +1623,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CE9B03-1DB9-4A87-916D-297282071C93}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1607,7 +1671,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1636,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1665,7 +1729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1692,6 +1756,35 @@
       </c>
       <c r="I4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>40000</v>
+      </c>
+      <c r="G5">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1699,6 +1792,24 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{FD427309-C2D6-4345-ABFC-319F8D2A5754}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{A4F49051-2952-4FFD-BB57-351A48956488}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{F5DF92BA-E873-49CD-A8D3-C7EEBBBF75AE}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BEC873F6-7110-46B7-8E19-5CEF081F8969}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1710,19 +1821,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1748,7 +1859,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1774,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1800,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1839,48 +1950,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AC0AA5-D178-431E-A4C5-4E92054A69B0}">
   <dimension ref="A1:AG237"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:AG1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>271</v>
       </c>
@@ -1981,7 +2091,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2052,16 +2162,16 @@
         <v>15</v>
       </c>
       <c r="X2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y2" t="s">
         <v>4</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>16</v>
       </c>
       <c r="Z2" t="s">
         <v>17</v>
       </c>
       <c r="AA2">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB2">
         <v>50</v>
@@ -2082,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2153,16 +2263,16 @@
         <v>15</v>
       </c>
       <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="s">
         <v>4</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>16</v>
       </c>
       <c r="Z3" t="s">
         <v>17</v>
       </c>
       <c r="AA3">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB3">
         <v>42</v>
@@ -2183,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2254,16 +2364,16 @@
         <v>15</v>
       </c>
       <c r="X4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="s">
         <v>4</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>16</v>
       </c>
       <c r="Z4" t="s">
         <v>17</v>
       </c>
       <c r="AA4">
-        <v>7400</v>
+        <v>3700</v>
       </c>
       <c r="AB4">
         <v>20</v>
@@ -2284,7 +2394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2355,16 +2465,16 @@
         <v>15</v>
       </c>
       <c r="X5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" t="s">
         <v>4</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>29</v>
       </c>
       <c r="Z5" t="s">
         <v>17</v>
       </c>
       <c r="AA5">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB5">
         <v>25</v>
@@ -2385,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2456,22 +2566,22 @@
         <v>15</v>
       </c>
       <c r="X6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="s">
         <v>3</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>29</v>
       </c>
       <c r="Z6" t="s">
         <v>17</v>
       </c>
       <c r="AA6">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="AB6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AC6">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AD6">
         <v>50000</v>
@@ -2486,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2557,16 +2667,16 @@
         <v>15</v>
       </c>
       <c r="X7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="s">
         <v>3</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>29</v>
       </c>
       <c r="Z7" t="s">
         <v>17</v>
       </c>
       <c r="AA7">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB7">
         <v>45</v>
@@ -2587,7 +2697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2658,16 +2768,16 @@
         <v>15</v>
       </c>
       <c r="X8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" t="s">
         <v>3</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>29</v>
       </c>
       <c r="Z8" t="s">
         <v>17</v>
       </c>
       <c r="AA8">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB8">
         <v>8</v>
@@ -2688,7 +2798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2759,16 +2869,16 @@
         <v>15</v>
       </c>
       <c r="X9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y9" t="s">
         <v>3</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>29</v>
       </c>
       <c r="Z9" t="s">
         <v>17</v>
       </c>
       <c r="AA9">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
         <v>9</v>
@@ -2789,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2863,13 +2973,13 @@
         <v>1</v>
       </c>
       <c r="Y10" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z10" t="s">
         <v>1</v>
       </c>
       <c r="AA10">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="AB10">
         <v>38</v>
@@ -2890,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2961,16 +3071,16 @@
         <v>15</v>
       </c>
       <c r="X11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y11" t="s">
         <v>4</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>16</v>
       </c>
       <c r="Z11" t="s">
         <v>17</v>
       </c>
       <c r="AA11">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB11">
         <v>21</v>
@@ -2991,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3062,16 +3172,16 @@
         <v>15</v>
       </c>
       <c r="X12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y12" t="s">
         <v>4</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>29</v>
       </c>
       <c r="Z12" t="s">
         <v>17</v>
       </c>
       <c r="AA12">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB12">
         <v>25</v>
@@ -3092,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3163,16 +3273,16 @@
         <v>15</v>
       </c>
       <c r="X13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" t="s">
         <v>3</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>16</v>
       </c>
       <c r="Z13" t="s">
         <v>17</v>
       </c>
       <c r="AA13">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB13">
         <v>50</v>
@@ -3193,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3264,16 +3374,16 @@
         <v>15</v>
       </c>
       <c r="X14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y14" t="s">
         <v>3</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>16</v>
       </c>
       <c r="Z14" t="s">
         <v>17</v>
       </c>
       <c r="AA14">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB14">
         <v>35</v>
@@ -3294,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3365,16 +3475,16 @@
         <v>15</v>
       </c>
       <c r="X15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="s">
         <v>4</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>16</v>
       </c>
       <c r="Z15" t="s">
         <v>17</v>
       </c>
       <c r="AA15">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB15">
         <v>55</v>
@@ -3395,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3466,16 +3576,16 @@
         <v>15</v>
       </c>
       <c r="X16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" t="s">
         <v>4</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>29</v>
       </c>
       <c r="Z16" t="s">
         <v>17</v>
       </c>
       <c r="AA16">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB16">
         <v>42</v>
@@ -3496,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3567,16 +3677,16 @@
         <v>15</v>
       </c>
       <c r="X17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y17" t="s">
         <v>4</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>29</v>
       </c>
       <c r="Z17" t="s">
         <v>17</v>
       </c>
       <c r="AA17">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB17">
         <v>21</v>
@@ -3597,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3668,16 +3778,16 @@
         <v>15</v>
       </c>
       <c r="X18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y18" t="s">
         <v>4</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>29</v>
       </c>
       <c r="Z18" t="s">
         <v>17</v>
       </c>
       <c r="AA18">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB18">
         <v>30</v>
@@ -3698,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3769,16 +3879,16 @@
         <v>15</v>
       </c>
       <c r="X19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y19" t="s">
         <v>4</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>29</v>
       </c>
       <c r="Z19" t="s">
         <v>17</v>
       </c>
       <c r="AA19">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB19">
         <v>30</v>
@@ -3799,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3870,16 +3980,16 @@
         <v>15</v>
       </c>
       <c r="X20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="s">
         <v>4</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>16</v>
       </c>
       <c r="Z20" t="s">
         <v>17</v>
       </c>
       <c r="AA20">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB20">
         <v>21</v>
@@ -3900,7 +4010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3971,16 +4081,16 @@
         <v>15</v>
       </c>
       <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="s">
         <v>4</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>29</v>
       </c>
       <c r="Z21" t="s">
         <v>17</v>
       </c>
       <c r="AA21">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="AB21">
         <v>55</v>
@@ -4001,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4072,16 +4182,16 @@
         <v>15</v>
       </c>
       <c r="X22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" t="s">
         <v>4</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>16</v>
       </c>
       <c r="Z22" t="s">
         <v>17</v>
       </c>
       <c r="AA22">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB22">
         <v>24</v>
@@ -4102,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4173,16 +4283,16 @@
         <v>15</v>
       </c>
       <c r="X23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y23" t="s">
         <v>3</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>29</v>
       </c>
       <c r="Z23" t="s">
         <v>17</v>
       </c>
       <c r="AA23">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB23">
         <v>45</v>
@@ -4203,7 +4313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4274,16 +4384,16 @@
         <v>15</v>
       </c>
       <c r="X24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y24" t="s">
         <v>3</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>29</v>
       </c>
       <c r="Z24" t="s">
         <v>17</v>
       </c>
       <c r="AA24">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB24">
         <v>8</v>
@@ -4304,7 +4414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4375,16 +4485,16 @@
         <v>15</v>
       </c>
       <c r="X25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y25" t="s">
         <v>3</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>29</v>
       </c>
       <c r="Z25" t="s">
         <v>17</v>
       </c>
       <c r="AA25">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB25">
         <v>9</v>
@@ -4405,7 +4515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4476,16 +4586,16 @@
         <v>15</v>
       </c>
       <c r="X26" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y26" t="s">
         <v>3</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>16</v>
       </c>
       <c r="Z26" t="s">
         <v>17</v>
       </c>
       <c r="AA26">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB26">
         <v>40</v>
@@ -4506,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4577,16 +4687,16 @@
         <v>15</v>
       </c>
       <c r="X27" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y27" t="s">
         <v>3</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>16</v>
       </c>
       <c r="Z27" t="s">
         <v>17</v>
       </c>
       <c r="AA27">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB27">
         <v>20</v>
@@ -4607,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4678,16 +4788,16 @@
         <v>15</v>
       </c>
       <c r="X28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="s">
         <v>4</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>29</v>
       </c>
       <c r="Z28" t="s">
         <v>17</v>
       </c>
       <c r="AA28">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB28">
         <v>30</v>
@@ -4708,7 +4818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4779,16 +4889,16 @@
         <v>15</v>
       </c>
       <c r="X29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" t="s">
         <v>4</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>16</v>
       </c>
       <c r="Z29" t="s">
         <v>17</v>
       </c>
       <c r="AA29">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB29">
         <v>21</v>
@@ -4809,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4880,16 +4990,16 @@
         <v>15</v>
       </c>
       <c r="X30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30" t="s">
         <v>4</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>29</v>
       </c>
       <c r="Z30" t="s">
         <v>17</v>
       </c>
       <c r="AA30">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB30">
         <v>30</v>
@@ -4910,7 +5020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4981,16 +5091,16 @@
         <v>15</v>
       </c>
       <c r="X31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y31" t="s">
         <v>4</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>29</v>
       </c>
       <c r="Z31" t="s">
         <v>17</v>
       </c>
       <c r="AA31">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB31">
         <v>52</v>
@@ -5011,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5085,13 +5195,13 @@
         <v>1</v>
       </c>
       <c r="Y32" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z32" t="s">
         <v>1</v>
       </c>
       <c r="AA32">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB32">
         <v>48</v>
@@ -5112,7 +5222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5183,16 +5293,16 @@
         <v>15</v>
       </c>
       <c r="X33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y33" t="s">
         <v>4</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>29</v>
       </c>
       <c r="Z33" t="s">
         <v>17</v>
       </c>
       <c r="AA33">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB33">
         <v>41</v>
@@ -5213,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5284,16 +5394,16 @@
         <v>15</v>
       </c>
       <c r="X34" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y34" t="s">
         <v>4</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>16</v>
       </c>
       <c r="Z34" t="s">
         <v>17</v>
       </c>
       <c r="AA34">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB34">
         <v>45</v>
@@ -5314,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5388,13 +5498,13 @@
         <v>1</v>
       </c>
       <c r="Y35" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z35" t="s">
         <v>1</v>
       </c>
       <c r="AA35">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB35">
         <v>45</v>
@@ -5415,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5489,13 +5599,13 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s">
         <v>1</v>
       </c>
       <c r="AA36">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB36">
         <v>43</v>
@@ -5516,7 +5626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5587,16 +5697,16 @@
         <v>15</v>
       </c>
       <c r="X37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y37" t="s">
         <v>4</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>29</v>
       </c>
       <c r="Z37" t="s">
         <v>17</v>
       </c>
       <c r="AA37">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB37">
         <v>43</v>
@@ -5617,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5691,13 +5801,13 @@
         <v>1</v>
       </c>
       <c r="Y38" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z38" t="s">
         <v>1</v>
       </c>
       <c r="AA38">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB38">
         <v>60</v>
@@ -5718,7 +5828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5789,16 +5899,16 @@
         <v>15</v>
       </c>
       <c r="X39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y39" t="s">
         <v>3</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>29</v>
       </c>
       <c r="Z39" t="s">
         <v>17</v>
       </c>
       <c r="AA39">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB39">
         <v>60</v>
@@ -5819,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5893,13 +6003,13 @@
         <v>1</v>
       </c>
       <c r="Y40" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z40" t="s">
         <v>1</v>
       </c>
       <c r="AA40">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB40">
         <v>35</v>
@@ -5920,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5991,16 +6101,16 @@
         <v>15</v>
       </c>
       <c r="X41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y41" t="s">
         <v>4</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>29</v>
       </c>
       <c r="Z41" t="s">
         <v>17</v>
       </c>
       <c r="AA41">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB41">
         <v>35</v>
@@ -6021,7 +6131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6095,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="Y42" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s">
         <v>1</v>
       </c>
       <c r="AA42">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB42">
         <v>60</v>
@@ -6122,7 +6232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6193,16 +6303,16 @@
         <v>15</v>
       </c>
       <c r="X43" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y43" t="s">
         <v>4</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>16</v>
       </c>
       <c r="Z43" t="s">
         <v>17</v>
       </c>
       <c r="AA43">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB43">
         <v>50</v>
@@ -6223,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6297,13 +6407,13 @@
         <v>1</v>
       </c>
       <c r="Y44" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z44" t="s">
         <v>1</v>
       </c>
       <c r="AA44">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB44">
         <v>50</v>
@@ -6324,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6395,16 +6505,16 @@
         <v>15</v>
       </c>
       <c r="X45" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y45" t="s">
         <v>4</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>16</v>
       </c>
       <c r="Z45" t="s">
         <v>17</v>
       </c>
       <c r="AA45">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB45">
         <v>50</v>
@@ -6425,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6496,16 +6606,16 @@
         <v>15</v>
       </c>
       <c r="X46" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" t="s">
         <v>3</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>16</v>
       </c>
       <c r="Z46" t="s">
         <v>17</v>
       </c>
       <c r="AA46">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB46">
         <v>70</v>
@@ -6526,7 +6636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6600,19 +6710,19 @@
         <v>1</v>
       </c>
       <c r="Y47" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z47" t="s">
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB47">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AC47">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AD47">
         <v>14500</v>
@@ -6627,7 +6737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6698,22 +6808,22 @@
         <v>15</v>
       </c>
       <c r="X48" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y48" t="s">
         <v>3</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>29</v>
       </c>
       <c r="Z48" t="s">
         <v>17</v>
       </c>
       <c r="AA48">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC48">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD48">
         <v>14500</v>
@@ -6728,7 +6838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6799,16 +6909,16 @@
         <v>15</v>
       </c>
       <c r="X49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y49" t="s">
         <v>4</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>29</v>
       </c>
       <c r="Z49" t="s">
         <v>17</v>
       </c>
       <c r="AA49">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="AB49">
         <v>22</v>
@@ -6829,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6900,16 +7010,16 @@
         <v>15</v>
       </c>
       <c r="X50" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y50" t="s">
         <v>4</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>29</v>
       </c>
       <c r="Z50" t="s">
         <v>17</v>
       </c>
       <c r="AA50">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB50">
         <v>38</v>
@@ -6930,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7001,16 +7111,16 @@
         <v>15</v>
       </c>
       <c r="X51" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y51" t="s">
         <v>4</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>16</v>
       </c>
       <c r="Z51" t="s">
         <v>17</v>
       </c>
       <c r="AA51">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB51">
         <v>28</v>
@@ -7031,7 +7141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7045,7 +7155,7 @@
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>1</v>
@@ -7069,7 +7179,7 @@
         <v>64</v>
       </c>
       <c r="M52" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N52" t="s">
         <v>1</v>
@@ -7105,19 +7215,19 @@
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z52" t="s">
         <v>1</v>
       </c>
       <c r="AA52">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB52">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AC52">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AD52">
         <v>15600</v>
@@ -7132,7 +7242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7203,22 +7313,22 @@
         <v>15</v>
       </c>
       <c r="X53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y53" t="s">
         <v>4</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>16</v>
       </c>
       <c r="Z53" t="s">
         <v>17</v>
       </c>
       <c r="AA53">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB53">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AC53">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AD53">
         <v>15600</v>
@@ -7233,7 +7343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7304,22 +7414,22 @@
         <v>15</v>
       </c>
       <c r="X54" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y54" t="s">
         <v>4</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>16</v>
       </c>
       <c r="Z54" t="s">
         <v>17</v>
       </c>
       <c r="AA54">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB54">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AC54">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AD54">
         <v>41000</v>
@@ -7334,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7405,16 +7515,16 @@
         <v>15</v>
       </c>
       <c r="X55" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y55" t="s">
         <v>4</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>16</v>
       </c>
       <c r="Z55" t="s">
         <v>17</v>
       </c>
       <c r="AA55">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="AB55">
         <v>38</v>
@@ -7435,7 +7545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7506,16 +7616,16 @@
         <v>15</v>
       </c>
       <c r="X56" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y56" t="s">
         <v>4</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>16</v>
       </c>
       <c r="Z56" t="s">
         <v>17</v>
       </c>
       <c r="AA56">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB56">
         <v>15</v>
@@ -7536,7 +7646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7607,16 +7717,16 @@
         <v>15</v>
       </c>
       <c r="X57" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y57" t="s">
         <v>3</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>16</v>
       </c>
       <c r="Z57" t="s">
         <v>17</v>
       </c>
       <c r="AA57">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AB57">
         <v>43</v>
@@ -7637,7 +7747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7708,16 +7818,16 @@
         <v>15</v>
       </c>
       <c r="X58" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y58" t="s">
         <v>3</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>16</v>
       </c>
       <c r="Z58" t="s">
         <v>17</v>
       </c>
       <c r="AA58">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AB58">
         <v>43</v>
@@ -7738,7 +7848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7809,16 +7919,16 @@
         <v>15</v>
       </c>
       <c r="X59" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y59" t="s">
         <v>4</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>29</v>
       </c>
       <c r="Z59" t="s">
         <v>17</v>
       </c>
       <c r="AA59">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB59">
         <v>25</v>
@@ -7839,7 +7949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -7910,22 +8020,22 @@
         <v>15</v>
       </c>
       <c r="X60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y60" t="s">
         <v>4</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>29</v>
       </c>
       <c r="Z60" t="s">
         <v>17</v>
       </c>
       <c r="AA60">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB60">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AC60">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="AD60">
         <v>19000</v>
@@ -7940,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8014,19 +8124,19 @@
         <v>1</v>
       </c>
       <c r="Y61" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>1</v>
       </c>
       <c r="AA61">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="AB61">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="AC61">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="AD61">
         <v>19000</v>
@@ -8041,7 +8151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8112,22 +8222,22 @@
         <v>15</v>
       </c>
       <c r="X62" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y62" t="s">
         <v>4</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>29</v>
       </c>
       <c r="Z62" t="s">
         <v>17</v>
       </c>
       <c r="AA62">
-        <v>19000</v>
+        <v>8500</v>
       </c>
       <c r="AB62">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="AC62">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="AD62">
         <v>19000</v>
@@ -8142,7 +8252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8216,19 +8326,19 @@
         <v>1</v>
       </c>
       <c r="Y63" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z63" t="s">
         <v>1</v>
       </c>
       <c r="AA63">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="AB63">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC63">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD63">
         <v>25000</v>
@@ -8243,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8314,16 +8424,16 @@
         <v>15</v>
       </c>
       <c r="X64" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y64" t="s">
         <v>4</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>16</v>
       </c>
       <c r="Z64" t="s">
         <v>17</v>
       </c>
       <c r="AA64">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB64">
         <v>60</v>
@@ -8344,7 +8454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8418,13 +8528,13 @@
         <v>1</v>
       </c>
       <c r="Y65" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z65" t="s">
         <v>1</v>
       </c>
       <c r="AA65">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB65">
         <v>12</v>
@@ -8445,7 +8555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8459,7 +8569,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>1</v>
@@ -8483,7 +8593,7 @@
         <v>64</v>
       </c>
       <c r="M66" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N66" t="s">
         <v>1</v>
@@ -8519,13 +8629,13 @@
         <v>1</v>
       </c>
       <c r="Y66" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z66" t="s">
         <v>1</v>
       </c>
       <c r="AA66">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB66">
         <v>40</v>
@@ -8546,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8617,16 +8727,16 @@
         <v>15</v>
       </c>
       <c r="X67" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y67" t="s">
         <v>4</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>16</v>
       </c>
       <c r="Z67" t="s">
         <v>17</v>
       </c>
       <c r="AA67">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB67">
         <v>40</v>
@@ -8647,7 +8757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8718,16 +8828,16 @@
         <v>15</v>
       </c>
       <c r="X68" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y68" t="s">
         <v>4</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>16</v>
       </c>
       <c r="Z68" t="s">
         <v>17</v>
       </c>
       <c r="AA68">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB68">
         <v>42</v>
@@ -8748,7 +8858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8819,16 +8929,16 @@
         <v>15</v>
       </c>
       <c r="X69" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y69" t="s">
         <v>4</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>16</v>
       </c>
       <c r="Z69" t="s">
         <v>17</v>
       </c>
       <c r="AA69">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB69">
         <v>42</v>
@@ -8849,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -8920,16 +9030,16 @@
         <v>15</v>
       </c>
       <c r="X70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y70" t="s">
         <v>3</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>29</v>
       </c>
       <c r="Z70" t="s">
         <v>17</v>
       </c>
       <c r="AA70">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB70">
         <v>42</v>
@@ -8950,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9021,16 +9131,16 @@
         <v>15</v>
       </c>
       <c r="X71" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y71" t="s">
         <v>4</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>16</v>
       </c>
       <c r="Z71" t="s">
         <v>17</v>
       </c>
       <c r="AA71">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="AB71">
         <v>20</v>
@@ -9051,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9122,16 +9232,16 @@
         <v>15</v>
       </c>
       <c r="X72" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y72" t="s">
         <v>4</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>29</v>
       </c>
       <c r="Z72" t="s">
         <v>17</v>
       </c>
       <c r="AA72">
-        <v>11000</v>
+        <v>5500</v>
       </c>
       <c r="AB72">
         <v>36</v>
@@ -9152,7 +9262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9223,16 +9333,16 @@
         <v>15</v>
       </c>
       <c r="X73" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y73" t="s">
         <v>3</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>29</v>
       </c>
       <c r="Z73" t="s">
         <v>17</v>
       </c>
       <c r="AA73">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB73">
         <v>45</v>
@@ -9253,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9324,16 +9434,16 @@
         <v>15</v>
       </c>
       <c r="X74" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y74" t="s">
         <v>3</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>29</v>
       </c>
       <c r="Z74" t="s">
         <v>17</v>
       </c>
       <c r="AA74">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="AB74">
         <v>8</v>
@@ -9354,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9428,13 +9538,13 @@
         <v>1</v>
       </c>
       <c r="Y75" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z75" t="s">
         <v>1</v>
       </c>
       <c r="AA75">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="AB75">
         <v>38</v>
@@ -9455,7 +9565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9526,22 +9636,22 @@
         <v>15</v>
       </c>
       <c r="X76" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y76" t="s">
         <v>4</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>16</v>
       </c>
       <c r="Z76" t="s">
         <v>17</v>
       </c>
       <c r="AA76">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB76">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AC76">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="AD76">
         <v>35000</v>
@@ -9556,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9630,19 +9740,19 @@
         <v>1</v>
       </c>
       <c r="Y77" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z77" t="s">
         <v>1</v>
       </c>
       <c r="AA77">
-        <v>20000</v>
+        <v>8800</v>
       </c>
       <c r="AB77">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="AC77">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="AD77">
         <v>35000</v>
@@ -9657,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9728,22 +9838,22 @@
         <v>15</v>
       </c>
       <c r="X78" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y78" t="s">
         <v>4</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>16</v>
       </c>
       <c r="Z78" t="s">
         <v>17</v>
       </c>
       <c r="AA78">
-        <v>20000</v>
+        <v>7200</v>
       </c>
       <c r="AB78">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="AC78">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="AD78">
         <v>35000</v>
@@ -9758,7 +9868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9829,16 +9939,16 @@
         <v>15</v>
       </c>
       <c r="X79" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y79" t="s">
         <v>4</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>16</v>
       </c>
       <c r="Z79" t="s">
         <v>17</v>
       </c>
       <c r="AA79">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB79">
         <v>30</v>
@@ -9859,7 +9969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -9933,19 +10043,19 @@
         <v>1</v>
       </c>
       <c r="Y80" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z80" t="s">
         <v>1</v>
       </c>
       <c r="AA80">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="AB80">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AC80">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD80">
         <v>40000</v>
@@ -9960,7 +10070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10031,16 +10141,16 @@
         <v>15</v>
       </c>
       <c r="X81" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y81" t="s">
         <v>3</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>16</v>
       </c>
       <c r="Z81" t="s">
         <v>17</v>
       </c>
       <c r="AA81">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB81">
         <v>36</v>
@@ -10061,7 +10171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10132,16 +10242,16 @@
         <v>15</v>
       </c>
       <c r="X82" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y82" t="s">
         <v>3</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>16</v>
       </c>
       <c r="Z82" t="s">
         <v>17</v>
       </c>
       <c r="AA82">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB82">
         <v>36</v>
@@ -10162,7 +10272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10233,16 +10343,16 @@
         <v>15</v>
       </c>
       <c r="X83" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y83" t="s">
         <v>4</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>29</v>
       </c>
       <c r="Z83" t="s">
         <v>17</v>
       </c>
       <c r="AA83">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB83">
         <v>30</v>
@@ -10263,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10334,16 +10444,16 @@
         <v>15</v>
       </c>
       <c r="X84" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y84" t="s">
         <v>4</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>16</v>
       </c>
       <c r="Z84" t="s">
         <v>17</v>
       </c>
       <c r="AA84">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB84">
         <v>45</v>
@@ -10364,7 +10474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10435,16 +10545,16 @@
         <v>15</v>
       </c>
       <c r="X85" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y85" t="s">
         <v>3</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>29</v>
       </c>
       <c r="Z85" t="s">
         <v>17</v>
       </c>
       <c r="AA85">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB85">
         <v>40</v>
@@ -10465,7 +10575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10536,16 +10646,16 @@
         <v>15</v>
       </c>
       <c r="X86" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y86" t="s">
         <v>4</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>29</v>
       </c>
       <c r="Z86" t="s">
         <v>17</v>
       </c>
       <c r="AA86">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB86">
         <v>31</v>
@@ -10566,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10637,16 +10747,16 @@
         <v>15</v>
       </c>
       <c r="X87" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y87" t="s">
         <v>4</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>29</v>
       </c>
       <c r="Z87" t="s">
         <v>17</v>
       </c>
       <c r="AA87">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB87">
         <v>52</v>
@@ -10667,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10741,13 +10851,13 @@
         <v>1</v>
       </c>
       <c r="Y88" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z88" t="s">
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB88">
         <v>52</v>
@@ -10768,7 +10878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10839,16 +10949,16 @@
         <v>15</v>
       </c>
       <c r="X89" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y89" t="s">
         <v>4</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>29</v>
       </c>
       <c r="Z89" t="s">
         <v>17</v>
       </c>
       <c r="AA89">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB89">
         <v>38</v>
@@ -10869,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10943,13 +11053,13 @@
         <v>1</v>
       </c>
       <c r="Y90" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z90" t="s">
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB90">
         <v>52</v>
@@ -10970,7 +11080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11041,16 +11151,16 @@
         <v>15</v>
       </c>
       <c r="X91" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y91" t="s">
         <v>3</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>16</v>
       </c>
       <c r="Z91" t="s">
         <v>17</v>
       </c>
       <c r="AA91">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB91">
         <v>51</v>
@@ -11071,7 +11181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11145,13 +11255,13 @@
         <v>1</v>
       </c>
       <c r="Y92" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z92" t="s">
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB92">
         <v>51</v>
@@ -11172,7 +11282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11186,7 +11296,7 @@
         <v>13</v>
       </c>
       <c r="E93" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>1</v>
@@ -11210,7 +11320,7 @@
         <v>64</v>
       </c>
       <c r="M93" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N93" t="s">
         <v>1</v>
@@ -11246,13 +11356,13 @@
         <v>1</v>
       </c>
       <c r="Y93" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z93" t="s">
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>15000</v>
+        <v>17500</v>
       </c>
       <c r="AB93">
         <v>60</v>
@@ -11273,7 +11383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11344,16 +11454,16 @@
         <v>15</v>
       </c>
       <c r="X94" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y94" t="s">
         <v>3</v>
-      </c>
-      <c r="Y94" t="s">
-        <v>16</v>
       </c>
       <c r="Z94" t="s">
         <v>17</v>
       </c>
       <c r="AA94">
-        <v>13600</v>
+        <v>6800</v>
       </c>
       <c r="AB94">
         <v>39</v>
@@ -11374,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11448,13 +11558,13 @@
         <v>1</v>
       </c>
       <c r="Y95" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z95" t="s">
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB95">
         <v>35</v>
@@ -11475,7 +11585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11546,16 +11656,16 @@
         <v>15</v>
       </c>
       <c r="X96" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y96" t="s">
         <v>4</v>
-      </c>
-      <c r="Y96" t="s">
-        <v>29</v>
       </c>
       <c r="Z96" t="s">
         <v>17</v>
       </c>
       <c r="AA96">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB96">
         <v>35</v>
@@ -11576,7 +11686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11647,16 +11757,16 @@
         <v>15</v>
       </c>
       <c r="X97" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y97" t="s">
         <v>4</v>
-      </c>
-      <c r="Y97" t="s">
-        <v>16</v>
       </c>
       <c r="Z97" t="s">
         <v>17</v>
       </c>
       <c r="AA97">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB97">
         <v>42</v>
@@ -11677,7 +11787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11748,16 +11858,16 @@
         <v>15</v>
       </c>
       <c r="X98" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y98" t="s">
         <v>4</v>
-      </c>
-      <c r="Y98" t="s">
-        <v>29</v>
       </c>
       <c r="Z98" t="s">
         <v>17</v>
       </c>
       <c r="AA98">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AB98">
         <v>10</v>
@@ -11778,7 +11888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11852,19 +11962,19 @@
         <v>1</v>
       </c>
       <c r="Y99" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z99" t="s">
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB99">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AC99">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="AD99">
         <v>45000</v>
@@ -11879,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -11950,22 +12060,22 @@
         <v>15</v>
       </c>
       <c r="X100" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y100" t="s">
         <v>4</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>16</v>
       </c>
       <c r="Z100" t="s">
         <v>17</v>
       </c>
       <c r="AA100">
-        <v>20000</v>
+        <v>11000</v>
       </c>
       <c r="AB100">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AC100">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="AD100">
         <v>45000</v>
@@ -11980,7 +12090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12051,16 +12161,16 @@
         <v>15</v>
       </c>
       <c r="X101" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y101" t="s">
         <v>4</v>
-      </c>
-      <c r="Y101" t="s">
-        <v>16</v>
       </c>
       <c r="Z101" t="s">
         <v>17</v>
       </c>
       <c r="AA101">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="AB101">
         <v>50</v>
@@ -12081,7 +12191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12155,13 +12265,13 @@
         <v>1</v>
       </c>
       <c r="Y102" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z102" t="s">
         <v>1</v>
       </c>
       <c r="AA102">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="AB102">
         <v>50</v>
@@ -12182,7 +12292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12253,16 +12363,16 @@
         <v>15</v>
       </c>
       <c r="X103" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y103" t="s">
         <v>4</v>
-      </c>
-      <c r="Y103" t="s">
-        <v>16</v>
       </c>
       <c r="Z103" t="s">
         <v>17</v>
       </c>
       <c r="AA103">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AB103">
         <v>20</v>
@@ -12283,7 +12393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12354,16 +12464,16 @@
         <v>15</v>
       </c>
       <c r="X104" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y104" t="s">
         <v>4</v>
-      </c>
-      <c r="Y104" t="s">
-        <v>29</v>
       </c>
       <c r="Z104" t="s">
         <v>17</v>
       </c>
       <c r="AA104">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB104">
         <v>33</v>
@@ -12384,7 +12494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12458,19 +12568,19 @@
         <v>1</v>
       </c>
       <c r="Y105" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z105" t="s">
         <v>1</v>
       </c>
       <c r="AA105">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB105">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AC105">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="AD105">
         <v>35000</v>
@@ -12485,7 +12595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12556,22 +12666,22 @@
         <v>15</v>
       </c>
       <c r="X106" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y106" t="s">
         <v>4</v>
-      </c>
-      <c r="Y106" t="s">
-        <v>29</v>
       </c>
       <c r="Z106" t="s">
         <v>17</v>
       </c>
       <c r="AA106">
-        <v>19000</v>
+        <v>9000</v>
       </c>
       <c r="AB106">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AC106">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AD106">
         <v>35000</v>
@@ -12586,7 +12696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12600,7 +12710,7 @@
         <v>13</v>
       </c>
       <c r="E107" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F107" t="s">
         <v>1</v>
@@ -12660,13 +12770,13 @@
         <v>1</v>
       </c>
       <c r="Y107" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z107" t="s">
         <v>1</v>
       </c>
       <c r="AA107">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB107">
         <v>52</v>
@@ -12687,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12758,16 +12868,16 @@
         <v>15</v>
       </c>
       <c r="X108" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y108" t="s">
         <v>4</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>29</v>
       </c>
       <c r="Z108" t="s">
         <v>17</v>
       </c>
       <c r="AA108">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AB108">
         <v>16</v>
@@ -12788,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12802,7 +12912,7 @@
         <v>13</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="s">
         <v>1</v>
@@ -12826,7 +12936,7 @@
         <v>64</v>
       </c>
       <c r="M109" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N109" t="s">
         <v>1</v>
@@ -12862,13 +12972,13 @@
         <v>1</v>
       </c>
       <c r="Y109" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z109" t="s">
         <v>1</v>
       </c>
       <c r="AA109">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB109">
         <v>60</v>
@@ -12889,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12960,16 +13070,16 @@
         <v>15</v>
       </c>
       <c r="X110" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y110" t="s">
         <v>4</v>
-      </c>
-      <c r="Y110" t="s">
-        <v>16</v>
       </c>
       <c r="Z110" t="s">
         <v>17</v>
       </c>
       <c r="AA110">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB110">
         <v>60</v>
@@ -12990,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13061,16 +13171,16 @@
         <v>15</v>
       </c>
       <c r="X111" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y111" t="s">
         <v>4</v>
-      </c>
-      <c r="Y111" t="s">
-        <v>29</v>
       </c>
       <c r="Z111" t="s">
         <v>17</v>
       </c>
       <c r="AA111">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB111">
         <v>42</v>
@@ -13091,7 +13201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13162,16 +13272,16 @@
         <v>15</v>
       </c>
       <c r="X112" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y112" t="s">
         <v>4</v>
-      </c>
-      <c r="Y112" t="s">
-        <v>16</v>
       </c>
       <c r="Z112" t="s">
         <v>17</v>
       </c>
       <c r="AA112">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB112">
         <v>50</v>
@@ -13192,7 +13302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13263,16 +13373,16 @@
         <v>15</v>
       </c>
       <c r="X113" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y113" t="s">
         <v>3</v>
-      </c>
-      <c r="Y113" t="s">
-        <v>16</v>
       </c>
       <c r="Z113" t="s">
         <v>17</v>
       </c>
       <c r="AA113">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB113">
         <v>30</v>
@@ -13293,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13367,13 +13477,13 @@
         <v>1</v>
       </c>
       <c r="Y114" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z114" t="s">
         <v>1</v>
       </c>
       <c r="AA114">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB114">
         <v>42</v>
@@ -13394,7 +13504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13465,16 +13575,16 @@
         <v>15</v>
       </c>
       <c r="X115" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y115" t="s">
         <v>4</v>
-      </c>
-      <c r="Y115" t="s">
-        <v>29</v>
       </c>
       <c r="Z115" t="s">
         <v>17</v>
       </c>
       <c r="AA115">
-        <v>7500</v>
+        <v>3750</v>
       </c>
       <c r="AB115">
         <v>25</v>
@@ -13495,7 +13605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13566,16 +13676,16 @@
         <v>15</v>
       </c>
       <c r="X116" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y116" t="s">
         <v>4</v>
-      </c>
-      <c r="Y116" t="s">
-        <v>16</v>
       </c>
       <c r="Z116" t="s">
         <v>17</v>
       </c>
       <c r="AA116">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB116">
         <v>38</v>
@@ -13596,7 +13706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13667,16 +13777,16 @@
         <v>15</v>
       </c>
       <c r="X117" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y117" t="s">
         <v>4</v>
-      </c>
-      <c r="Y117" t="s">
-        <v>16</v>
       </c>
       <c r="Z117" t="s">
         <v>17</v>
       </c>
       <c r="AA117">
-        <v>7400</v>
+        <v>3700</v>
       </c>
       <c r="AB117">
         <v>20</v>
@@ -13697,7 +13807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13768,16 +13878,16 @@
         <v>15</v>
       </c>
       <c r="X118" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y118" t="s">
         <v>4</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>29</v>
       </c>
       <c r="Z118" t="s">
         <v>17</v>
       </c>
       <c r="AA118">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB118">
         <v>25</v>
@@ -13798,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13872,13 +13982,13 @@
         <v>1</v>
       </c>
       <c r="Y119" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z119" t="s">
         <v>1</v>
       </c>
       <c r="AA119">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="AB119">
         <v>38</v>
@@ -13899,7 +14009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13970,16 +14080,16 @@
         <v>15</v>
       </c>
       <c r="X120" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y120" t="s">
         <v>4</v>
-      </c>
-      <c r="Y120" t="s">
-        <v>16</v>
       </c>
       <c r="Z120" t="s">
         <v>17</v>
       </c>
       <c r="AA120">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB120">
         <v>21</v>
@@ -14000,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14071,16 +14181,16 @@
         <v>15</v>
       </c>
       <c r="X121" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y121" t="s">
         <v>4</v>
-      </c>
-      <c r="Y121" t="s">
-        <v>29</v>
       </c>
       <c r="Z121" t="s">
         <v>17</v>
       </c>
       <c r="AA121">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB121">
         <v>25</v>
@@ -14101,7 +14211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14172,16 +14282,16 @@
         <v>15</v>
       </c>
       <c r="X122" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y122" t="s">
         <v>3</v>
-      </c>
-      <c r="Y122" t="s">
-        <v>16</v>
       </c>
       <c r="Z122" t="s">
         <v>17</v>
       </c>
       <c r="AA122">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB122">
         <v>50</v>
@@ -14202,7 +14312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14273,16 +14383,16 @@
         <v>15</v>
       </c>
       <c r="X123" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y123" t="s">
         <v>3</v>
-      </c>
-      <c r="Y123" t="s">
-        <v>16</v>
       </c>
       <c r="Z123" t="s">
         <v>17</v>
       </c>
       <c r="AA123">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB123">
         <v>35</v>
@@ -14303,7 +14413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14374,16 +14484,16 @@
         <v>15</v>
       </c>
       <c r="X124" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y124" t="s">
         <v>4</v>
-      </c>
-      <c r="Y124" t="s">
-        <v>16</v>
       </c>
       <c r="Z124" t="s">
         <v>17</v>
       </c>
       <c r="AA124">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB124">
         <v>24</v>
@@ -14404,7 +14514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14475,16 +14585,16 @@
         <v>15</v>
       </c>
       <c r="X125" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y125" t="s">
         <v>3</v>
-      </c>
-      <c r="Y125" t="s">
-        <v>29</v>
       </c>
       <c r="Z125" t="s">
         <v>17</v>
       </c>
       <c r="AA125">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB125">
         <v>45</v>
@@ -14505,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14576,16 +14686,16 @@
         <v>15</v>
       </c>
       <c r="X126" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y126" t="s">
         <v>3</v>
-      </c>
-      <c r="Y126" t="s">
-        <v>29</v>
       </c>
       <c r="Z126" t="s">
         <v>17</v>
       </c>
       <c r="AA126">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB126">
         <v>40</v>
@@ -14606,7 +14716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14677,16 +14787,16 @@
         <v>15</v>
       </c>
       <c r="X127" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y127" t="s">
         <v>3</v>
-      </c>
-      <c r="Y127" t="s">
-        <v>29</v>
       </c>
       <c r="Z127" t="s">
         <v>17</v>
       </c>
       <c r="AA127">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB127">
         <v>40</v>
@@ -14707,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14778,16 +14888,16 @@
         <v>15</v>
       </c>
       <c r="X128" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y128" t="s">
         <v>4</v>
-      </c>
-      <c r="Y128" t="s">
-        <v>29</v>
       </c>
       <c r="Z128" t="s">
         <v>17</v>
       </c>
       <c r="AA128">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="AB128">
         <v>52</v>
@@ -14808,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14882,19 +14992,19 @@
         <v>1</v>
       </c>
       <c r="Y129" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z129" t="s">
         <v>1</v>
       </c>
       <c r="AA129">
-        <v>36000</v>
+        <v>11800</v>
       </c>
       <c r="AB129">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="AC129">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="AD129">
         <v>6000</v>
@@ -14909,7 +15019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -14983,19 +15093,19 @@
         <v>1</v>
       </c>
       <c r="Y130" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z130" t="s">
         <v>1</v>
       </c>
       <c r="AA130">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB130">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="AC130">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="AD130">
         <v>6000</v>
@@ -15010,7 +15120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15081,16 +15191,16 @@
         <v>15</v>
       </c>
       <c r="X131" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y131" t="s">
         <v>4</v>
-      </c>
-      <c r="Y131" t="s">
-        <v>29</v>
       </c>
       <c r="Z131" t="s">
         <v>17</v>
       </c>
       <c r="AA131">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB131">
         <v>40</v>
@@ -15111,7 +15221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15185,13 +15295,13 @@
         <v>1</v>
       </c>
       <c r="Y132" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z132" t="s">
         <v>1</v>
       </c>
       <c r="AA132">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="AB132">
         <v>55</v>
@@ -15212,7 +15322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15283,16 +15393,16 @@
         <v>15</v>
       </c>
       <c r="X133" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y133" t="s">
         <v>4</v>
-      </c>
-      <c r="Y133" t="s">
-        <v>29</v>
       </c>
       <c r="Z133" t="s">
         <v>17</v>
       </c>
       <c r="AA133">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB133">
         <v>22</v>
@@ -15313,7 +15423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15387,19 +15497,19 @@
         <v>1</v>
       </c>
       <c r="Y134" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z134" t="s">
         <v>1</v>
       </c>
       <c r="AA134">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB134">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AC134">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AD134">
         <v>16300</v>
@@ -15414,7 +15524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15485,22 +15595,22 @@
         <v>15</v>
       </c>
       <c r="X135" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y135" t="s">
         <v>3</v>
-      </c>
-      <c r="Y135" t="s">
-        <v>29</v>
       </c>
       <c r="Z135" t="s">
         <v>17</v>
       </c>
       <c r="AA135">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="AB135">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AC135">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AD135">
         <v>25000</v>
@@ -15515,7 +15625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15586,16 +15696,16 @@
         <v>15</v>
       </c>
       <c r="X136" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y136" t="s">
         <v>4</v>
-      </c>
-      <c r="Y136" t="s">
-        <v>29</v>
       </c>
       <c r="Z136" t="s">
         <v>17</v>
       </c>
       <c r="AA136">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="AB136">
         <v>18</v>
@@ -15616,7 +15726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15687,16 +15797,16 @@
         <v>15</v>
       </c>
       <c r="X137" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y137" t="s">
         <v>4</v>
-      </c>
-      <c r="Y137" t="s">
-        <v>29</v>
       </c>
       <c r="Z137" t="s">
         <v>17</v>
       </c>
       <c r="AA137">
-        <v>11500</v>
+        <v>5750</v>
       </c>
       <c r="AB137">
         <v>43</v>
@@ -15717,7 +15827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15788,22 +15898,22 @@
         <v>15</v>
       </c>
       <c r="X138" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y138" t="s">
         <v>3</v>
-      </c>
-      <c r="Y138" t="s">
-        <v>16</v>
       </c>
       <c r="Z138" t="s">
         <v>17</v>
       </c>
       <c r="AA138">
-        <v>24500</v>
+        <v>12250</v>
       </c>
       <c r="AB138">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC138">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AD138">
         <v>1500</v>
@@ -15818,7 +15928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -15889,16 +15999,16 @@
         <v>15</v>
       </c>
       <c r="X139" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y139" t="s">
         <v>4</v>
-      </c>
-      <c r="Y139" t="s">
-        <v>29</v>
       </c>
       <c r="Z139" t="s">
         <v>17</v>
       </c>
       <c r="AA139">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB139">
         <v>30</v>
@@ -15919,7 +16029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15990,22 +16100,22 @@
         <v>15</v>
       </c>
       <c r="X140" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y140" t="s">
         <v>4</v>
-      </c>
-      <c r="Y140" t="s">
-        <v>29</v>
       </c>
       <c r="Z140" t="s">
         <v>17</v>
       </c>
       <c r="AA140">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB140">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AC140">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="AD140">
         <v>17000</v>
@@ -16020,7 +16130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16094,19 +16204,19 @@
         <v>1</v>
       </c>
       <c r="Y141" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z141" t="s">
         <v>1</v>
       </c>
       <c r="AA141">
-        <v>19000</v>
+        <v>9650</v>
       </c>
       <c r="AB141">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="AC141">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="AD141">
         <v>70000</v>
@@ -16121,7 +16231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16192,22 +16302,22 @@
         <v>15</v>
       </c>
       <c r="X142" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y142" t="s">
         <v>4</v>
-      </c>
-      <c r="Y142" t="s">
-        <v>29</v>
       </c>
       <c r="Z142" t="s">
         <v>17</v>
       </c>
       <c r="AA142">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="AB142">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="AC142">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="AD142">
         <v>5000</v>
@@ -16222,7 +16332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16296,19 +16406,19 @@
         <v>1</v>
       </c>
       <c r="Y143" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z143" t="s">
         <v>1</v>
       </c>
       <c r="AA143">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB143">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AC143">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AD143">
         <v>25000</v>
@@ -16323,7 +16433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16394,16 +16504,16 @@
         <v>15</v>
       </c>
       <c r="X144" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y144" t="s">
         <v>4</v>
-      </c>
-      <c r="Y144" t="s">
-        <v>16</v>
       </c>
       <c r="Z144" t="s">
         <v>17</v>
       </c>
       <c r="AA144">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="AB144">
         <v>21</v>
@@ -16424,7 +16534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16495,16 +16605,16 @@
         <v>15</v>
       </c>
       <c r="X145" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y145" t="s">
         <v>3</v>
-      </c>
-      <c r="Y145" t="s">
-        <v>29</v>
       </c>
       <c r="Z145" t="s">
         <v>17</v>
       </c>
       <c r="AA145">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="AB145">
         <v>50</v>
@@ -16525,7 +16635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16539,7 +16649,7 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F146" t="s">
         <v>1</v>
@@ -16599,19 +16709,19 @@
         <v>1</v>
       </c>
       <c r="Y146" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z146" t="s">
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>22500</v>
+        <v>11250</v>
       </c>
       <c r="AB146">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="AC146">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="AD146">
         <v>12500</v>
@@ -16626,7 +16736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16697,22 +16807,22 @@
         <v>15</v>
       </c>
       <c r="X147" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y147" t="s">
         <v>4</v>
-      </c>
-      <c r="Y147" t="s">
-        <v>16</v>
       </c>
       <c r="Z147" t="s">
         <v>17</v>
       </c>
       <c r="AA147">
-        <v>17000</v>
+        <v>8500</v>
       </c>
       <c r="AB147">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AC147">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="AD147">
         <v>30000</v>
@@ -16727,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16801,19 +16911,19 @@
         <v>1</v>
       </c>
       <c r="Y148" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z148" t="s">
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="AB148">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AC148">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="AD148">
         <v>75000</v>
@@ -16828,7 +16938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -16899,16 +17009,16 @@
         <v>15</v>
       </c>
       <c r="X149" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y149" t="s">
         <v>4</v>
-      </c>
-      <c r="Y149" t="s">
-        <v>29</v>
       </c>
       <c r="Z149" t="s">
         <v>17</v>
       </c>
       <c r="AA149">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB149">
         <v>46</v>
@@ -16929,7 +17039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17003,13 +17113,13 @@
         <v>1</v>
       </c>
       <c r="Y150" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z150" t="s">
         <v>1</v>
       </c>
       <c r="AA150">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB150">
         <v>46</v>
@@ -17030,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17101,16 +17211,16 @@
         <v>15</v>
       </c>
       <c r="X151" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y151" t="s">
         <v>3</v>
-      </c>
-      <c r="Y151" t="s">
-        <v>16</v>
       </c>
       <c r="Z151" t="s">
         <v>17</v>
       </c>
       <c r="AA151">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB151">
         <v>25</v>
@@ -17131,7 +17241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17205,19 +17315,19 @@
         <v>1</v>
       </c>
       <c r="Y152" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z152" t="s">
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB152">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="AC152">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="AD152">
         <v>45000</v>
@@ -17232,7 +17342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17303,16 +17413,16 @@
         <v>15</v>
       </c>
       <c r="X153" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y153" t="s">
         <v>4</v>
-      </c>
-      <c r="Y153" t="s">
-        <v>29</v>
       </c>
       <c r="Z153" t="s">
         <v>17</v>
       </c>
       <c r="AA153">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB153">
         <v>35</v>
@@ -17333,7 +17443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17404,16 +17514,16 @@
         <v>15</v>
       </c>
       <c r="X154" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y154" t="s">
         <v>4</v>
-      </c>
-      <c r="Y154" t="s">
-        <v>29</v>
       </c>
       <c r="Z154" t="s">
         <v>17</v>
       </c>
       <c r="AA154">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AB154">
         <v>10</v>
@@ -17434,7 +17544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17508,19 +17618,19 @@
         <v>1</v>
       </c>
       <c r="Y155" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z155" t="s">
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB155">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AC155">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="AD155">
         <v>16000</v>
@@ -17535,7 +17645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17606,16 +17716,16 @@
         <v>15</v>
       </c>
       <c r="X156" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y156" t="s">
         <v>4</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>29</v>
       </c>
       <c r="Z156" t="s">
         <v>17</v>
       </c>
       <c r="AA156">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB156">
         <v>33</v>
@@ -17636,7 +17746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17710,19 +17820,19 @@
         <v>1</v>
       </c>
       <c r="Y157" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z157" t="s">
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="AB157">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AC157">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="AD157">
         <v>16000</v>
@@ -17737,7 +17847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17808,22 +17918,22 @@
         <v>15</v>
       </c>
       <c r="X158" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y158" t="s">
         <v>4</v>
-      </c>
-      <c r="Y158" t="s">
-        <v>29</v>
       </c>
       <c r="Z158" t="s">
         <v>17</v>
       </c>
       <c r="AA158">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB158">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC158">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AD158">
         <v>22000</v>
@@ -17838,7 +17948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -17909,16 +18019,16 @@
         <v>15</v>
       </c>
       <c r="X159" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y159" t="s">
         <v>4</v>
-      </c>
-      <c r="Y159" t="s">
-        <v>16</v>
       </c>
       <c r="Z159" t="s">
         <v>17</v>
       </c>
       <c r="AA159">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB159">
         <v>35</v>
@@ -17939,7 +18049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18010,16 +18120,16 @@
         <v>15</v>
       </c>
       <c r="X160" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y160" t="s">
         <v>4</v>
-      </c>
-      <c r="Y160" t="s">
-        <v>16</v>
       </c>
       <c r="Z160" t="s">
         <v>17</v>
       </c>
       <c r="AA160">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AB160">
         <v>20</v>
@@ -18040,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18111,16 +18221,16 @@
         <v>15</v>
       </c>
       <c r="X161" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y161" t="s">
         <v>3</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>16</v>
       </c>
       <c r="Z161" t="s">
         <v>17</v>
       </c>
       <c r="AA161">
-        <v>13500</v>
+        <v>6750</v>
       </c>
       <c r="AB161">
         <v>50</v>
@@ -18141,7 +18251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18212,16 +18322,16 @@
         <v>15</v>
       </c>
       <c r="X162" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y162" t="s">
         <v>3</v>
-      </c>
-      <c r="Y162" t="s">
-        <v>16</v>
       </c>
       <c r="Z162" t="s">
         <v>17</v>
       </c>
       <c r="AA162">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="AB162">
         <v>65</v>
@@ -18242,7 +18352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18316,19 +18426,19 @@
         <v>1</v>
       </c>
       <c r="Y163" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z163" t="s">
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB163">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AC163">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AD163">
         <v>35000</v>
@@ -18343,7 +18453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18417,19 +18527,19 @@
         <v>1</v>
       </c>
       <c r="Y164" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z164" t="s">
         <v>1</v>
       </c>
       <c r="AA164">
-        <v>25000</v>
+        <v>12500</v>
       </c>
       <c r="AB164">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="AC164">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="AD164">
         <v>44000</v>
@@ -18444,7 +18554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18515,16 +18625,16 @@
         <v>15</v>
       </c>
       <c r="X165" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y165" t="s">
         <v>4</v>
-      </c>
-      <c r="Y165" t="s">
-        <v>16</v>
       </c>
       <c r="Z165" t="s">
         <v>17</v>
       </c>
       <c r="AA165">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB165">
         <v>42</v>
@@ -18545,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18616,16 +18726,16 @@
         <v>15</v>
       </c>
       <c r="X166" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y166" t="s">
         <v>3</v>
-      </c>
-      <c r="Y166" t="s">
-        <v>16</v>
       </c>
       <c r="Z166" t="s">
         <v>17</v>
       </c>
       <c r="AA166">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB166">
         <v>30</v>
@@ -18646,7 +18756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18717,16 +18827,16 @@
         <v>213</v>
       </c>
       <c r="X167" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y167" t="s">
         <v>4</v>
-      </c>
-      <c r="Y167" t="s">
-        <v>16</v>
       </c>
       <c r="Z167" t="s">
         <v>17</v>
       </c>
       <c r="AA167">
-        <v>28000</v>
+        <v>1400</v>
       </c>
       <c r="AB167">
         <v>50</v>
@@ -18747,7 +18857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18818,16 +18928,16 @@
         <v>15</v>
       </c>
       <c r="X168" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y168" t="s">
         <v>4</v>
-      </c>
-      <c r="Y168" t="s">
-        <v>16</v>
       </c>
       <c r="Z168" t="s">
         <v>17</v>
       </c>
       <c r="AA168">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AB168">
         <v>10</v>
@@ -18848,7 +18958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18919,16 +19029,16 @@
         <v>15</v>
       </c>
       <c r="X169" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y169" t="s">
         <v>4</v>
-      </c>
-      <c r="Y169" t="s">
-        <v>16</v>
       </c>
       <c r="Z169" t="s">
         <v>17</v>
       </c>
       <c r="AA169">
-        <v>5400</v>
+        <v>2700</v>
       </c>
       <c r="AB169">
         <v>25</v>
@@ -18949,7 +19059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19020,16 +19130,16 @@
         <v>15</v>
       </c>
       <c r="X170" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y170" t="s">
         <v>3</v>
-      </c>
-      <c r="Y170" t="s">
-        <v>29</v>
       </c>
       <c r="Z170" t="s">
         <v>17</v>
       </c>
       <c r="AA170">
-        <v>19500</v>
+        <v>9750</v>
       </c>
       <c r="AB170">
         <v>85</v>
@@ -19050,7 +19160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19121,16 +19231,16 @@
         <v>15</v>
       </c>
       <c r="X171" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y171" t="s">
         <v>3</v>
-      </c>
-      <c r="Y171" t="s">
-        <v>29</v>
       </c>
       <c r="Z171" t="s">
         <v>17</v>
       </c>
       <c r="AA171">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="AB171">
         <v>10</v>
@@ -19151,7 +19261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19222,16 +19332,16 @@
         <v>15</v>
       </c>
       <c r="X172" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y172" t="s">
         <v>4</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>16</v>
       </c>
       <c r="Z172" t="s">
         <v>17</v>
       </c>
       <c r="AA172">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB172">
         <v>36</v>
@@ -19252,7 +19362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19323,16 +19433,16 @@
         <v>15</v>
       </c>
       <c r="X173" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y173" t="s">
         <v>3</v>
-      </c>
-      <c r="Y173" t="s">
-        <v>16</v>
       </c>
       <c r="Z173" t="s">
         <v>17</v>
       </c>
       <c r="AA173">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="AB173">
         <v>12</v>
@@ -19353,7 +19463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19424,22 +19534,22 @@
         <v>15</v>
       </c>
       <c r="X174" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y174" t="s">
         <v>3</v>
-      </c>
-      <c r="Y174" t="s">
-        <v>16</v>
       </c>
       <c r="Z174" t="s">
         <v>17</v>
       </c>
       <c r="AA174">
-        <v>26000</v>
+        <v>13000</v>
       </c>
       <c r="AB174">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AC174">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AD174">
         <v>30000</v>
@@ -19454,7 +19564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19525,16 +19635,16 @@
         <v>15</v>
       </c>
       <c r="X175" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y175" t="s">
         <v>4</v>
-      </c>
-      <c r="Y175" t="s">
-        <v>16</v>
       </c>
       <c r="Z175" t="s">
         <v>17</v>
       </c>
       <c r="AA175">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB175">
         <v>55</v>
@@ -19555,7 +19665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19626,16 +19736,16 @@
         <v>15</v>
       </c>
       <c r="X176" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y176" t="s">
         <v>4</v>
-      </c>
-      <c r="Y176" t="s">
-        <v>29</v>
       </c>
       <c r="Z176" t="s">
         <v>17</v>
       </c>
       <c r="AA176">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB176">
         <v>30</v>
@@ -19656,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19727,16 +19837,16 @@
         <v>15</v>
       </c>
       <c r="X177" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y177" t="s">
         <v>3</v>
-      </c>
-      <c r="Y177" t="s">
-        <v>29</v>
       </c>
       <c r="Z177" t="s">
         <v>17</v>
       </c>
       <c r="AA177">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB177">
         <v>50</v>
@@ -19757,7 +19867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19828,16 +19938,16 @@
         <v>15</v>
       </c>
       <c r="X178" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y178" t="s">
         <v>3</v>
-      </c>
-      <c r="Y178" t="s">
-        <v>29</v>
       </c>
       <c r="Z178" t="s">
         <v>17</v>
       </c>
       <c r="AA178">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB178">
         <v>33</v>
@@ -19858,7 +19968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19929,16 +20039,16 @@
         <v>15</v>
       </c>
       <c r="X179" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y179" t="s">
         <v>3</v>
-      </c>
-      <c r="Y179" t="s">
-        <v>16</v>
       </c>
       <c r="Z179" t="s">
         <v>17</v>
       </c>
       <c r="AA179">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB179">
         <v>40</v>
@@ -19959,7 +20069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20030,22 +20140,22 @@
         <v>15</v>
       </c>
       <c r="X180" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y180" t="s">
         <v>3</v>
-      </c>
-      <c r="Y180" t="s">
-        <v>16</v>
       </c>
       <c r="Z180" t="s">
         <v>17</v>
       </c>
       <c r="AA180">
-        <v>30000</v>
+        <v>15500</v>
       </c>
       <c r="AB180">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="AC180">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="AD180">
         <v>30000</v>
@@ -20060,7 +20170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20131,16 +20241,16 @@
         <v>15</v>
       </c>
       <c r="X181" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y181" t="s">
         <v>4</v>
-      </c>
-      <c r="Y181" t="s">
-        <v>29</v>
       </c>
       <c r="Z181" t="s">
         <v>17</v>
       </c>
       <c r="AA181">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB181">
         <v>30</v>
@@ -20161,7 +20271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20232,16 +20342,16 @@
         <v>15</v>
       </c>
       <c r="X182" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y182" t="s">
         <v>4</v>
-      </c>
-      <c r="Y182" t="s">
-        <v>16</v>
       </c>
       <c r="Z182" t="s">
         <v>17</v>
       </c>
       <c r="AA182">
-        <v>6500</v>
+        <v>3250</v>
       </c>
       <c r="AB182">
         <v>23</v>
@@ -20262,7 +20372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20333,16 +20443,16 @@
         <v>15</v>
       </c>
       <c r="X183" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y183" t="s">
         <v>4</v>
-      </c>
-      <c r="Y183" t="s">
-        <v>16</v>
       </c>
       <c r="Z183" t="s">
         <v>17</v>
       </c>
       <c r="AA183">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB183">
         <v>45</v>
@@ -20363,7 +20473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20437,13 +20547,13 @@
         <v>1</v>
       </c>
       <c r="Y184" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z184" t="s">
         <v>1</v>
       </c>
       <c r="AA184">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB184">
         <v>43</v>
@@ -20464,7 +20574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20535,16 +20645,16 @@
         <v>15</v>
       </c>
       <c r="X185" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y185" t="s">
         <v>3</v>
-      </c>
-      <c r="Y185" t="s">
-        <v>29</v>
       </c>
       <c r="Z185" t="s">
         <v>17</v>
       </c>
       <c r="AA185">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB185">
         <v>60</v>
@@ -20565,7 +20675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20636,16 +20746,16 @@
         <v>15</v>
       </c>
       <c r="X186" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y186" t="s">
         <v>4</v>
-      </c>
-      <c r="Y186" t="s">
-        <v>29</v>
       </c>
       <c r="Z186" t="s">
         <v>17</v>
       </c>
       <c r="AA186">
-        <v>8500</v>
+        <v>4250</v>
       </c>
       <c r="AB186">
         <v>35</v>
@@ -20666,7 +20776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20740,13 +20850,13 @@
         <v>1</v>
       </c>
       <c r="Y187" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z187" t="s">
         <v>1</v>
       </c>
       <c r="AA187">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB187">
         <v>60</v>
@@ -20767,7 +20877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20838,16 +20948,16 @@
         <v>15</v>
       </c>
       <c r="X188" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y188" t="s">
         <v>4</v>
-      </c>
-      <c r="Y188" t="s">
-        <v>16</v>
       </c>
       <c r="Z188" t="s">
         <v>17</v>
       </c>
       <c r="AA188">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB188">
         <v>20</v>
@@ -20868,7 +20978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -20939,16 +21049,16 @@
         <v>15</v>
       </c>
       <c r="X189" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y189" t="s">
         <v>3</v>
-      </c>
-      <c r="Y189" t="s">
-        <v>16</v>
       </c>
       <c r="Z189" t="s">
         <v>17</v>
       </c>
       <c r="AA189">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB189">
         <v>70</v>
@@ -20969,7 +21079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21043,19 +21153,19 @@
         <v>1</v>
       </c>
       <c r="Y190" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z190" t="s">
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>19000</v>
+        <v>8000</v>
       </c>
       <c r="AB190">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AC190">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AD190">
         <v>14500</v>
@@ -21070,7 +21180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21141,16 +21251,16 @@
         <v>15</v>
       </c>
       <c r="X191" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y191" t="s">
         <v>3</v>
-      </c>
-      <c r="Y191" t="s">
-        <v>29</v>
       </c>
       <c r="Z191" t="s">
         <v>17</v>
       </c>
       <c r="AA191">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB191">
         <v>70</v>
@@ -21171,7 +21281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21242,16 +21352,16 @@
         <v>15</v>
       </c>
       <c r="X192" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y192" t="s">
         <v>4</v>
-      </c>
-      <c r="Y192" t="s">
-        <v>29</v>
       </c>
       <c r="Z192" t="s">
         <v>17</v>
       </c>
       <c r="AA192">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="AB192">
         <v>22</v>
@@ -21272,7 +21382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21286,7 +21396,7 @@
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F193" t="s">
         <v>1</v>
@@ -21310,7 +21420,7 @@
         <v>64</v>
       </c>
       <c r="M193" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N193" t="s">
         <v>1</v>
@@ -21346,19 +21456,19 @@
         <v>1</v>
       </c>
       <c r="Y193" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z193" t="s">
         <v>1</v>
       </c>
       <c r="AA193">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB193">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AC193">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="AD193">
         <v>15600</v>
@@ -21373,7 +21483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21444,16 +21554,16 @@
         <v>15</v>
       </c>
       <c r="X194" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y194" t="s">
         <v>4</v>
-      </c>
-      <c r="Y194" t="s">
-        <v>16</v>
       </c>
       <c r="Z194" t="s">
         <v>17</v>
       </c>
       <c r="AA194">
-        <v>13000</v>
+        <v>6500</v>
       </c>
       <c r="AB194">
         <v>38</v>
@@ -21474,7 +21584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21545,16 +21655,16 @@
         <v>15</v>
       </c>
       <c r="X195" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y195" t="s">
         <v>3</v>
-      </c>
-      <c r="Y195" t="s">
-        <v>16</v>
       </c>
       <c r="Z195" t="s">
         <v>17</v>
       </c>
       <c r="AA195">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="AB195">
         <v>66</v>
@@ -21575,7 +21685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21646,16 +21756,16 @@
         <v>15</v>
       </c>
       <c r="X196" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y196" t="s">
         <v>4</v>
-      </c>
-      <c r="Y196" t="s">
-        <v>29</v>
       </c>
       <c r="Z196" t="s">
         <v>17</v>
       </c>
       <c r="AA196">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB196">
         <v>25</v>
@@ -21676,7 +21786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21750,19 +21860,19 @@
         <v>1</v>
       </c>
       <c r="Y197" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z197" t="s">
         <v>1</v>
       </c>
       <c r="AA197">
-        <v>21000</v>
+        <v>10500</v>
       </c>
       <c r="AB197">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AC197">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AD197">
         <v>25000</v>
@@ -21777,7 +21887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21848,16 +21958,16 @@
         <v>15</v>
       </c>
       <c r="X198" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y198" t="s">
         <v>4</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>16</v>
       </c>
       <c r="Z198" t="s">
         <v>17</v>
       </c>
       <c r="AA198">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB198">
         <v>60</v>
@@ -21878,7 +21988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -21949,16 +22059,16 @@
         <v>15</v>
       </c>
       <c r="X199" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y199" t="s">
         <v>4</v>
-      </c>
-      <c r="Y199" t="s">
-        <v>16</v>
       </c>
       <c r="Z199" t="s">
         <v>17</v>
       </c>
       <c r="AA199">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB199">
         <v>40</v>
@@ -21979,7 +22089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22050,16 +22160,16 @@
         <v>15</v>
       </c>
       <c r="X200" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y200" t="s">
         <v>4</v>
-      </c>
-      <c r="Y200" t="s">
-        <v>16</v>
       </c>
       <c r="Z200" t="s">
         <v>17</v>
       </c>
       <c r="AA200">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB200">
         <v>42</v>
@@ -22080,7 +22190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22151,16 +22261,16 @@
         <v>15</v>
       </c>
       <c r="X201" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y201" t="s">
         <v>4</v>
-      </c>
-      <c r="Y201" t="s">
-        <v>16</v>
       </c>
       <c r="Z201" t="s">
         <v>17</v>
       </c>
       <c r="AA201">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB201">
         <v>42</v>
@@ -22181,7 +22291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22252,16 +22362,16 @@
         <v>15</v>
       </c>
       <c r="X202" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y202" t="s">
         <v>3</v>
-      </c>
-      <c r="Y202" t="s">
-        <v>29</v>
       </c>
       <c r="Z202" t="s">
         <v>17</v>
       </c>
       <c r="AA202">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB202">
         <v>42</v>
@@ -22282,7 +22392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -22353,22 +22463,22 @@
         <v>15</v>
       </c>
       <c r="X203" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y203" t="s">
         <v>3</v>
-      </c>
-      <c r="Y203" t="s">
-        <v>29</v>
       </c>
       <c r="Z203" t="s">
         <v>17</v>
       </c>
       <c r="AA203">
-        <v>22000</v>
+        <v>20000</v>
       </c>
       <c r="AB203">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AC203">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AD203">
         <v>5000</v>
@@ -22383,7 +22493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22457,19 +22567,19 @@
         <v>1</v>
       </c>
       <c r="Y204" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z204" t="s">
         <v>1</v>
       </c>
       <c r="AA204">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB204">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AC204">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="AD204">
         <v>35000</v>
@@ -22484,7 +22594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22555,16 +22665,16 @@
         <v>15</v>
       </c>
       <c r="X205" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y205" t="s">
         <v>4</v>
-      </c>
-      <c r="Y205" t="s">
-        <v>16</v>
       </c>
       <c r="Z205" t="s">
         <v>17</v>
       </c>
       <c r="AA205">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB205">
         <v>30</v>
@@ -22585,7 +22695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22659,19 +22769,19 @@
         <v>1</v>
       </c>
       <c r="Y206" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z206" t="s">
         <v>1</v>
       </c>
       <c r="AA206">
-        <v>20500</v>
+        <v>10250</v>
       </c>
       <c r="AB206">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AC206">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AD206">
         <v>40000</v>
@@ -22686,7 +22796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -22757,16 +22867,16 @@
         <v>15</v>
       </c>
       <c r="X207" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y207" t="s">
         <v>4</v>
-      </c>
-      <c r="Y207" t="s">
-        <v>29</v>
       </c>
       <c r="Z207" t="s">
         <v>17</v>
       </c>
       <c r="AA207">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB207">
         <v>30</v>
@@ -22787,7 +22897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -22858,16 +22968,16 @@
         <v>15</v>
       </c>
       <c r="X208" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y208" t="s">
         <v>4</v>
-      </c>
-      <c r="Y208" t="s">
-        <v>16</v>
       </c>
       <c r="Z208" t="s">
         <v>17</v>
       </c>
       <c r="AA208">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="AB208">
         <v>45</v>
@@ -22888,7 +22998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -22959,16 +23069,16 @@
         <v>15</v>
       </c>
       <c r="X209" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y209" t="s">
         <v>3</v>
-      </c>
-      <c r="Y209" t="s">
-        <v>29</v>
       </c>
       <c r="Z209" t="s">
         <v>17</v>
       </c>
       <c r="AA209">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB209">
         <v>40</v>
@@ -22989,7 +23099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -23060,16 +23170,16 @@
         <v>15</v>
       </c>
       <c r="X210" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y210" t="s">
         <v>4</v>
-      </c>
-      <c r="Y210" t="s">
-        <v>29</v>
       </c>
       <c r="Z210" t="s">
         <v>17</v>
       </c>
       <c r="AA210">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB210">
         <v>38</v>
@@ -23090,7 +23200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -23164,13 +23274,13 @@
         <v>1</v>
       </c>
       <c r="Y211" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z211" t="s">
         <v>1</v>
       </c>
       <c r="AA211">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB211">
         <v>51</v>
@@ -23191,7 +23301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -23205,7 +23315,7 @@
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F212" t="s">
         <v>1</v>
@@ -23229,7 +23339,7 @@
         <v>64</v>
       </c>
       <c r="M212" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="N212" t="s">
         <v>1</v>
@@ -23265,13 +23375,13 @@
         <v>1</v>
       </c>
       <c r="Y212" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z212" t="s">
         <v>1</v>
       </c>
       <c r="AA212">
-        <v>15000</v>
+        <v>7500</v>
       </c>
       <c r="AB212">
         <v>60</v>
@@ -23292,7 +23402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -23363,16 +23473,16 @@
         <v>15</v>
       </c>
       <c r="X213" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y213" t="s">
         <v>3</v>
-      </c>
-      <c r="Y213" t="s">
-        <v>16</v>
       </c>
       <c r="Z213" t="s">
         <v>17</v>
       </c>
       <c r="AA213">
-        <v>13600</v>
+        <v>6800</v>
       </c>
       <c r="AB213">
         <v>39</v>
@@ -23393,7 +23503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -23467,13 +23577,13 @@
         <v>1</v>
       </c>
       <c r="Y214" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z214" t="s">
         <v>1</v>
       </c>
       <c r="AA214">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB214">
         <v>35</v>
@@ -23494,7 +23604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -23565,16 +23675,16 @@
         <v>15</v>
       </c>
       <c r="X215" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y215" t="s">
         <v>4</v>
-      </c>
-      <c r="Y215" t="s">
-        <v>29</v>
       </c>
       <c r="Z215" t="s">
         <v>17</v>
       </c>
       <c r="AA215">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="AB215">
         <v>35</v>
@@ -23595,7 +23705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -23666,22 +23776,22 @@
         <v>15</v>
       </c>
       <c r="X216" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y216" t="s">
         <v>4</v>
-      </c>
-      <c r="Y216" t="s">
-        <v>16</v>
       </c>
       <c r="Z216" t="s">
         <v>17</v>
       </c>
       <c r="AA216">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB216">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC216">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD216">
         <v>45000</v>
@@ -23696,7 +23806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -23767,16 +23877,16 @@
         <v>15</v>
       </c>
       <c r="X217" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y217" t="s">
         <v>4</v>
-      </c>
-      <c r="Y217" t="s">
-        <v>16</v>
       </c>
       <c r="Z217" t="s">
         <v>17</v>
       </c>
       <c r="AA217">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="AB217">
         <v>20</v>
@@ -23797,7 +23907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23868,16 +23978,16 @@
         <v>15</v>
       </c>
       <c r="X218" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y218" t="s">
         <v>4</v>
-      </c>
-      <c r="Y218" t="s">
-        <v>29</v>
       </c>
       <c r="Z218" t="s">
         <v>17</v>
       </c>
       <c r="AA218">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB218">
         <v>33</v>
@@ -23898,7 +24008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -23972,19 +24082,19 @@
         <v>1</v>
       </c>
       <c r="Y219" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z219" t="s">
         <v>1</v>
       </c>
       <c r="AA219">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB219">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AC219">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AD219">
         <v>35000</v>
@@ -23999,7 +24109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24070,22 +24180,22 @@
         <v>15</v>
       </c>
       <c r="X220" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y220" t="s">
         <v>4</v>
-      </c>
-      <c r="Y220" t="s">
-        <v>29</v>
       </c>
       <c r="Z220" t="s">
         <v>17</v>
       </c>
       <c r="AA220">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB220">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AC220">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AD220">
         <v>35000</v>
@@ -24100,7 +24210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24171,16 +24281,16 @@
         <v>15</v>
       </c>
       <c r="X221" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y221" t="s">
         <v>4</v>
-      </c>
-      <c r="Y221" t="s">
-        <v>16</v>
       </c>
       <c r="Z221" t="s">
         <v>17</v>
       </c>
       <c r="AA221">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB221">
         <v>60</v>
@@ -24201,7 +24311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24272,16 +24382,16 @@
         <v>15</v>
       </c>
       <c r="X222" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y222" t="s">
         <v>4</v>
-      </c>
-      <c r="Y222" t="s">
-        <v>29</v>
       </c>
       <c r="Z222" t="s">
         <v>17</v>
       </c>
       <c r="AA222">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="AB222">
         <v>42</v>
@@ -24302,7 +24412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24373,16 +24483,16 @@
         <v>15</v>
       </c>
       <c r="X223" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y223" t="s">
         <v>4</v>
-      </c>
-      <c r="Y223" t="s">
-        <v>16</v>
       </c>
       <c r="Z223" t="s">
         <v>17</v>
       </c>
       <c r="AA223">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="AB223">
         <v>21</v>
@@ -24403,7 +24513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24474,16 +24584,16 @@
         <v>15</v>
       </c>
       <c r="X224" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y224" t="s">
         <v>4</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>29</v>
       </c>
       <c r="Z224" t="s">
         <v>17</v>
       </c>
       <c r="AA224">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="AB224">
         <v>25</v>
@@ -24504,7 +24614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24575,16 +24685,16 @@
         <v>15</v>
       </c>
       <c r="X225" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y225" t="s">
         <v>3</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>16</v>
       </c>
       <c r="Z225" t="s">
         <v>17</v>
       </c>
       <c r="AA225">
-        <v>18000</v>
+        <v>9000</v>
       </c>
       <c r="AB225">
         <v>50</v>
@@ -24605,7 +24715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24676,16 +24786,16 @@
         <v>15</v>
       </c>
       <c r="X226" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y226" t="s">
         <v>4</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>29</v>
       </c>
       <c r="Z226" t="s">
         <v>17</v>
       </c>
       <c r="AA226">
-        <v>17500</v>
+        <v>8750</v>
       </c>
       <c r="AB226">
         <v>52</v>
@@ -24706,7 +24816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24780,19 +24890,19 @@
         <v>1</v>
       </c>
       <c r="Y227" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z227" t="s">
         <v>1</v>
       </c>
       <c r="AA227">
-        <v>36000</v>
+        <v>1800</v>
       </c>
       <c r="AB227">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="AC227">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="AD227">
         <v>9000</v>
@@ -24807,7 +24917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24881,19 +24991,19 @@
         <v>1</v>
       </c>
       <c r="Y228" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z228" t="s">
         <v>1</v>
       </c>
       <c r="AA228">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB228">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AC228">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AD228">
         <v>16000</v>
@@ -24908,7 +25018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -24979,16 +25089,16 @@
         <v>15</v>
       </c>
       <c r="X229" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y229" t="s">
         <v>4</v>
-      </c>
-      <c r="Y229" t="s">
-        <v>29</v>
       </c>
       <c r="Z229" t="s">
         <v>17</v>
       </c>
       <c r="AA229">
-        <v>14000</v>
+        <v>7000</v>
       </c>
       <c r="AB229">
         <v>40</v>
@@ -25009,7 +25119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -25083,19 +25193,19 @@
         <v>1</v>
       </c>
       <c r="Y230" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z230" t="s">
         <v>1</v>
       </c>
       <c r="AA230">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB230">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AC230">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AD230">
         <v>22000</v>
@@ -25110,7 +25220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -25181,22 +25291,22 @@
         <v>15</v>
       </c>
       <c r="X231" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y231" t="s">
         <v>3</v>
-      </c>
-      <c r="Y231" t="s">
-        <v>16</v>
       </c>
       <c r="Z231" t="s">
         <v>17</v>
       </c>
       <c r="AA231">
-        <v>24500</v>
+        <v>21000</v>
       </c>
       <c r="AB231">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AC231">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="AD231">
         <v>65000</v>
@@ -25211,7 +25321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -25285,19 +25395,19 @@
         <v>1</v>
       </c>
       <c r="Y232" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z232" t="s">
         <v>1</v>
       </c>
       <c r="AA232">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB232">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AC232">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="AD232">
         <v>36000</v>
@@ -25312,7 +25422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -25383,16 +25493,16 @@
         <v>15</v>
       </c>
       <c r="X233" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y233" t="s">
         <v>4</v>
-      </c>
-      <c r="Y233" t="s">
-        <v>29</v>
       </c>
       <c r="Z233" t="s">
         <v>17</v>
       </c>
       <c r="AA233">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="AB233">
         <v>10</v>
@@ -25413,7 +25523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -25487,19 +25597,19 @@
         <v>1</v>
       </c>
       <c r="Y234" t="s">
-        <v>1</v>
+        <v>313</v>
       </c>
       <c r="Z234" t="s">
         <v>1</v>
       </c>
       <c r="AA234">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="AB234">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AC234">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AD234">
         <v>50000</v>
@@ -25514,7 +25624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -25585,22 +25695,22 @@
         <v>15</v>
       </c>
       <c r="X235" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y235" t="s">
         <v>4</v>
-      </c>
-      <c r="Y235" t="s">
-        <v>29</v>
       </c>
       <c r="Z235" t="s">
         <v>17</v>
       </c>
       <c r="AA235">
-        <v>19000</v>
+        <v>9500</v>
       </c>
       <c r="AB235">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AC235">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AD235">
         <v>30000</v>
@@ -25615,7 +25725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -25686,16 +25796,16 @@
         <v>15</v>
       </c>
       <c r="X236" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y236" t="s">
         <v>4</v>
-      </c>
-      <c r="Y236" t="s">
-        <v>16</v>
       </c>
       <c r="Z236" t="s">
         <v>17</v>
       </c>
       <c r="AA236">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="AB236">
         <v>35</v>
@@ -25716,7 +25826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -25787,16 +25897,16 @@
         <v>15</v>
       </c>
       <c r="X237" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y237" t="s">
         <v>4</v>
-      </c>
-      <c r="Y237" t="s">
-        <v>16</v>
       </c>
       <c r="Z237" t="s">
         <v>17</v>
       </c>
       <c r="AA237">
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="AB237">
         <v>20</v>
@@ -25822,5 +25932,23 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{A9538F04-7818-4D70-B3DF-B3987B37A7EE}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{F1662484-9245-488B-818D-28F76211E40A}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{B88437F1-9B7B-47DF-8EE1-A17266563342}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{D65EB086-5517-4709-B826-67BBBE67838C}">
+          <xm:f>#REF!</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/pyloghub/sample_data/shipmentAnalyzerAddresses.xlsx
+++ b/pyloghub/sample_data/shipmentAnalyzerAddresses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\log-hub-python\pyloghub\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850FDE3-F5B0-4026-AD44-3675E7BD7E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85DDF76-0534-4918-B912-82029D9A2642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{82123591-4274-42B6-A793-97DDA489CF4D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{82123591-4274-42B6-A793-97DDA489CF4D}"/>
   </bookViews>
   <sheets>
     <sheet name="surcharges" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5518" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="315">
   <si>
     <t>*</t>
   </si>
@@ -981,6 +981,9 @@
   </si>
   <si>
     <t>Container</t>
+  </si>
+  <si>
+    <t>distance</t>
   </si>
 </sst>
 </file>
@@ -1040,11 +1043,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1120,9 +1124,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B589CD6-54B9-4537-9E4A-5B73AE828DC0}" name="Table46" displayName="Table46" ref="A1:AG237" totalsRowShown="0">
-  <autoFilter ref="A1:AG237" xr:uid="{2B589CD6-54B9-4537-9E4A-5B73AE828DC0}"/>
-  <tableColumns count="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B589CD6-54B9-4537-9E4A-5B73AE828DC0}" name="Table46" displayName="Table46" ref="A1:AH237" totalsRowShown="0">
+  <autoFilter ref="A1:AH237" xr:uid="{2B589CD6-54B9-4537-9E4A-5B73AE828DC0}"/>
+  <tableColumns count="34">
     <tableColumn id="1" xr3:uid="{E12BC39C-5AAB-4BE1-9737-7BF8B7D85693}" name="id"/>
     <tableColumn id="33" xr3:uid="{91995470-A54C-4A27-A11D-B0CD713A35BC}" name="shipmentId"/>
     <tableColumn id="2" xr3:uid="{3B8EC1C1-4A1E-4D89-B5E3-A5EB981FBC3D}" name="shipmentLeg"/>
@@ -1149,6 +1153,7 @@
     <tableColumn id="23" xr3:uid="{D2E65E95-59F0-4429-98C7-3EACF7580795}" name="carrier"/>
     <tableColumn id="24" xr3:uid="{A21B8BBB-391B-43E1-8120-EE068144E44A}" name="truckShipPlaneType"/>
     <tableColumn id="25" xr3:uid="{843968BB-5598-43DE-BEBC-54BE0939D771}" name="speedProfile"/>
+    <tableColumn id="34" xr3:uid="{D791E5E3-8BCC-45E2-8E76-E9FA69EC9BEA}" name="distance"/>
     <tableColumn id="26" xr3:uid="{5084DC0C-3D0A-4982-B033-F34F87E81A78}" name="weight"/>
     <tableColumn id="27" xr3:uid="{A27A7A23-1E33-4F2C-910F-A0C103555A1C}" name="volume"/>
     <tableColumn id="28" xr3:uid="{636FEE13-C040-428C-8524-133B5D6DC687}" name="pallets"/>
@@ -1537,14 +1542,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1555,7 +1560,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1629,20 +1634,20 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1671,7 +1676,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1700,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1821,19 +1826,19 @@
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>271</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1911,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1948,49 +1953,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1AC0AA5-D178-431E-A4C5-4E92054A69B0}">
-  <dimension ref="A1:AG237"/>
+  <dimension ref="A1:AH237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>271</v>
       </c>
@@ -2069,29 +2074,32 @@
       <c r="Z1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2170,29 +2178,29 @@
       <c r="Z2" t="s">
         <v>17</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>9000</v>
-      </c>
-      <c r="AB2">
-        <v>50</v>
       </c>
       <c r="AC2">
         <v>50</v>
       </c>
       <c r="AD2">
+        <v>50</v>
+      </c>
+      <c r="AE2">
         <v>50000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3100</v>
       </c>
-      <c r="AF2" t="s">
-        <v>1</v>
-      </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2271,29 +2279,29 @@
       <c r="Z3" t="s">
         <v>17</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>7000</v>
-      </c>
-      <c r="AB3">
-        <v>42</v>
       </c>
       <c r="AC3">
         <v>42</v>
       </c>
       <c r="AD3">
+        <v>42</v>
+      </c>
+      <c r="AE3">
         <v>42000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>1800</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>21</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2372,29 +2380,29 @@
       <c r="Z4" t="s">
         <v>17</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>3700</v>
-      </c>
-      <c r="AB4">
-        <v>20</v>
       </c>
       <c r="AC4">
         <v>20</v>
       </c>
       <c r="AD4">
+        <v>20</v>
+      </c>
+      <c r="AE4">
         <v>18000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1500</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>21</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2473,29 +2481,29 @@
       <c r="Z5" t="s">
         <v>17</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>3000</v>
-      </c>
-      <c r="AB5">
-        <v>25</v>
       </c>
       <c r="AC5">
         <v>25</v>
       </c>
       <c r="AD5">
+        <v>25</v>
+      </c>
+      <c r="AE5">
         <v>15000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>3000</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>21</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2574,29 +2582,29 @@
       <c r="Z6" t="s">
         <v>17</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>10500</v>
-      </c>
-      <c r="AB6">
-        <v>60</v>
       </c>
       <c r="AC6">
         <v>60</v>
       </c>
       <c r="AD6">
+        <v>60</v>
+      </c>
+      <c r="AE6">
         <v>50000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>7250</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2675,29 +2683,29 @@
       <c r="Z7" t="s">
         <v>17</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>7000</v>
-      </c>
-      <c r="AB7">
-        <v>45</v>
       </c>
       <c r="AC7">
         <v>45</v>
       </c>
       <c r="AD7">
+        <v>45</v>
+      </c>
+      <c r="AE7">
         <v>30000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5000</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>21</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2776,29 +2784,29 @@
       <c r="Z8" t="s">
         <v>17</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1000</v>
-      </c>
-      <c r="AB8">
-        <v>8</v>
       </c>
       <c r="AC8">
         <v>8</v>
       </c>
       <c r="AD8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
         <v>5000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1000</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>21</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2877,29 +2885,29 @@
       <c r="Z9" t="s">
         <v>17</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1000</v>
-      </c>
-      <c r="AB9">
-        <v>9</v>
       </c>
       <c r="AC9">
         <v>9</v>
       </c>
       <c r="AD9">
+        <v>9</v>
+      </c>
+      <c r="AE9">
         <v>5500</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>800</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>21</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2978,29 +2986,29 @@
       <c r="Z10" t="s">
         <v>1</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>6500</v>
-      </c>
-      <c r="AB10">
-        <v>38</v>
       </c>
       <c r="AC10">
         <v>38</v>
       </c>
       <c r="AD10">
+        <v>38</v>
+      </c>
+      <c r="AE10">
         <v>29000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>6000</v>
       </c>
-      <c r="AF10" t="s">
-        <v>1</v>
-      </c>
       <c r="AG10" t="s">
         <v>1</v>
       </c>
+      <c r="AH10" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3079,29 +3087,29 @@
       <c r="Z11" t="s">
         <v>17</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>3000</v>
-      </c>
-      <c r="AB11">
-        <v>21</v>
       </c>
       <c r="AC11">
         <v>21</v>
       </c>
       <c r="AD11">
+        <v>21</v>
+      </c>
+      <c r="AE11">
         <v>15000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>1700</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>21</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3180,29 +3188,29 @@
       <c r="Z12" t="s">
         <v>17</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>4000</v>
-      </c>
-      <c r="AB12">
-        <v>25</v>
       </c>
       <c r="AC12">
         <v>25</v>
       </c>
       <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AE12">
         <v>15000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>1500</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>21</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3281,29 +3289,29 @@
       <c r="Z13" t="s">
         <v>17</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6000</v>
-      </c>
-      <c r="AB13">
-        <v>50</v>
       </c>
       <c r="AC13">
         <v>50</v>
       </c>
       <c r="AD13">
+        <v>50</v>
+      </c>
+      <c r="AE13">
         <v>35000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>5500</v>
       </c>
-      <c r="AF13" t="s">
-        <v>1</v>
-      </c>
       <c r="AG13" t="s">
         <v>1</v>
       </c>
+      <c r="AH13" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3382,29 +3390,29 @@
       <c r="Z14" t="s">
         <v>17</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>4500</v>
-      </c>
-      <c r="AB14">
-        <v>35</v>
       </c>
       <c r="AC14">
         <v>35</v>
       </c>
       <c r="AD14">
+        <v>35</v>
+      </c>
+      <c r="AE14">
         <v>30000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1000</v>
       </c>
-      <c r="AF14" t="s">
-        <v>1</v>
-      </c>
       <c r="AG14" t="s">
         <v>1</v>
       </c>
+      <c r="AH14" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3483,29 +3491,29 @@
       <c r="Z15" t="s">
         <v>17</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>9500</v>
-      </c>
-      <c r="AB15">
-        <v>55</v>
       </c>
       <c r="AC15">
         <v>55</v>
       </c>
       <c r="AD15">
+        <v>55</v>
+      </c>
+      <c r="AE15">
         <v>55000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>3200</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>21</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3584,29 +3592,29 @@
       <c r="Z16" t="s">
         <v>17</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>7000</v>
-      </c>
-      <c r="AB16">
-        <v>42</v>
       </c>
       <c r="AC16">
         <v>42</v>
       </c>
       <c r="AD16">
+        <v>42</v>
+      </c>
+      <c r="AE16">
         <v>28000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3550</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>21</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3685,29 +3693,29 @@
       <c r="Z17" t="s">
         <v>17</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>3000</v>
-      </c>
-      <c r="AB17">
-        <v>21</v>
       </c>
       <c r="AC17">
         <v>21</v>
       </c>
       <c r="AD17">
+        <v>21</v>
+      </c>
+      <c r="AE17">
         <v>10000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>2500</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>21</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3786,29 +3794,29 @@
       <c r="Z18" t="s">
         <v>17</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4000</v>
-      </c>
-      <c r="AB18">
-        <v>30</v>
       </c>
       <c r="AC18">
         <v>30</v>
       </c>
       <c r="AD18">
+        <v>30</v>
+      </c>
+      <c r="AE18">
         <v>33000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>3000</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>21</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3887,29 +3895,29 @@
       <c r="Z19" t="s">
         <v>17</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>4000</v>
-      </c>
-      <c r="AB19">
-        <v>30</v>
       </c>
       <c r="AC19">
         <v>30</v>
       </c>
       <c r="AD19">
+        <v>30</v>
+      </c>
+      <c r="AE19">
         <v>33000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>3000</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>21</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3988,29 +3996,29 @@
       <c r="Z20" t="s">
         <v>17</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>3000</v>
-      </c>
-      <c r="AB20">
-        <v>21</v>
       </c>
       <c r="AC20">
         <v>21</v>
       </c>
       <c r="AD20">
+        <v>21</v>
+      </c>
+      <c r="AE20">
         <v>15000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>1500</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>21</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4089,29 +4097,29 @@
       <c r="Z21" t="s">
         <v>17</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>8500</v>
-      </c>
-      <c r="AB21">
-        <v>55</v>
       </c>
       <c r="AC21">
         <v>55</v>
       </c>
       <c r="AD21">
+        <v>55</v>
+      </c>
+      <c r="AE21">
         <v>40000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>4000</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>21</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4190,29 +4198,29 @@
       <c r="Z22" t="s">
         <v>17</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>4000</v>
-      </c>
-      <c r="AB22">
-        <v>24</v>
       </c>
       <c r="AC22">
         <v>24</v>
       </c>
       <c r="AD22">
+        <v>24</v>
+      </c>
+      <c r="AE22">
         <v>20000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>2500</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>21</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4291,29 +4299,29 @@
       <c r="Z23" t="s">
         <v>17</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>7000</v>
-      </c>
-      <c r="AB23">
-        <v>45</v>
       </c>
       <c r="AC23">
         <v>45</v>
       </c>
       <c r="AD23">
+        <v>45</v>
+      </c>
+      <c r="AE23">
         <v>30000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>5000</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>21</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4392,29 +4400,29 @@
       <c r="Z24" t="s">
         <v>17</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>1000</v>
-      </c>
-      <c r="AB24">
-        <v>8</v>
       </c>
       <c r="AC24">
         <v>8</v>
       </c>
       <c r="AD24">
+        <v>8</v>
+      </c>
+      <c r="AE24">
         <v>5000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>800</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>21</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4493,29 +4501,29 @@
       <c r="Z25" t="s">
         <v>17</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>1000</v>
-      </c>
-      <c r="AB25">
-        <v>9</v>
       </c>
       <c r="AC25">
         <v>9</v>
       </c>
       <c r="AD25">
+        <v>9</v>
+      </c>
+      <c r="AE25">
         <v>5500</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>850</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>21</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4594,29 +4602,29 @@
       <c r="Z26" t="s">
         <v>17</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>6000</v>
-      </c>
-      <c r="AB26">
-        <v>40</v>
       </c>
       <c r="AC26">
         <v>40</v>
       </c>
       <c r="AD26">
+        <v>40</v>
+      </c>
+      <c r="AE26">
         <v>35000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>5000</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>21</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AH26" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4695,29 +4703,29 @@
       <c r="Z27" t="s">
         <v>17</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>4500</v>
-      </c>
-      <c r="AB27">
-        <v>20</v>
       </c>
       <c r="AC27">
         <v>20</v>
       </c>
       <c r="AD27">
+        <v>20</v>
+      </c>
+      <c r="AE27">
         <v>30000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1500</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>21</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4796,29 +4804,29 @@
       <c r="Z28" t="s">
         <v>17</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>4000</v>
-      </c>
-      <c r="AB28">
-        <v>30</v>
       </c>
       <c r="AC28">
         <v>30</v>
       </c>
       <c r="AD28">
+        <v>30</v>
+      </c>
+      <c r="AE28">
         <v>33000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>3000</v>
       </c>
-      <c r="AF28" t="s">
+      <c r="AG28" t="s">
         <v>21</v>
       </c>
-      <c r="AG28" t="s">
+      <c r="AH28" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4897,29 +4905,29 @@
       <c r="Z29" t="s">
         <v>17</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>3000</v>
-      </c>
-      <c r="AB29">
-        <v>21</v>
       </c>
       <c r="AC29">
         <v>21</v>
       </c>
       <c r="AD29">
+        <v>21</v>
+      </c>
+      <c r="AE29">
         <v>15000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1700</v>
       </c>
-      <c r="AF29" t="s">
+      <c r="AG29" t="s">
         <v>21</v>
       </c>
-      <c r="AG29" t="s">
+      <c r="AH29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4998,29 +5006,29 @@
       <c r="Z30" t="s">
         <v>17</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>4000</v>
-      </c>
-      <c r="AB30">
-        <v>30</v>
       </c>
       <c r="AC30">
         <v>30</v>
       </c>
       <c r="AD30">
+        <v>30</v>
+      </c>
+      <c r="AE30">
         <v>33000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>2800</v>
       </c>
-      <c r="AF30" t="s">
+      <c r="AG30" t="s">
         <v>21</v>
       </c>
-      <c r="AG30" t="s">
+      <c r="AH30" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5099,29 +5107,29 @@
       <c r="Z31" t="s">
         <v>17</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>9000</v>
-      </c>
-      <c r="AB31">
-        <v>52</v>
       </c>
       <c r="AC31">
         <v>52</v>
       </c>
       <c r="AD31">
+        <v>52</v>
+      </c>
+      <c r="AE31">
         <v>48000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1500</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
         <v>21</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AH31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5200,29 +5208,29 @@
       <c r="Z32" t="s">
         <v>1</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>8000</v>
-      </c>
-      <c r="AB32">
-        <v>48</v>
       </c>
       <c r="AC32">
         <v>48</v>
       </c>
       <c r="AD32">
+        <v>48</v>
+      </c>
+      <c r="AE32">
         <v>44000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>6000</v>
       </c>
-      <c r="AF32" t="s">
-        <v>1</v>
-      </c>
       <c r="AG32" t="s">
         <v>1</v>
       </c>
+      <c r="AH32" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5301,29 +5309,29 @@
       <c r="Z33" t="s">
         <v>17</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>8000</v>
-      </c>
-      <c r="AB33">
-        <v>41</v>
       </c>
       <c r="AC33">
         <v>41</v>
       </c>
       <c r="AD33">
+        <v>41</v>
+      </c>
+      <c r="AE33">
         <v>44000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>4000</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>21</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5402,29 +5410,29 @@
       <c r="Z34" t="s">
         <v>17</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>7500</v>
-      </c>
-      <c r="AB34">
-        <v>45</v>
       </c>
       <c r="AC34">
         <v>45</v>
       </c>
       <c r="AD34">
+        <v>45</v>
+      </c>
+      <c r="AE34">
         <v>21000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>3100</v>
       </c>
-      <c r="AF34" t="s">
+      <c r="AG34" t="s">
         <v>21</v>
       </c>
-      <c r="AG34" t="s">
+      <c r="AH34" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5503,29 +5511,29 @@
       <c r="Z35" t="s">
         <v>1</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>7500</v>
-      </c>
-      <c r="AB35">
-        <v>45</v>
       </c>
       <c r="AC35">
         <v>45</v>
       </c>
       <c r="AD35">
+        <v>45</v>
+      </c>
+      <c r="AE35">
         <v>21000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>6800</v>
       </c>
-      <c r="AF35" t="s">
-        <v>1</v>
-      </c>
       <c r="AG35" t="s">
         <v>1</v>
       </c>
+      <c r="AH35" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5604,29 +5612,29 @@
       <c r="Z36" t="s">
         <v>1</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>7000</v>
-      </c>
-      <c r="AB36">
-        <v>43</v>
       </c>
       <c r="AC36">
         <v>43</v>
       </c>
       <c r="AD36">
+        <v>43</v>
+      </c>
+      <c r="AE36">
         <v>25000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>6000</v>
       </c>
-      <c r="AF36" t="s">
-        <v>1</v>
-      </c>
       <c r="AG36" t="s">
         <v>1</v>
       </c>
+      <c r="AH36" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5705,29 +5713,29 @@
       <c r="Z37" t="s">
         <v>17</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>7000</v>
-      </c>
-      <c r="AB37">
-        <v>43</v>
       </c>
       <c r="AC37">
         <v>43</v>
       </c>
       <c r="AD37">
+        <v>43</v>
+      </c>
+      <c r="AE37">
         <v>25000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>2000</v>
       </c>
-      <c r="AF37" t="s">
+      <c r="AG37" t="s">
         <v>21</v>
       </c>
-      <c r="AG37" t="s">
+      <c r="AH37" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5806,29 +5814,29 @@
       <c r="Z38" t="s">
         <v>1</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>9500</v>
-      </c>
-      <c r="AB38">
-        <v>60</v>
       </c>
       <c r="AC38">
         <v>60</v>
       </c>
       <c r="AD38">
+        <v>60</v>
+      </c>
+      <c r="AE38">
         <v>50000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>6000</v>
       </c>
-      <c r="AF38" t="s">
-        <v>1</v>
-      </c>
       <c r="AG38" t="s">
         <v>1</v>
       </c>
+      <c r="AH38" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5907,29 +5915,29 @@
       <c r="Z39" t="s">
         <v>17</v>
       </c>
-      <c r="AA39">
+      <c r="AB39">
         <v>9500</v>
-      </c>
-      <c r="AB39">
-        <v>60</v>
       </c>
       <c r="AC39">
         <v>60</v>
       </c>
       <c r="AD39">
+        <v>60</v>
+      </c>
+      <c r="AE39">
         <v>50000</v>
       </c>
-      <c r="AE39">
+      <c r="AF39">
         <v>1100</v>
       </c>
-      <c r="AF39" t="s">
+      <c r="AG39" t="s">
         <v>21</v>
       </c>
-      <c r="AG39" t="s">
+      <c r="AH39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -6008,29 +6016,29 @@
       <c r="Z40" t="s">
         <v>1</v>
       </c>
-      <c r="AA40">
+      <c r="AB40">
         <v>7500</v>
-      </c>
-      <c r="AB40">
-        <v>35</v>
       </c>
       <c r="AC40">
         <v>35</v>
       </c>
       <c r="AD40">
+        <v>35</v>
+      </c>
+      <c r="AE40">
         <v>23000</v>
       </c>
-      <c r="AE40">
+      <c r="AF40">
         <v>5350</v>
       </c>
-      <c r="AF40" t="s">
-        <v>1</v>
-      </c>
       <c r="AG40" t="s">
         <v>1</v>
       </c>
+      <c r="AH40" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -6109,29 +6117,29 @@
       <c r="Z41" t="s">
         <v>17</v>
       </c>
-      <c r="AA41">
+      <c r="AB41">
         <v>7500</v>
-      </c>
-      <c r="AB41">
-        <v>35</v>
       </c>
       <c r="AC41">
         <v>35</v>
       </c>
       <c r="AD41">
+        <v>35</v>
+      </c>
+      <c r="AE41">
         <v>23000</v>
       </c>
-      <c r="AE41">
+      <c r="AF41">
         <v>1300</v>
       </c>
-      <c r="AF41" t="s">
-        <v>1</v>
-      </c>
       <c r="AG41" t="s">
         <v>1</v>
       </c>
+      <c r="AH41" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6210,29 +6218,29 @@
       <c r="Z42" t="s">
         <v>1</v>
       </c>
-      <c r="AA42">
+      <c r="AB42">
         <v>10000</v>
-      </c>
-      <c r="AB42">
-        <v>60</v>
       </c>
       <c r="AC42">
         <v>60</v>
       </c>
       <c r="AD42">
+        <v>60</v>
+      </c>
+      <c r="AE42">
         <v>18000</v>
       </c>
-      <c r="AE42">
+      <c r="AF42">
         <v>12500</v>
       </c>
-      <c r="AF42" t="s">
+      <c r="AG42" t="s">
         <v>21</v>
       </c>
-      <c r="AG42" t="s">
+      <c r="AH42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -6311,29 +6319,29 @@
       <c r="Z43" t="s">
         <v>17</v>
       </c>
-      <c r="AA43">
+      <c r="AB43">
         <v>8000</v>
-      </c>
-      <c r="AB43">
-        <v>50</v>
       </c>
       <c r="AC43">
         <v>50</v>
       </c>
       <c r="AD43">
+        <v>50</v>
+      </c>
+      <c r="AE43">
         <v>20000</v>
       </c>
-      <c r="AE43">
+      <c r="AF43">
         <v>2000</v>
       </c>
-      <c r="AF43" t="s">
+      <c r="AG43" t="s">
         <v>21</v>
       </c>
-      <c r="AG43" t="s">
+      <c r="AH43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -6412,29 +6420,29 @@
       <c r="Z44" t="s">
         <v>1</v>
       </c>
-      <c r="AA44">
+      <c r="AB44">
         <v>8000</v>
-      </c>
-      <c r="AB44">
-        <v>50</v>
       </c>
       <c r="AC44">
         <v>50</v>
       </c>
       <c r="AD44">
+        <v>50</v>
+      </c>
+      <c r="AE44">
         <v>20000</v>
       </c>
-      <c r="AE44">
+      <c r="AF44">
         <v>5000</v>
       </c>
-      <c r="AF44" t="s">
-        <v>1</v>
-      </c>
       <c r="AG44" t="s">
         <v>1</v>
       </c>
+      <c r="AH44" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -6513,29 +6521,29 @@
       <c r="Z45" t="s">
         <v>17</v>
       </c>
-      <c r="AA45">
+      <c r="AB45">
         <v>8000</v>
-      </c>
-      <c r="AB45">
-        <v>50</v>
       </c>
       <c r="AC45">
         <v>50</v>
       </c>
       <c r="AD45">
+        <v>50</v>
+      </c>
+      <c r="AE45">
         <v>20000</v>
       </c>
-      <c r="AE45">
+      <c r="AF45">
         <v>900</v>
       </c>
-      <c r="AF45" t="s">
+      <c r="AG45" t="s">
         <v>21</v>
       </c>
-      <c r="AG45" t="s">
+      <c r="AH45" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6614,29 +6622,29 @@
       <c r="Z46" t="s">
         <v>17</v>
       </c>
-      <c r="AA46">
+      <c r="AB46">
         <v>9500</v>
-      </c>
-      <c r="AB46">
-        <v>70</v>
       </c>
       <c r="AC46">
         <v>70</v>
       </c>
       <c r="AD46">
+        <v>70</v>
+      </c>
+      <c r="AE46">
         <v>14500</v>
       </c>
-      <c r="AE46">
+      <c r="AF46">
         <v>3500</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AG46" t="s">
         <v>21</v>
       </c>
-      <c r="AG46" t="s">
+      <c r="AH46" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6715,29 +6723,29 @@
       <c r="Z47" t="s">
         <v>1</v>
       </c>
-      <c r="AA47">
+      <c r="AB47">
         <v>9500</v>
-      </c>
-      <c r="AB47">
-        <v>49</v>
       </c>
       <c r="AC47">
         <v>49</v>
       </c>
       <c r="AD47">
+        <v>49</v>
+      </c>
+      <c r="AE47">
         <v>14500</v>
       </c>
-      <c r="AE47">
+      <c r="AF47">
         <v>7000</v>
       </c>
-      <c r="AF47" t="s">
-        <v>1</v>
-      </c>
       <c r="AG47" t="s">
         <v>1</v>
       </c>
+      <c r="AH47" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6816,29 +6824,29 @@
       <c r="Z48" t="s">
         <v>17</v>
       </c>
-      <c r="AA48">
+      <c r="AB48">
         <v>9500</v>
-      </c>
-      <c r="AB48">
-        <v>71</v>
       </c>
       <c r="AC48">
         <v>71</v>
       </c>
       <c r="AD48">
+        <v>71</v>
+      </c>
+      <c r="AE48">
         <v>14500</v>
       </c>
-      <c r="AE48">
+      <c r="AF48">
         <v>2500</v>
       </c>
-      <c r="AF48" t="s">
+      <c r="AG48" t="s">
         <v>21</v>
       </c>
-      <c r="AG48" t="s">
+      <c r="AH48" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6917,29 +6925,29 @@
       <c r="Z49" t="s">
         <v>17</v>
       </c>
-      <c r="AA49">
+      <c r="AB49">
         <v>2500</v>
-      </c>
-      <c r="AB49">
-        <v>22</v>
       </c>
       <c r="AC49">
         <v>22</v>
       </c>
       <c r="AD49">
+        <v>22</v>
+      </c>
+      <c r="AE49">
         <v>6000</v>
       </c>
-      <c r="AE49">
+      <c r="AF49">
         <v>600</v>
       </c>
-      <c r="AF49" t="s">
+      <c r="AG49" t="s">
         <v>21</v>
       </c>
-      <c r="AG49" t="s">
+      <c r="AH49" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -7018,29 +7026,29 @@
       <c r="Z50" t="s">
         <v>17</v>
       </c>
-      <c r="AA50">
+      <c r="AB50">
         <v>5000</v>
-      </c>
-      <c r="AB50">
-        <v>38</v>
       </c>
       <c r="AC50">
         <v>38</v>
       </c>
       <c r="AD50">
+        <v>38</v>
+      </c>
+      <c r="AE50">
         <v>3600</v>
       </c>
-      <c r="AE50">
+      <c r="AF50">
         <v>1000</v>
       </c>
-      <c r="AF50" t="s">
+      <c r="AG50" t="s">
         <v>21</v>
       </c>
-      <c r="AG50" t="s">
+      <c r="AH50" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -7119,29 +7127,29 @@
       <c r="Z51" t="s">
         <v>17</v>
       </c>
-      <c r="AA51">
+      <c r="AB51">
         <v>4000</v>
-      </c>
-      <c r="AB51">
-        <v>28</v>
       </c>
       <c r="AC51">
         <v>28</v>
       </c>
       <c r="AD51">
+        <v>28</v>
+      </c>
+      <c r="AE51">
         <v>9000</v>
       </c>
-      <c r="AE51">
+      <c r="AF51">
         <v>3500</v>
       </c>
-      <c r="AF51" t="s">
+      <c r="AG51" t="s">
         <v>21</v>
       </c>
-      <c r="AG51" t="s">
+      <c r="AH51" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -7220,29 +7228,29 @@
       <c r="Z52" t="s">
         <v>1</v>
       </c>
-      <c r="AA52">
+      <c r="AB52">
         <v>8000</v>
-      </c>
-      <c r="AB52">
-        <v>30</v>
       </c>
       <c r="AC52">
         <v>30</v>
       </c>
       <c r="AD52">
+        <v>30</v>
+      </c>
+      <c r="AE52">
         <v>15600</v>
       </c>
-      <c r="AE52">
+      <c r="AF52">
         <v>4000</v>
       </c>
-      <c r="AF52" t="s">
-        <v>1</v>
-      </c>
       <c r="AG52" t="s">
         <v>1</v>
       </c>
+      <c r="AH52" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -7321,29 +7329,29 @@
       <c r="Z53" t="s">
         <v>17</v>
       </c>
-      <c r="AA53">
+      <c r="AB53">
         <v>8000</v>
-      </c>
-      <c r="AB53">
-        <v>30</v>
       </c>
       <c r="AC53">
         <v>30</v>
       </c>
       <c r="AD53">
+        <v>30</v>
+      </c>
+      <c r="AE53">
         <v>15600</v>
       </c>
-      <c r="AE53">
+      <c r="AF53">
         <v>500</v>
       </c>
-      <c r="AF53" t="s">
+      <c r="AG53" t="s">
         <v>21</v>
       </c>
-      <c r="AG53" t="s">
+      <c r="AH53" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -7422,29 +7430,29 @@
       <c r="Z54" t="s">
         <v>17</v>
       </c>
-      <c r="AA54">
+      <c r="AB54">
         <v>10000</v>
-      </c>
-      <c r="AB54">
-        <v>30</v>
       </c>
       <c r="AC54">
         <v>30</v>
       </c>
       <c r="AD54">
+        <v>30</v>
+      </c>
+      <c r="AE54">
         <v>41000</v>
       </c>
-      <c r="AE54">
+      <c r="AF54">
         <v>3400</v>
       </c>
-      <c r="AF54" t="s">
+      <c r="AG54" t="s">
         <v>21</v>
       </c>
-      <c r="AG54" t="s">
+      <c r="AH54" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -7523,29 +7531,29 @@
       <c r="Z55" t="s">
         <v>17</v>
       </c>
-      <c r="AA55">
+      <c r="AB55">
         <v>6500</v>
-      </c>
-      <c r="AB55">
-        <v>38</v>
       </c>
       <c r="AC55">
         <v>38</v>
       </c>
       <c r="AD55">
+        <v>38</v>
+      </c>
+      <c r="AE55">
         <v>8000</v>
       </c>
-      <c r="AE55">
+      <c r="AF55">
         <v>2000</v>
       </c>
-      <c r="AF55" t="s">
+      <c r="AG55" t="s">
         <v>21</v>
       </c>
-      <c r="AG55" t="s">
+      <c r="AH55" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -7624,29 +7632,29 @@
       <c r="Z56" t="s">
         <v>17</v>
       </c>
-      <c r="AA56">
+      <c r="AB56">
         <v>3000</v>
-      </c>
-      <c r="AB56">
-        <v>15</v>
       </c>
       <c r="AC56">
         <v>15</v>
       </c>
       <c r="AD56">
+        <v>15</v>
+      </c>
+      <c r="AE56">
         <v>24000</v>
       </c>
-      <c r="AE56">
+      <c r="AF56">
         <v>2000</v>
       </c>
-      <c r="AF56" t="s">
+      <c r="AG56" t="s">
         <v>21</v>
       </c>
-      <c r="AG56" t="s">
+      <c r="AH56" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -7725,29 +7733,29 @@
       <c r="Z57" t="s">
         <v>17</v>
       </c>
-      <c r="AA57">
+      <c r="AB57">
         <v>3500</v>
-      </c>
-      <c r="AB57">
-        <v>43</v>
       </c>
       <c r="AC57">
         <v>43</v>
       </c>
       <c r="AD57">
+        <v>43</v>
+      </c>
+      <c r="AE57">
         <v>13000</v>
       </c>
-      <c r="AE57">
+      <c r="AF57">
         <v>5000</v>
       </c>
-      <c r="AF57" t="s">
-        <v>1</v>
-      </c>
       <c r="AG57" t="s">
         <v>1</v>
       </c>
+      <c r="AH57" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -7826,29 +7834,29 @@
       <c r="Z58" t="s">
         <v>17</v>
       </c>
-      <c r="AA58">
+      <c r="AB58">
         <v>3500</v>
-      </c>
-      <c r="AB58">
-        <v>43</v>
       </c>
       <c r="AC58">
         <v>43</v>
       </c>
       <c r="AD58">
+        <v>43</v>
+      </c>
+      <c r="AE58">
         <v>13000</v>
       </c>
-      <c r="AE58">
+      <c r="AF58">
         <v>1320</v>
       </c>
-      <c r="AF58" t="s">
-        <v>1</v>
-      </c>
       <c r="AG58" t="s">
         <v>1</v>
       </c>
+      <c r="AH58" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -7927,29 +7935,29 @@
       <c r="Z59" t="s">
         <v>17</v>
       </c>
-      <c r="AA59">
+      <c r="AB59">
         <v>6000</v>
-      </c>
-      <c r="AB59">
-        <v>25</v>
       </c>
       <c r="AC59">
         <v>25</v>
       </c>
       <c r="AD59">
+        <v>25</v>
+      </c>
+      <c r="AE59">
         <v>10000</v>
       </c>
-      <c r="AE59">
+      <c r="AF59">
         <v>3700</v>
       </c>
-      <c r="AF59" t="s">
+      <c r="AG59" t="s">
         <v>21</v>
       </c>
-      <c r="AG59" t="s">
+      <c r="AH59" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -8028,29 +8036,29 @@
       <c r="Z60" t="s">
         <v>17</v>
       </c>
-      <c r="AA60">
+      <c r="AB60">
         <v>9500</v>
-      </c>
-      <c r="AB60">
-        <v>53</v>
       </c>
       <c r="AC60">
         <v>53</v>
       </c>
       <c r="AD60">
+        <v>53</v>
+      </c>
+      <c r="AE60">
         <v>19000</v>
       </c>
-      <c r="AE60">
+      <c r="AF60">
         <v>1500</v>
       </c>
-      <c r="AF60" t="s">
+      <c r="AG60" t="s">
         <v>21</v>
       </c>
-      <c r="AG60" t="s">
+      <c r="AH60" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -8129,29 +8137,29 @@
       <c r="Z61" t="s">
         <v>1</v>
       </c>
-      <c r="AA61">
+      <c r="AB61">
         <v>9000</v>
-      </c>
-      <c r="AB61">
-        <v>48</v>
       </c>
       <c r="AC61">
         <v>48</v>
       </c>
       <c r="AD61">
+        <v>48</v>
+      </c>
+      <c r="AE61">
         <v>19000</v>
       </c>
-      <c r="AE61">
+      <c r="AF61">
         <v>7000</v>
       </c>
-      <c r="AF61" t="s">
-        <v>1</v>
-      </c>
       <c r="AG61" t="s">
         <v>1</v>
       </c>
+      <c r="AH61" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -8230,29 +8238,29 @@
       <c r="Z62" t="s">
         <v>17</v>
       </c>
-      <c r="AA62">
+      <c r="AB62">
         <v>8500</v>
-      </c>
-      <c r="AB62">
-        <v>50</v>
       </c>
       <c r="AC62">
         <v>50</v>
       </c>
       <c r="AD62">
+        <v>50</v>
+      </c>
+      <c r="AE62">
         <v>19000</v>
       </c>
-      <c r="AE62">
+      <c r="AF62">
         <v>4500</v>
       </c>
-      <c r="AF62" t="s">
+      <c r="AG62" t="s">
         <v>21</v>
       </c>
-      <c r="AG62" t="s">
+      <c r="AH62" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -8331,29 +8339,29 @@
       <c r="Z63" t="s">
         <v>1</v>
       </c>
-      <c r="AA63">
+      <c r="AB63">
         <v>10500</v>
-      </c>
-      <c r="AB63">
-        <v>65</v>
       </c>
       <c r="AC63">
         <v>65</v>
       </c>
       <c r="AD63">
+        <v>65</v>
+      </c>
+      <c r="AE63">
         <v>25000</v>
       </c>
-      <c r="AE63">
+      <c r="AF63">
         <v>7000</v>
       </c>
-      <c r="AF63" t="s">
-        <v>1</v>
-      </c>
       <c r="AG63" t="s">
         <v>1</v>
       </c>
+      <c r="AH63" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -8432,29 +8440,29 @@
       <c r="Z64" t="s">
         <v>17</v>
       </c>
-      <c r="AA64">
+      <c r="AB64">
         <v>8000</v>
-      </c>
-      <c r="AB64">
-        <v>60</v>
       </c>
       <c r="AC64">
         <v>60</v>
       </c>
       <c r="AD64">
+        <v>60</v>
+      </c>
+      <c r="AE64">
         <v>17000</v>
       </c>
-      <c r="AE64">
+      <c r="AF64">
         <v>2500</v>
       </c>
-      <c r="AF64" t="s">
+      <c r="AG64" t="s">
         <v>21</v>
       </c>
-      <c r="AG64" t="s">
+      <c r="AH64" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -8533,29 +8541,29 @@
       <c r="Z65" t="s">
         <v>1</v>
       </c>
-      <c r="AA65">
+      <c r="AB65">
         <v>1000</v>
-      </c>
-      <c r="AB65">
-        <v>12</v>
       </c>
       <c r="AC65">
         <v>12</v>
       </c>
       <c r="AD65">
+        <v>12</v>
+      </c>
+      <c r="AE65">
         <v>10000</v>
       </c>
-      <c r="AE65">
+      <c r="AF65">
         <v>2500</v>
       </c>
-      <c r="AF65" t="s">
-        <v>1</v>
-      </c>
       <c r="AG65" t="s">
         <v>1</v>
       </c>
+      <c r="AH65" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -8634,29 +8642,29 @@
       <c r="Z66" t="s">
         <v>1</v>
       </c>
-      <c r="AA66">
+      <c r="AB66">
         <v>7500</v>
-      </c>
-      <c r="AB66">
-        <v>40</v>
       </c>
       <c r="AC66">
         <v>40</v>
       </c>
       <c r="AD66">
+        <v>40</v>
+      </c>
+      <c r="AE66">
         <v>12000</v>
       </c>
-      <c r="AE66">
+      <c r="AF66">
         <v>3500</v>
       </c>
-      <c r="AF66" t="s">
-        <v>1</v>
-      </c>
       <c r="AG66" t="s">
         <v>1</v>
       </c>
+      <c r="AH66" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -8735,29 +8743,29 @@
       <c r="Z67" t="s">
         <v>17</v>
       </c>
-      <c r="AA67">
+      <c r="AB67">
         <v>7500</v>
-      </c>
-      <c r="AB67">
-        <v>40</v>
       </c>
       <c r="AC67">
         <v>40</v>
       </c>
       <c r="AD67">
+        <v>40</v>
+      </c>
+      <c r="AE67">
         <v>12000</v>
       </c>
-      <c r="AE67">
+      <c r="AF67">
         <v>400</v>
       </c>
-      <c r="AF67" t="s">
+      <c r="AG67" t="s">
         <v>21</v>
       </c>
-      <c r="AG67" t="s">
+      <c r="AH67" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -8836,29 +8844,29 @@
       <c r="Z68" t="s">
         <v>17</v>
       </c>
-      <c r="AA68">
+      <c r="AB68">
         <v>7000</v>
-      </c>
-      <c r="AB68">
-        <v>42</v>
       </c>
       <c r="AC68">
         <v>42</v>
       </c>
       <c r="AD68">
+        <v>42</v>
+      </c>
+      <c r="AE68">
         <v>42000</v>
       </c>
-      <c r="AE68">
+      <c r="AF68">
         <v>1700</v>
       </c>
-      <c r="AF68" t="s">
+      <c r="AG68" t="s">
         <v>21</v>
       </c>
-      <c r="AG68" t="s">
+      <c r="AH68" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -8937,29 +8945,29 @@
       <c r="Z69" t="s">
         <v>17</v>
       </c>
-      <c r="AA69">
+      <c r="AB69">
         <v>7000</v>
-      </c>
-      <c r="AB69">
-        <v>42</v>
       </c>
       <c r="AC69">
         <v>42</v>
       </c>
       <c r="AD69">
+        <v>42</v>
+      </c>
+      <c r="AE69">
         <v>42000</v>
       </c>
-      <c r="AE69">
+      <c r="AF69">
         <v>2000</v>
       </c>
-      <c r="AF69" t="s">
+      <c r="AG69" t="s">
         <v>21</v>
       </c>
-      <c r="AG69" t="s">
+      <c r="AH69" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9038,29 +9046,29 @@
       <c r="Z70" t="s">
         <v>17</v>
       </c>
-      <c r="AA70">
+      <c r="AB70">
         <v>7000</v>
-      </c>
-      <c r="AB70">
-        <v>42</v>
       </c>
       <c r="AC70">
         <v>42</v>
       </c>
       <c r="AD70">
+        <v>42</v>
+      </c>
+      <c r="AE70">
         <v>42000</v>
       </c>
-      <c r="AE70">
+      <c r="AF70">
         <v>2200</v>
       </c>
-      <c r="AF70" t="s">
+      <c r="AG70" t="s">
         <v>21</v>
       </c>
-      <c r="AG70" t="s">
+      <c r="AH70" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9139,29 +9147,29 @@
       <c r="Z71" t="s">
         <v>17</v>
       </c>
-      <c r="AA71">
+      <c r="AB71">
         <v>2500</v>
-      </c>
-      <c r="AB71">
-        <v>20</v>
       </c>
       <c r="AC71">
         <v>20</v>
       </c>
       <c r="AD71">
+        <v>20</v>
+      </c>
+      <c r="AE71">
         <v>16000</v>
       </c>
-      <c r="AE71">
+      <c r="AF71">
         <v>1500</v>
       </c>
-      <c r="AF71" t="s">
+      <c r="AG71" t="s">
         <v>21</v>
       </c>
-      <c r="AG71" t="s">
+      <c r="AH71" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9240,29 +9248,29 @@
       <c r="Z72" t="s">
         <v>17</v>
       </c>
-      <c r="AA72">
+      <c r="AB72">
         <v>5500</v>
-      </c>
-      <c r="AB72">
-        <v>36</v>
       </c>
       <c r="AC72">
         <v>36</v>
       </c>
       <c r="AD72">
+        <v>36</v>
+      </c>
+      <c r="AE72">
         <v>14000</v>
       </c>
-      <c r="AE72">
+      <c r="AF72">
         <v>3100</v>
       </c>
-      <c r="AF72" t="s">
+      <c r="AG72" t="s">
         <v>21</v>
       </c>
-      <c r="AG72" t="s">
+      <c r="AH72" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9341,29 +9349,29 @@
       <c r="Z73" t="s">
         <v>17</v>
       </c>
-      <c r="AA73">
+      <c r="AB73">
         <v>7000</v>
-      </c>
-      <c r="AB73">
-        <v>45</v>
       </c>
       <c r="AC73">
         <v>45</v>
       </c>
       <c r="AD73">
+        <v>45</v>
+      </c>
+      <c r="AE73">
         <v>30000</v>
       </c>
-      <c r="AE73">
+      <c r="AF73">
         <v>5500</v>
       </c>
-      <c r="AF73" t="s">
+      <c r="AG73" t="s">
         <v>21</v>
       </c>
-      <c r="AG73" t="s">
+      <c r="AH73" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9442,29 +9450,29 @@
       <c r="Z74" t="s">
         <v>17</v>
       </c>
-      <c r="AA74">
+      <c r="AB74">
         <v>1000</v>
-      </c>
-      <c r="AB74">
-        <v>8</v>
       </c>
       <c r="AC74">
         <v>8</v>
       </c>
       <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
         <v>5000</v>
       </c>
-      <c r="AE74">
+      <c r="AF74">
         <v>1000</v>
       </c>
-      <c r="AF74" t="s">
+      <c r="AG74" t="s">
         <v>21</v>
       </c>
-      <c r="AG74" t="s">
+      <c r="AH74" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9543,29 +9551,29 @@
       <c r="Z75" t="s">
         <v>1</v>
       </c>
-      <c r="AA75">
+      <c r="AB75">
         <v>6250</v>
-      </c>
-      <c r="AB75">
-        <v>38</v>
       </c>
       <c r="AC75">
         <v>38</v>
       </c>
       <c r="AD75">
+        <v>38</v>
+      </c>
+      <c r="AE75">
         <v>19000</v>
       </c>
-      <c r="AE75">
+      <c r="AF75">
         <v>5500</v>
       </c>
-      <c r="AF75" t="s">
-        <v>1</v>
-      </c>
       <c r="AG75" t="s">
         <v>1</v>
       </c>
+      <c r="AH75" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9644,29 +9652,29 @@
       <c r="Z76" t="s">
         <v>17</v>
       </c>
-      <c r="AA76">
+      <c r="AB76">
         <v>10000</v>
-      </c>
-      <c r="AB76">
-        <v>64</v>
       </c>
       <c r="AC76">
         <v>64</v>
       </c>
       <c r="AD76">
+        <v>64</v>
+      </c>
+      <c r="AE76">
         <v>35000</v>
       </c>
-      <c r="AE76">
+      <c r="AF76">
         <v>3000</v>
       </c>
-      <c r="AF76" t="s">
+      <c r="AG76" t="s">
         <v>21</v>
       </c>
-      <c r="AG76" t="s">
+      <c r="AH76" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -9745,29 +9753,29 @@
       <c r="Z77" t="s">
         <v>1</v>
       </c>
-      <c r="AA77">
+      <c r="AB77">
         <v>8800</v>
-      </c>
-      <c r="AB77">
-        <v>43</v>
       </c>
       <c r="AC77">
         <v>43</v>
       </c>
       <c r="AD77">
+        <v>43</v>
+      </c>
+      <c r="AE77">
         <v>35000</v>
       </c>
-      <c r="AE77">
+      <c r="AF77">
         <v>5500</v>
       </c>
-      <c r="AF77" t="s">
-        <v>1</v>
-      </c>
       <c r="AG77" t="s">
         <v>1</v>
       </c>
+      <c r="AH77" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -9846,29 +9854,29 @@
       <c r="Z78" t="s">
         <v>17</v>
       </c>
-      <c r="AA78">
+      <c r="AB78">
         <v>7200</v>
-      </c>
-      <c r="AB78">
-        <v>38</v>
       </c>
       <c r="AC78">
         <v>38</v>
       </c>
       <c r="AD78">
+        <v>38</v>
+      </c>
+      <c r="AE78">
         <v>35000</v>
       </c>
-      <c r="AE78">
+      <c r="AF78">
         <v>1000</v>
       </c>
-      <c r="AF78" t="s">
+      <c r="AG78" t="s">
         <v>21</v>
       </c>
-      <c r="AG78" t="s">
+      <c r="AH78" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -9947,29 +9955,29 @@
       <c r="Z79" t="s">
         <v>17</v>
       </c>
-      <c r="AA79">
+      <c r="AB79">
         <v>4000</v>
-      </c>
-      <c r="AB79">
-        <v>30</v>
       </c>
       <c r="AC79">
         <v>30</v>
       </c>
       <c r="AD79">
+        <v>30</v>
+      </c>
+      <c r="AE79">
         <v>12000</v>
       </c>
-      <c r="AE79">
+      <c r="AF79">
         <v>4000</v>
       </c>
-      <c r="AF79" t="s">
+      <c r="AG79" t="s">
         <v>21</v>
       </c>
-      <c r="AG79" t="s">
+      <c r="AH79" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10048,29 +10056,29 @@
       <c r="Z80" t="s">
         <v>1</v>
       </c>
-      <c r="AA80">
+      <c r="AB80">
         <v>10250</v>
-      </c>
-      <c r="AB80">
-        <v>60</v>
       </c>
       <c r="AC80">
         <v>60</v>
       </c>
       <c r="AD80">
+        <v>60</v>
+      </c>
+      <c r="AE80">
         <v>40000</v>
       </c>
-      <c r="AE80">
+      <c r="AF80">
         <v>8000</v>
       </c>
-      <c r="AF80" t="s">
-        <v>1</v>
-      </c>
       <c r="AG80" t="s">
         <v>1</v>
       </c>
+      <c r="AH80" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10149,29 +10157,29 @@
       <c r="Z81" t="s">
         <v>17</v>
       </c>
-      <c r="AA81">
+      <c r="AB81">
         <v>6000</v>
-      </c>
-      <c r="AB81">
-        <v>36</v>
       </c>
       <c r="AC81">
         <v>36</v>
       </c>
       <c r="AD81">
+        <v>36</v>
+      </c>
+      <c r="AE81">
         <v>17000</v>
       </c>
-      <c r="AE81">
+      <c r="AF81">
         <v>5500</v>
       </c>
-      <c r="AF81" t="s">
-        <v>1</v>
-      </c>
       <c r="AG81" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH81" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10250,29 +10258,29 @@
       <c r="Z82" t="s">
         <v>17</v>
       </c>
-      <c r="AA82">
+      <c r="AB82">
         <v>6000</v>
-      </c>
-      <c r="AB82">
-        <v>36</v>
       </c>
       <c r="AC82">
         <v>36</v>
       </c>
       <c r="AD82">
+        <v>36</v>
+      </c>
+      <c r="AE82">
         <v>17000</v>
       </c>
-      <c r="AE82">
+      <c r="AF82">
         <v>1250</v>
       </c>
-      <c r="AF82" t="s">
-        <v>1</v>
-      </c>
       <c r="AG82" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH82" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10351,29 +10359,29 @@
       <c r="Z83" t="s">
         <v>17</v>
       </c>
-      <c r="AA83">
+      <c r="AB83">
         <v>3000</v>
-      </c>
-      <c r="AB83">
-        <v>30</v>
       </c>
       <c r="AC83">
         <v>30</v>
       </c>
       <c r="AD83">
+        <v>30</v>
+      </c>
+      <c r="AE83">
         <v>21000</v>
       </c>
-      <c r="AE83">
+      <c r="AF83">
         <v>3000</v>
       </c>
-      <c r="AF83" t="s">
+      <c r="AG83" t="s">
         <v>21</v>
       </c>
-      <c r="AG83" t="s">
+      <c r="AH83" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10452,29 +10460,29 @@
       <c r="Z84" t="s">
         <v>17</v>
       </c>
-      <c r="AA84">
+      <c r="AB84">
         <v>8000</v>
-      </c>
-      <c r="AB84">
-        <v>45</v>
       </c>
       <c r="AC84">
         <v>45</v>
       </c>
       <c r="AD84">
+        <v>45</v>
+      </c>
+      <c r="AE84">
         <v>16000</v>
       </c>
-      <c r="AE84">
+      <c r="AF84">
         <v>3500</v>
       </c>
-      <c r="AF84" t="s">
+      <c r="AG84" t="s">
         <v>21</v>
       </c>
-      <c r="AG84" t="s">
+      <c r="AH84" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10553,29 +10561,29 @@
       <c r="Z85" t="s">
         <v>17</v>
       </c>
-      <c r="AA85">
+      <c r="AB85">
         <v>4500</v>
-      </c>
-      <c r="AB85">
-        <v>40</v>
       </c>
       <c r="AC85">
         <v>40</v>
       </c>
       <c r="AD85">
+        <v>40</v>
+      </c>
+      <c r="AE85">
         <v>12000</v>
       </c>
-      <c r="AE85">
+      <c r="AF85">
         <v>2000</v>
       </c>
-      <c r="AF85" t="s">
+      <c r="AG85" t="s">
         <v>21</v>
       </c>
-      <c r="AG85" t="s">
+      <c r="AH85" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10654,29 +10662,29 @@
       <c r="Z86" t="s">
         <v>17</v>
       </c>
-      <c r="AA86">
+      <c r="AB86">
         <v>5000</v>
-      </c>
-      <c r="AB86">
-        <v>31</v>
       </c>
       <c r="AC86">
         <v>31</v>
       </c>
       <c r="AD86">
+        <v>31</v>
+      </c>
+      <c r="AE86">
         <v>19500</v>
       </c>
-      <c r="AE86">
+      <c r="AF86">
         <v>3000</v>
       </c>
-      <c r="AF86" t="s">
+      <c r="AG86" t="s">
         <v>21</v>
       </c>
-      <c r="AG86" t="s">
+      <c r="AH86" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10755,29 +10763,29 @@
       <c r="Z87" t="s">
         <v>17</v>
       </c>
-      <c r="AA87">
+      <c r="AB87">
         <v>9000</v>
-      </c>
-      <c r="AB87">
-        <v>52</v>
       </c>
       <c r="AC87">
         <v>52</v>
       </c>
       <c r="AD87">
+        <v>52</v>
+      </c>
+      <c r="AE87">
         <v>48000</v>
       </c>
-      <c r="AE87">
+      <c r="AF87">
         <v>1500</v>
       </c>
-      <c r="AF87" t="s">
+      <c r="AG87" t="s">
         <v>21</v>
       </c>
-      <c r="AG87" t="s">
+      <c r="AH87" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10856,29 +10864,29 @@
       <c r="Z88" t="s">
         <v>1</v>
       </c>
-      <c r="AA88">
+      <c r="AB88">
         <v>9000</v>
-      </c>
-      <c r="AB88">
-        <v>52</v>
       </c>
       <c r="AC88">
         <v>52</v>
       </c>
       <c r="AD88">
+        <v>52</v>
+      </c>
+      <c r="AE88">
         <v>48000</v>
       </c>
-      <c r="AE88">
+      <c r="AF88">
         <v>6500</v>
       </c>
-      <c r="AF88" t="s">
-        <v>1</v>
-      </c>
       <c r="AG88" t="s">
         <v>1</v>
       </c>
+      <c r="AH88" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10957,29 +10965,29 @@
       <c r="Z89" t="s">
         <v>17</v>
       </c>
-      <c r="AA89">
+      <c r="AB89">
         <v>7000</v>
-      </c>
-      <c r="AB89">
-        <v>38</v>
       </c>
       <c r="AC89">
         <v>38</v>
       </c>
       <c r="AD89">
+        <v>38</v>
+      </c>
+      <c r="AE89">
         <v>20000</v>
       </c>
-      <c r="AE89">
+      <c r="AF89">
         <v>2200</v>
       </c>
-      <c r="AF89" t="s">
+      <c r="AG89" t="s">
         <v>21</v>
       </c>
-      <c r="AG89" t="s">
+      <c r="AH89" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -11058,29 +11066,29 @@
       <c r="Z90" t="s">
         <v>1</v>
       </c>
-      <c r="AA90">
+      <c r="AB90">
         <v>7500</v>
-      </c>
-      <c r="AB90">
-        <v>52</v>
       </c>
       <c r="AC90">
         <v>52</v>
       </c>
       <c r="AD90">
+        <v>52</v>
+      </c>
+      <c r="AE90">
         <v>23000</v>
       </c>
-      <c r="AE90">
+      <c r="AF90">
         <v>5500</v>
       </c>
-      <c r="AF90" t="s">
-        <v>1</v>
-      </c>
       <c r="AG90" t="s">
         <v>1</v>
       </c>
+      <c r="AH90" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -11159,29 +11167,29 @@
       <c r="Z91" t="s">
         <v>17</v>
       </c>
-      <c r="AA91">
+      <c r="AB91">
         <v>7000</v>
-      </c>
-      <c r="AB91">
-        <v>51</v>
       </c>
       <c r="AC91">
         <v>51</v>
       </c>
       <c r="AD91">
+        <v>51</v>
+      </c>
+      <c r="AE91">
         <v>20000</v>
       </c>
-      <c r="AE91">
+      <c r="AF91">
         <v>3200</v>
       </c>
-      <c r="AF91" t="s">
+      <c r="AG91" t="s">
         <v>21</v>
       </c>
-      <c r="AG91" t="s">
+      <c r="AH91" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -11260,29 +11268,29 @@
       <c r="Z92" t="s">
         <v>1</v>
       </c>
-      <c r="AA92">
+      <c r="AB92">
         <v>7000</v>
-      </c>
-      <c r="AB92">
-        <v>51</v>
       </c>
       <c r="AC92">
         <v>51</v>
       </c>
       <c r="AD92">
+        <v>51</v>
+      </c>
+      <c r="AE92">
         <v>20000</v>
       </c>
-      <c r="AE92">
+      <c r="AF92">
         <v>5500</v>
       </c>
-      <c r="AF92" t="s">
-        <v>1</v>
-      </c>
       <c r="AG92" t="s">
         <v>1</v>
       </c>
+      <c r="AH92" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -11361,29 +11369,29 @@
       <c r="Z93" t="s">
         <v>1</v>
       </c>
-      <c r="AA93">
+      <c r="AB93">
         <v>17500</v>
-      </c>
-      <c r="AB93">
-        <v>60</v>
       </c>
       <c r="AC93">
         <v>60</v>
       </c>
       <c r="AD93">
+        <v>60</v>
+      </c>
+      <c r="AE93">
         <v>19000</v>
       </c>
-      <c r="AE93">
+      <c r="AF93">
         <v>3800</v>
       </c>
-      <c r="AF93" t="s">
-        <v>1</v>
-      </c>
       <c r="AG93" t="s">
         <v>1</v>
       </c>
+      <c r="AH93" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -11462,29 +11470,29 @@
       <c r="Z94" t="s">
         <v>17</v>
       </c>
-      <c r="AA94">
+      <c r="AB94">
         <v>6800</v>
-      </c>
-      <c r="AB94">
-        <v>39</v>
       </c>
       <c r="AC94">
         <v>39</v>
       </c>
       <c r="AD94">
+        <v>39</v>
+      </c>
+      <c r="AE94">
         <v>40000</v>
       </c>
-      <c r="AE94">
+      <c r="AF94">
         <v>5500</v>
       </c>
-      <c r="AF94" t="s">
-        <v>1</v>
-      </c>
       <c r="AG94" t="s">
         <v>1</v>
       </c>
+      <c r="AH94" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -11563,29 +11571,29 @@
       <c r="Z95" t="s">
         <v>1</v>
       </c>
-      <c r="AA95">
+      <c r="AB95">
         <v>4500</v>
-      </c>
-      <c r="AB95">
-        <v>35</v>
       </c>
       <c r="AC95">
         <v>35</v>
       </c>
       <c r="AD95">
+        <v>35</v>
+      </c>
+      <c r="AE95">
         <v>16000</v>
       </c>
-      <c r="AE95">
+      <c r="AF95">
         <v>5000</v>
       </c>
-      <c r="AF95" t="s">
-        <v>1</v>
-      </c>
       <c r="AG95" t="s">
         <v>1</v>
       </c>
+      <c r="AH95" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -11664,29 +11672,29 @@
       <c r="Z96" t="s">
         <v>17</v>
       </c>
-      <c r="AA96">
+      <c r="AB96">
         <v>4500</v>
-      </c>
-      <c r="AB96">
-        <v>35</v>
       </c>
       <c r="AC96">
         <v>35</v>
       </c>
       <c r="AD96">
+        <v>35</v>
+      </c>
+      <c r="AE96">
         <v>16000</v>
       </c>
-      <c r="AE96">
+      <c r="AF96">
         <v>3000</v>
       </c>
-      <c r="AF96" t="s">
+      <c r="AG96" t="s">
         <v>21</v>
       </c>
-      <c r="AG96" t="s">
+      <c r="AH96" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -11765,29 +11773,29 @@
       <c r="Z97" t="s">
         <v>17</v>
       </c>
-      <c r="AA97">
+      <c r="AB97">
         <v>7000</v>
-      </c>
-      <c r="AB97">
-        <v>42</v>
       </c>
       <c r="AC97">
         <v>42</v>
       </c>
       <c r="AD97">
+        <v>42</v>
+      </c>
+      <c r="AE97">
         <v>42000</v>
       </c>
-      <c r="AE97">
+      <c r="AF97">
         <v>2400</v>
       </c>
-      <c r="AF97" t="s">
+      <c r="AG97" t="s">
         <v>21</v>
       </c>
-      <c r="AG97" t="s">
+      <c r="AH97" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -11866,29 +11874,29 @@
       <c r="Z98" t="s">
         <v>17</v>
       </c>
-      <c r="AA98">
+      <c r="AB98">
         <v>1500</v>
-      </c>
-      <c r="AB98">
-        <v>10</v>
       </c>
       <c r="AC98">
         <v>10</v>
       </c>
       <c r="AD98">
+        <v>10</v>
+      </c>
+      <c r="AE98">
         <v>11000</v>
       </c>
-      <c r="AE98">
+      <c r="AF98">
         <v>1500</v>
       </c>
-      <c r="AF98" t="s">
+      <c r="AG98" t="s">
         <v>21</v>
       </c>
-      <c r="AG98" t="s">
+      <c r="AH98" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -11967,29 +11975,29 @@
       <c r="Z99" t="s">
         <v>1</v>
       </c>
-      <c r="AA99">
+      <c r="AB99">
         <v>10000</v>
-      </c>
-      <c r="AB99">
-        <v>56</v>
       </c>
       <c r="AC99">
         <v>56</v>
       </c>
       <c r="AD99">
+        <v>56</v>
+      </c>
+      <c r="AE99">
         <v>45000</v>
       </c>
-      <c r="AE99">
+      <c r="AF99">
         <v>5500</v>
       </c>
-      <c r="AF99" t="s">
-        <v>1</v>
-      </c>
       <c r="AG99" t="s">
         <v>1</v>
       </c>
+      <c r="AH99" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12068,29 +12076,29 @@
       <c r="Z100" t="s">
         <v>17</v>
       </c>
-      <c r="AA100">
+      <c r="AB100">
         <v>11000</v>
-      </c>
-      <c r="AB100">
-        <v>57</v>
       </c>
       <c r="AC100">
         <v>57</v>
       </c>
       <c r="AD100">
+        <v>57</v>
+      </c>
+      <c r="AE100">
         <v>45000</v>
       </c>
-      <c r="AE100">
+      <c r="AF100">
         <v>1000</v>
       </c>
-      <c r="AF100" t="s">
+      <c r="AG100" t="s">
         <v>21</v>
       </c>
-      <c r="AG100" t="s">
+      <c r="AH100" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12169,29 +12177,29 @@
       <c r="Z101" t="s">
         <v>17</v>
       </c>
-      <c r="AA101">
+      <c r="AB101">
         <v>8500</v>
-      </c>
-      <c r="AB101">
-        <v>50</v>
       </c>
       <c r="AC101">
         <v>50</v>
       </c>
       <c r="AD101">
+        <v>50</v>
+      </c>
+      <c r="AE101">
         <v>30000</v>
       </c>
-      <c r="AE101">
+      <c r="AF101">
         <v>3000</v>
       </c>
-      <c r="AF101" t="s">
+      <c r="AG101" t="s">
         <v>21</v>
       </c>
-      <c r="AG101" t="s">
+      <c r="AH101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12270,29 +12278,29 @@
       <c r="Z102" t="s">
         <v>1</v>
       </c>
-      <c r="AA102">
+      <c r="AB102">
         <v>8500</v>
-      </c>
-      <c r="AB102">
-        <v>50</v>
       </c>
       <c r="AC102">
         <v>50</v>
       </c>
       <c r="AD102">
+        <v>50</v>
+      </c>
+      <c r="AE102">
         <v>30000</v>
       </c>
-      <c r="AE102">
+      <c r="AF102">
         <v>5000</v>
       </c>
-      <c r="AF102" t="s">
-        <v>1</v>
-      </c>
       <c r="AG102" t="s">
         <v>1</v>
       </c>
+      <c r="AH102" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12371,29 +12379,29 @@
       <c r="Z103" t="s">
         <v>17</v>
       </c>
-      <c r="AA103">
+      <c r="AB103">
         <v>2000</v>
-      </c>
-      <c r="AB103">
-        <v>20</v>
       </c>
       <c r="AC103">
         <v>20</v>
       </c>
       <c r="AD103">
+        <v>20</v>
+      </c>
+      <c r="AE103">
         <v>15000</v>
       </c>
-      <c r="AE103">
+      <c r="AF103">
         <v>800</v>
       </c>
-      <c r="AF103" t="s">
+      <c r="AG103" t="s">
         <v>21</v>
       </c>
-      <c r="AG103" t="s">
+      <c r="AH103" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12472,29 +12480,29 @@
       <c r="Z104" t="s">
         <v>17</v>
       </c>
-      <c r="AA104">
+      <c r="AB104">
         <v>4000</v>
-      </c>
-      <c r="AB104">
-        <v>33</v>
       </c>
       <c r="AC104">
         <v>33</v>
       </c>
       <c r="AD104">
+        <v>33</v>
+      </c>
+      <c r="AE104">
         <v>26000</v>
       </c>
-      <c r="AE104">
+      <c r="AF104">
         <v>3100</v>
       </c>
-      <c r="AF104" t="s">
+      <c r="AG104" t="s">
         <v>21</v>
       </c>
-      <c r="AG104" t="s">
+      <c r="AH104" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12573,29 +12581,29 @@
       <c r="Z105" t="s">
         <v>1</v>
       </c>
-      <c r="AA105">
+      <c r="AB105">
         <v>9500</v>
-      </c>
-      <c r="AB105">
-        <v>45</v>
       </c>
       <c r="AC105">
         <v>45</v>
       </c>
       <c r="AD105">
+        <v>45</v>
+      </c>
+      <c r="AE105">
         <v>35000</v>
       </c>
-      <c r="AE105">
+      <c r="AF105">
         <v>7000</v>
       </c>
-      <c r="AF105" t="s">
-        <v>1</v>
-      </c>
       <c r="AG105" t="s">
         <v>1</v>
       </c>
+      <c r="AH105" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12674,29 +12682,29 @@
       <c r="Z106" t="s">
         <v>17</v>
       </c>
-      <c r="AA106">
+      <c r="AB106">
         <v>9000</v>
-      </c>
-      <c r="AB106">
-        <v>43</v>
       </c>
       <c r="AC106">
         <v>43</v>
       </c>
       <c r="AD106">
+        <v>43</v>
+      </c>
+      <c r="AE106">
         <v>35000</v>
       </c>
-      <c r="AE106">
+      <c r="AF106">
         <v>5300</v>
       </c>
-      <c r="AF106" t="s">
+      <c r="AG106" t="s">
         <v>21</v>
       </c>
-      <c r="AG106" t="s">
+      <c r="AH106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12775,29 +12783,29 @@
       <c r="Z107" t="s">
         <v>1</v>
       </c>
-      <c r="AA107">
+      <c r="AB107">
         <v>9000</v>
-      </c>
-      <c r="AB107">
-        <v>52</v>
       </c>
       <c r="AC107">
         <v>52</v>
       </c>
       <c r="AD107">
+        <v>52</v>
+      </c>
+      <c r="AE107">
         <v>20000</v>
       </c>
-      <c r="AE107">
+      <c r="AF107">
         <v>7000</v>
       </c>
-      <c r="AF107" t="s">
-        <v>1</v>
-      </c>
       <c r="AG107" t="s">
         <v>1</v>
       </c>
+      <c r="AH107" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12876,29 +12884,29 @@
       <c r="Z108" t="s">
         <v>17</v>
       </c>
-      <c r="AA108">
+      <c r="AB108">
         <v>3500</v>
-      </c>
-      <c r="AB108">
-        <v>16</v>
       </c>
       <c r="AC108">
         <v>16</v>
       </c>
       <c r="AD108">
+        <v>16</v>
+      </c>
+      <c r="AE108">
         <v>9000</v>
       </c>
-      <c r="AE108">
+      <c r="AF108">
         <v>700</v>
       </c>
-      <c r="AF108" t="s">
+      <c r="AG108" t="s">
         <v>21</v>
       </c>
-      <c r="AG108" t="s">
+      <c r="AH108" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12977,29 +12985,29 @@
       <c r="Z109" t="s">
         <v>1</v>
       </c>
-      <c r="AA109">
+      <c r="AB109">
         <v>9000</v>
-      </c>
-      <c r="AB109">
-        <v>60</v>
       </c>
       <c r="AC109">
         <v>60</v>
       </c>
       <c r="AD109">
+        <v>60</v>
+      </c>
+      <c r="AE109">
         <v>20000</v>
       </c>
-      <c r="AE109">
+      <c r="AF109">
         <v>4000</v>
       </c>
-      <c r="AF109" t="s">
-        <v>1</v>
-      </c>
       <c r="AG109" t="s">
         <v>1</v>
       </c>
+      <c r="AH109" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -13078,29 +13086,29 @@
       <c r="Z110" t="s">
         <v>17</v>
       </c>
-      <c r="AA110">
+      <c r="AB110">
         <v>9000</v>
-      </c>
-      <c r="AB110">
-        <v>60</v>
       </c>
       <c r="AC110">
         <v>60</v>
       </c>
       <c r="AD110">
+        <v>60</v>
+      </c>
+      <c r="AE110">
         <v>20000</v>
       </c>
-      <c r="AE110">
+      <c r="AF110">
         <v>500</v>
       </c>
-      <c r="AF110" t="s">
+      <c r="AG110" t="s">
         <v>21</v>
       </c>
-      <c r="AG110" t="s">
+      <c r="AH110" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -13179,29 +13187,29 @@
       <c r="Z111" t="s">
         <v>17</v>
       </c>
-      <c r="AA111">
+      <c r="AB111">
         <v>5000</v>
-      </c>
-      <c r="AB111">
-        <v>42</v>
       </c>
       <c r="AC111">
         <v>42</v>
       </c>
       <c r="AD111">
+        <v>42</v>
+      </c>
+      <c r="AE111">
         <v>28000</v>
       </c>
-      <c r="AE111">
+      <c r="AF111">
         <v>3500</v>
       </c>
-      <c r="AF111" t="s">
+      <c r="AG111" t="s">
         <v>21</v>
       </c>
-      <c r="AG111" t="s">
+      <c r="AH111" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13280,29 +13288,29 @@
       <c r="Z112" t="s">
         <v>17</v>
       </c>
-      <c r="AA112">
+      <c r="AB112">
         <v>8000</v>
-      </c>
-      <c r="AB112">
-        <v>50</v>
       </c>
       <c r="AC112">
         <v>50</v>
       </c>
       <c r="AD112">
+        <v>50</v>
+      </c>
+      <c r="AE112">
         <v>27000</v>
       </c>
-      <c r="AE112">
+      <c r="AF112">
         <v>1500</v>
       </c>
-      <c r="AF112" t="s">
+      <c r="AG112" t="s">
         <v>21</v>
       </c>
-      <c r="AG112" t="s">
+      <c r="AH112" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13381,29 +13389,29 @@
       <c r="Z113" t="s">
         <v>17</v>
       </c>
-      <c r="AA113">
+      <c r="AB113">
         <v>9000</v>
-      </c>
-      <c r="AB113">
-        <v>30</v>
       </c>
       <c r="AC113">
         <v>30</v>
       </c>
       <c r="AD113">
+        <v>30</v>
+      </c>
+      <c r="AE113">
         <v>38000</v>
       </c>
-      <c r="AE113">
+      <c r="AF113">
         <v>6500</v>
       </c>
-      <c r="AF113" t="s">
+      <c r="AG113" t="s">
         <v>21</v>
       </c>
-      <c r="AG113" t="s">
+      <c r="AH113" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13482,29 +13490,29 @@
       <c r="Z114" t="s">
         <v>1</v>
       </c>
-      <c r="AA114">
+      <c r="AB114">
         <v>8000</v>
-      </c>
-      <c r="AB114">
-        <v>42</v>
       </c>
       <c r="AC114">
         <v>42</v>
       </c>
       <c r="AD114">
+        <v>42</v>
+      </c>
+      <c r="AE114">
         <v>15000</v>
       </c>
-      <c r="AE114">
+      <c r="AF114">
         <v>6500</v>
       </c>
-      <c r="AF114" t="s">
-        <v>1</v>
-      </c>
       <c r="AG114" t="s">
         <v>1</v>
       </c>
+      <c r="AH114" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13583,29 +13591,29 @@
       <c r="Z115" t="s">
         <v>17</v>
       </c>
-      <c r="AA115">
+      <c r="AB115">
         <v>3750</v>
-      </c>
-      <c r="AB115">
-        <v>25</v>
       </c>
       <c r="AC115">
         <v>25</v>
       </c>
       <c r="AD115">
+        <v>25</v>
+      </c>
+      <c r="AE115">
         <v>14000</v>
       </c>
-      <c r="AE115">
+      <c r="AF115">
         <v>2500</v>
       </c>
-      <c r="AF115" t="s">
+      <c r="AG115" t="s">
         <v>21</v>
       </c>
-      <c r="AG115" t="s">
+      <c r="AH115" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13684,29 +13692,29 @@
       <c r="Z116" t="s">
         <v>17</v>
       </c>
-      <c r="AA116">
+      <c r="AB116">
         <v>5000</v>
-      </c>
-      <c r="AB116">
-        <v>38</v>
       </c>
       <c r="AC116">
         <v>38</v>
       </c>
       <c r="AD116">
+        <v>38</v>
+      </c>
+      <c r="AE116">
         <v>25000</v>
       </c>
-      <c r="AE116">
+      <c r="AF116">
         <v>1350</v>
       </c>
-      <c r="AF116" t="s">
+      <c r="AG116" t="s">
         <v>21</v>
       </c>
-      <c r="AG116" t="s">
+      <c r="AH116" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13785,29 +13793,29 @@
       <c r="Z117" t="s">
         <v>17</v>
       </c>
-      <c r="AA117">
+      <c r="AB117">
         <v>3700</v>
-      </c>
-      <c r="AB117">
-        <v>20</v>
       </c>
       <c r="AC117">
         <v>20</v>
       </c>
       <c r="AD117">
+        <v>20</v>
+      </c>
+      <c r="AE117">
         <v>15000</v>
       </c>
-      <c r="AE117">
+      <c r="AF117">
         <v>1600</v>
       </c>
-      <c r="AF117" t="s">
+      <c r="AG117" t="s">
         <v>21</v>
       </c>
-      <c r="AG117" t="s">
+      <c r="AH117" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13886,29 +13894,29 @@
       <c r="Z118" t="s">
         <v>17</v>
       </c>
-      <c r="AA118">
+      <c r="AB118">
         <v>3000</v>
-      </c>
-      <c r="AB118">
-        <v>25</v>
       </c>
       <c r="AC118">
         <v>25</v>
       </c>
       <c r="AD118">
+        <v>25</v>
+      </c>
+      <c r="AE118">
         <v>18500</v>
       </c>
-      <c r="AE118">
+      <c r="AF118">
         <v>3000</v>
       </c>
-      <c r="AF118" t="s">
+      <c r="AG118" t="s">
         <v>21</v>
       </c>
-      <c r="AG118" t="s">
+      <c r="AH118" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13987,29 +13995,29 @@
       <c r="Z119" t="s">
         <v>1</v>
       </c>
-      <c r="AA119">
+      <c r="AB119">
         <v>6500</v>
-      </c>
-      <c r="AB119">
-        <v>38</v>
       </c>
       <c r="AC119">
         <v>38</v>
       </c>
       <c r="AD119">
+        <v>38</v>
+      </c>
+      <c r="AE119">
         <v>10000</v>
       </c>
-      <c r="AE119">
+      <c r="AF119">
         <v>6000</v>
       </c>
-      <c r="AF119" t="s">
+      <c r="AG119" t="s">
         <v>21</v>
       </c>
-      <c r="AG119" t="s">
+      <c r="AH119" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -14088,29 +14096,29 @@
       <c r="Z120" t="s">
         <v>17</v>
       </c>
-      <c r="AA120">
+      <c r="AB120">
         <v>3000</v>
-      </c>
-      <c r="AB120">
-        <v>21</v>
       </c>
       <c r="AC120">
         <v>21</v>
       </c>
       <c r="AD120">
+        <v>21</v>
+      </c>
+      <c r="AE120">
         <v>5000</v>
       </c>
-      <c r="AE120">
+      <c r="AF120">
         <v>1700</v>
       </c>
-      <c r="AF120" t="s">
+      <c r="AG120" t="s">
         <v>21</v>
       </c>
-      <c r="AG120" t="s">
+      <c r="AH120" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -14189,29 +14197,29 @@
       <c r="Z121" t="s">
         <v>17</v>
       </c>
-      <c r="AA121">
+      <c r="AB121">
         <v>4000</v>
-      </c>
-      <c r="AB121">
-        <v>25</v>
       </c>
       <c r="AC121">
         <v>25</v>
       </c>
       <c r="AD121">
+        <v>25</v>
+      </c>
+      <c r="AE121">
         <v>35000</v>
       </c>
-      <c r="AE121">
+      <c r="AF121">
         <v>1500</v>
       </c>
-      <c r="AF121" t="s">
+      <c r="AG121" t="s">
         <v>21</v>
       </c>
-      <c r="AG121" t="s">
+      <c r="AH121" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -14290,29 +14298,29 @@
       <c r="Z122" t="s">
         <v>17</v>
       </c>
-      <c r="AA122">
+      <c r="AB122">
         <v>6000</v>
-      </c>
-      <c r="AB122">
-        <v>50</v>
       </c>
       <c r="AC122">
         <v>50</v>
       </c>
       <c r="AD122">
+        <v>50</v>
+      </c>
+      <c r="AE122">
         <v>40000</v>
       </c>
-      <c r="AE122">
+      <c r="AF122">
         <v>5600</v>
       </c>
-      <c r="AF122" t="s">
+      <c r="AG122" t="s">
         <v>21</v>
       </c>
-      <c r="AG122" t="s">
+      <c r="AH122" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -14391,29 +14399,29 @@
       <c r="Z123" t="s">
         <v>17</v>
       </c>
-      <c r="AA123">
+      <c r="AB123">
         <v>4500</v>
-      </c>
-      <c r="AB123">
-        <v>35</v>
       </c>
       <c r="AC123">
         <v>35</v>
       </c>
       <c r="AD123">
+        <v>35</v>
+      </c>
+      <c r="AE123">
         <v>26000</v>
       </c>
-      <c r="AE123">
+      <c r="AF123">
         <v>1200</v>
       </c>
-      <c r="AF123" t="s">
+      <c r="AG123" t="s">
         <v>21</v>
       </c>
-      <c r="AG123" t="s">
+      <c r="AH123" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -14492,29 +14500,29 @@
       <c r="Z124" t="s">
         <v>17</v>
       </c>
-      <c r="AA124">
+      <c r="AB124">
         <v>4000</v>
-      </c>
-      <c r="AB124">
-        <v>24</v>
       </c>
       <c r="AC124">
         <v>24</v>
       </c>
       <c r="AD124">
+        <v>24</v>
+      </c>
+      <c r="AE124">
         <v>7000</v>
       </c>
-      <c r="AE124">
+      <c r="AF124">
         <v>3000</v>
       </c>
-      <c r="AF124" t="s">
-        <v>1</v>
-      </c>
       <c r="AG124" t="s">
         <v>1</v>
       </c>
+      <c r="AH124" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -14593,29 +14601,29 @@
       <c r="Z125" t="s">
         <v>17</v>
       </c>
-      <c r="AA125">
+      <c r="AB125">
         <v>7000</v>
-      </c>
-      <c r="AB125">
-        <v>45</v>
       </c>
       <c r="AC125">
         <v>45</v>
       </c>
       <c r="AD125">
+        <v>45</v>
+      </c>
+      <c r="AE125">
         <v>14000</v>
       </c>
-      <c r="AE125">
+      <c r="AF125">
         <v>5400</v>
       </c>
-      <c r="AF125" t="s">
+      <c r="AG125" t="s">
         <v>21</v>
       </c>
-      <c r="AG125" t="s">
+      <c r="AH125" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -14694,29 +14702,29 @@
       <c r="Z126" t="s">
         <v>17</v>
       </c>
-      <c r="AA126">
+      <c r="AB126">
         <v>6000</v>
-      </c>
-      <c r="AB126">
-        <v>40</v>
       </c>
       <c r="AC126">
         <v>40</v>
       </c>
       <c r="AD126">
+        <v>40</v>
+      </c>
+      <c r="AE126">
         <v>22000</v>
       </c>
-      <c r="AE126">
+      <c r="AF126">
         <v>2000</v>
       </c>
-      <c r="AF126" t="s">
+      <c r="AG126" t="s">
         <v>21</v>
       </c>
-      <c r="AG126" t="s">
+      <c r="AH126" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -14795,29 +14803,29 @@
       <c r="Z127" t="s">
         <v>17</v>
       </c>
-      <c r="AA127">
+      <c r="AB127">
         <v>6000</v>
-      </c>
-      <c r="AB127">
-        <v>40</v>
       </c>
       <c r="AC127">
         <v>40</v>
       </c>
       <c r="AD127">
+        <v>40</v>
+      </c>
+      <c r="AE127">
         <v>22000</v>
       </c>
-      <c r="AE127">
+      <c r="AF127">
         <v>2000</v>
       </c>
-      <c r="AF127" t="s">
-        <v>1</v>
-      </c>
       <c r="AG127" t="s">
         <v>1</v>
       </c>
+      <c r="AH127" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -14896,29 +14904,29 @@
       <c r="Z128" t="s">
         <v>17</v>
       </c>
-      <c r="AA128">
+      <c r="AB128">
         <v>8750</v>
-      </c>
-      <c r="AB128">
-        <v>52</v>
       </c>
       <c r="AC128">
         <v>52</v>
       </c>
       <c r="AD128">
+        <v>52</v>
+      </c>
+      <c r="AE128">
         <v>1400</v>
       </c>
-      <c r="AE128">
+      <c r="AF128">
         <v>1800</v>
       </c>
-      <c r="AF128" t="s">
-        <v>1</v>
-      </c>
       <c r="AG128" t="s">
         <v>1</v>
       </c>
+      <c r="AH128" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -14997,29 +15005,29 @@
       <c r="Z129" t="s">
         <v>1</v>
       </c>
-      <c r="AA129">
+      <c r="AB129">
         <v>11800</v>
-      </c>
-      <c r="AB129">
-        <v>59</v>
       </c>
       <c r="AC129">
         <v>59</v>
       </c>
       <c r="AD129">
+        <v>59</v>
+      </c>
+      <c r="AE129">
         <v>6000</v>
       </c>
-      <c r="AE129">
+      <c r="AF129">
         <v>12000</v>
       </c>
-      <c r="AF129" t="s">
+      <c r="AG129" t="s">
         <v>21</v>
       </c>
-      <c r="AG129" t="s">
+      <c r="AH129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -15098,29 +15106,29 @@
       <c r="Z130" t="s">
         <v>1</v>
       </c>
-      <c r="AA130">
+      <c r="AB130">
         <v>10000</v>
-      </c>
-      <c r="AB130">
-        <v>54</v>
       </c>
       <c r="AC130">
         <v>54</v>
       </c>
       <c r="AD130">
+        <v>54</v>
+      </c>
+      <c r="AE130">
         <v>6000</v>
       </c>
-      <c r="AE130">
+      <c r="AF130">
         <v>7000</v>
       </c>
-      <c r="AF130" t="s">
+      <c r="AG130" t="s">
         <v>21</v>
       </c>
-      <c r="AG130" t="s">
+      <c r="AH130" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -15199,29 +15207,29 @@
       <c r="Z131" t="s">
         <v>17</v>
       </c>
-      <c r="AA131">
+      <c r="AB131">
         <v>7000</v>
-      </c>
-      <c r="AB131">
-        <v>40</v>
       </c>
       <c r="AC131">
         <v>40</v>
       </c>
       <c r="AD131">
+        <v>40</v>
+      </c>
+      <c r="AE131">
         <v>22000</v>
       </c>
-      <c r="AE131">
+      <c r="AF131">
         <v>2200</v>
       </c>
-      <c r="AF131" t="s">
+      <c r="AG131" t="s">
         <v>21</v>
       </c>
-      <c r="AG131" t="s">
+      <c r="AH131" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -15300,29 +15308,29 @@
       <c r="Z132" t="s">
         <v>1</v>
       </c>
-      <c r="AA132">
+      <c r="AB132">
         <v>12500</v>
-      </c>
-      <c r="AB132">
-        <v>55</v>
       </c>
       <c r="AC132">
         <v>55</v>
       </c>
       <c r="AD132">
+        <v>55</v>
+      </c>
+      <c r="AE132">
         <v>15000</v>
       </c>
-      <c r="AE132">
+      <c r="AF132">
         <v>10000</v>
       </c>
-      <c r="AF132" t="s">
+      <c r="AG132" t="s">
         <v>21</v>
       </c>
-      <c r="AG132" t="s">
+      <c r="AH132" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -15401,29 +15409,29 @@
       <c r="Z133" t="s">
         <v>17</v>
       </c>
-      <c r="AA133">
+      <c r="AB133">
         <v>4500</v>
-      </c>
-      <c r="AB133">
-        <v>22</v>
       </c>
       <c r="AC133">
         <v>22</v>
       </c>
       <c r="AD133">
+        <v>22</v>
+      </c>
+      <c r="AE133">
         <v>1550</v>
       </c>
-      <c r="AE133">
+      <c r="AF133">
         <v>1000</v>
       </c>
-      <c r="AF133" t="s">
+      <c r="AG133" t="s">
         <v>21</v>
       </c>
-      <c r="AG133" t="s">
+      <c r="AH133" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -15502,29 +15510,29 @@
       <c r="Z134" t="s">
         <v>1</v>
       </c>
-      <c r="AA134">
+      <c r="AB134">
         <v>9500</v>
-      </c>
-      <c r="AB134">
-        <v>35</v>
       </c>
       <c r="AC134">
         <v>35</v>
       </c>
       <c r="AD134">
+        <v>35</v>
+      </c>
+      <c r="AE134">
         <v>16300</v>
       </c>
-      <c r="AE134">
+      <c r="AF134">
         <v>7000</v>
       </c>
-      <c r="AF134" t="s">
+      <c r="AG134" t="s">
         <v>21</v>
       </c>
-      <c r="AG134" t="s">
+      <c r="AH134" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -15603,29 +15611,29 @@
       <c r="Z135" t="s">
         <v>17</v>
       </c>
-      <c r="AA135">
+      <c r="AB135">
         <v>10000</v>
-      </c>
-      <c r="AB135">
-        <v>38</v>
       </c>
       <c r="AC135">
         <v>38</v>
       </c>
       <c r="AD135">
+        <v>38</v>
+      </c>
+      <c r="AE135">
         <v>25000</v>
       </c>
-      <c r="AE135">
+      <c r="AF135">
         <v>2500</v>
       </c>
-      <c r="AF135" t="s">
+      <c r="AG135" t="s">
         <v>21</v>
       </c>
-      <c r="AG135" t="s">
+      <c r="AH135" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -15704,29 +15712,29 @@
       <c r="Z136" t="s">
         <v>17</v>
       </c>
-      <c r="AA136">
+      <c r="AB136">
         <v>2500</v>
-      </c>
-      <c r="AB136">
-        <v>18</v>
       </c>
       <c r="AC136">
         <v>18</v>
       </c>
       <c r="AD136">
+        <v>18</v>
+      </c>
+      <c r="AE136">
         <v>16990</v>
       </c>
-      <c r="AE136">
+      <c r="AF136">
         <v>500</v>
       </c>
-      <c r="AF136" t="s">
+      <c r="AG136" t="s">
         <v>21</v>
       </c>
-      <c r="AG136" t="s">
+      <c r="AH136" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -15805,29 +15813,29 @@
       <c r="Z137" t="s">
         <v>17</v>
       </c>
-      <c r="AA137">
+      <c r="AB137">
         <v>5750</v>
-      </c>
-      <c r="AB137">
-        <v>43</v>
       </c>
       <c r="AC137">
         <v>43</v>
       </c>
       <c r="AD137">
+        <v>43</v>
+      </c>
+      <c r="AE137">
         <v>15770</v>
       </c>
-      <c r="AE137">
+      <c r="AF137">
         <v>1350</v>
       </c>
-      <c r="AF137" t="s">
+      <c r="AG137" t="s">
         <v>21</v>
       </c>
-      <c r="AG137" t="s">
+      <c r="AH137" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -15906,29 +15914,29 @@
       <c r="Z138" t="s">
         <v>17</v>
       </c>
-      <c r="AA138">
+      <c r="AB138">
         <v>12250</v>
-      </c>
-      <c r="AB138">
-        <v>80</v>
       </c>
       <c r="AC138">
         <v>80</v>
       </c>
       <c r="AD138">
+        <v>80</v>
+      </c>
+      <c r="AE138">
         <v>1500</v>
       </c>
-      <c r="AE138">
+      <c r="AF138">
         <v>2200</v>
       </c>
-      <c r="AF138" t="s">
+      <c r="AG138" t="s">
         <v>21</v>
       </c>
-      <c r="AG138" t="s">
+      <c r="AH138" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -16007,29 +16015,29 @@
       <c r="Z139" t="s">
         <v>17</v>
       </c>
-      <c r="AA139">
+      <c r="AB139">
         <v>6000</v>
-      </c>
-      <c r="AB139">
-        <v>30</v>
       </c>
       <c r="AC139">
         <v>30</v>
       </c>
       <c r="AD139">
+        <v>30</v>
+      </c>
+      <c r="AE139">
         <v>40000</v>
       </c>
-      <c r="AE139">
+      <c r="AF139">
         <v>3800</v>
       </c>
-      <c r="AF139" t="s">
+      <c r="AG139" t="s">
         <v>21</v>
       </c>
-      <c r="AG139" t="s">
+      <c r="AH139" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -16108,29 +16116,29 @@
       <c r="Z140" t="s">
         <v>17</v>
       </c>
-      <c r="AA140">
+      <c r="AB140">
         <v>9500</v>
-      </c>
-      <c r="AB140">
-        <v>40</v>
       </c>
       <c r="AC140">
         <v>40</v>
       </c>
       <c r="AD140">
+        <v>40</v>
+      </c>
+      <c r="AE140">
         <v>17000</v>
       </c>
-      <c r="AE140">
+      <c r="AF140">
         <v>1600</v>
       </c>
-      <c r="AF140" t="s">
+      <c r="AG140" t="s">
         <v>21</v>
       </c>
-      <c r="AG140" t="s">
+      <c r="AH140" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -16209,29 +16217,29 @@
       <c r="Z141" t="s">
         <v>1</v>
       </c>
-      <c r="AA141">
+      <c r="AB141">
         <v>9650</v>
-      </c>
-      <c r="AB141">
-        <v>42</v>
       </c>
       <c r="AC141">
         <v>42</v>
       </c>
       <c r="AD141">
+        <v>42</v>
+      </c>
+      <c r="AE141">
         <v>70000</v>
       </c>
-      <c r="AE141">
+      <c r="AF141">
         <v>7000</v>
       </c>
-      <c r="AF141" t="s">
+      <c r="AG141" t="s">
         <v>21</v>
       </c>
-      <c r="AG141" t="s">
+      <c r="AH141" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -16310,29 +16318,29 @@
       <c r="Z142" t="s">
         <v>17</v>
       </c>
-      <c r="AA142">
+      <c r="AB142">
         <v>5000</v>
-      </c>
-      <c r="AB142">
-        <v>26</v>
       </c>
       <c r="AC142">
         <v>26</v>
       </c>
       <c r="AD142">
-        <v>5000</v>
+        <v>26</v>
       </c>
       <c r="AE142">
         <v>5000</v>
       </c>
-      <c r="AF142" t="s">
+      <c r="AF142">
+        <v>5000</v>
+      </c>
+      <c r="AG142" t="s">
         <v>21</v>
       </c>
-      <c r="AG142" t="s">
+      <c r="AH142" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -16411,29 +16419,29 @@
       <c r="Z143" t="s">
         <v>1</v>
       </c>
-      <c r="AA143">
+      <c r="AB143">
         <v>9500</v>
-      </c>
-      <c r="AB143">
-        <v>50</v>
       </c>
       <c r="AC143">
         <v>50</v>
       </c>
       <c r="AD143">
+        <v>50</v>
+      </c>
+      <c r="AE143">
         <v>25000</v>
       </c>
-      <c r="AE143">
+      <c r="AF143">
         <v>7000</v>
       </c>
-      <c r="AF143" t="s">
+      <c r="AG143" t="s">
         <v>21</v>
       </c>
-      <c r="AG143" t="s">
+      <c r="AH143" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -16512,29 +16520,29 @@
       <c r="Z144" t="s">
         <v>17</v>
       </c>
-      <c r="AA144">
+      <c r="AB144">
         <v>3250</v>
-      </c>
-      <c r="AB144">
-        <v>21</v>
       </c>
       <c r="AC144">
         <v>21</v>
       </c>
       <c r="AD144">
+        <v>21</v>
+      </c>
+      <c r="AE144">
         <v>17000</v>
       </c>
-      <c r="AE144">
+      <c r="AF144">
         <v>1000</v>
       </c>
-      <c r="AF144" t="s">
+      <c r="AG144" t="s">
         <v>21</v>
       </c>
-      <c r="AG144" t="s">
+      <c r="AH144" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -16613,29 +16621,29 @@
       <c r="Z145" t="s">
         <v>17</v>
       </c>
-      <c r="AA145">
+      <c r="AB145">
         <v>800</v>
-      </c>
-      <c r="AB145">
-        <v>50</v>
       </c>
       <c r="AC145">
         <v>50</v>
       </c>
       <c r="AD145">
+        <v>50</v>
+      </c>
+      <c r="AE145">
         <v>65000</v>
       </c>
-      <c r="AE145">
+      <c r="AF145">
         <v>6000</v>
       </c>
-      <c r="AF145" t="s">
+      <c r="AG145" t="s">
         <v>21</v>
       </c>
-      <c r="AG145" t="s">
+      <c r="AH145" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -16714,29 +16722,29 @@
       <c r="Z146" t="s">
         <v>1</v>
       </c>
-      <c r="AA146">
+      <c r="AB146">
         <v>11250</v>
-      </c>
-      <c r="AB146">
-        <v>64</v>
       </c>
       <c r="AC146">
         <v>64</v>
       </c>
       <c r="AD146">
+        <v>64</v>
+      </c>
+      <c r="AE146">
         <v>12500</v>
       </c>
-      <c r="AE146">
+      <c r="AF146">
         <v>9000</v>
       </c>
-      <c r="AF146" t="s">
-        <v>1</v>
-      </c>
       <c r="AG146" t="s">
         <v>1</v>
       </c>
+      <c r="AH146" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -16815,29 +16823,29 @@
       <c r="Z147" t="s">
         <v>17</v>
       </c>
-      <c r="AA147">
+      <c r="AB147">
         <v>8500</v>
-      </c>
-      <c r="AB147">
-        <v>39</v>
       </c>
       <c r="AC147">
         <v>39</v>
       </c>
       <c r="AD147">
+        <v>39</v>
+      </c>
+      <c r="AE147">
         <v>30000</v>
       </c>
-      <c r="AE147">
+      <c r="AF147">
         <v>3000</v>
       </c>
-      <c r="AF147" t="s">
+      <c r="AG147" t="s">
         <v>21</v>
       </c>
-      <c r="AG147" t="s">
+      <c r="AH147" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -16916,29 +16924,29 @@
       <c r="Z148" t="s">
         <v>1</v>
       </c>
-      <c r="AA148">
+      <c r="AB148">
         <v>10250</v>
-      </c>
-      <c r="AB148">
-        <v>42</v>
       </c>
       <c r="AC148">
         <v>42</v>
       </c>
       <c r="AD148">
+        <v>42</v>
+      </c>
+      <c r="AE148">
         <v>75000</v>
       </c>
-      <c r="AE148">
+      <c r="AF148">
         <v>8700</v>
       </c>
-      <c r="AF148" t="s">
+      <c r="AG148" t="s">
         <v>21</v>
       </c>
-      <c r="AG148" t="s">
+      <c r="AH148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -17017,29 +17025,29 @@
       <c r="Z149" t="s">
         <v>17</v>
       </c>
-      <c r="AA149">
+      <c r="AB149">
         <v>9000</v>
-      </c>
-      <c r="AB149">
-        <v>46</v>
       </c>
       <c r="AC149">
         <v>46</v>
       </c>
       <c r="AD149">
+        <v>46</v>
+      </c>
+      <c r="AE149">
         <v>16000</v>
       </c>
-      <c r="AE149">
+      <c r="AF149">
         <v>1500</v>
       </c>
-      <c r="AF149" t="s">
-        <v>1</v>
-      </c>
       <c r="AG149" t="s">
         <v>1</v>
       </c>
+      <c r="AH149" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -17118,29 +17126,29 @@
       <c r="Z150" t="s">
         <v>1</v>
       </c>
-      <c r="AA150">
+      <c r="AB150">
         <v>9000</v>
-      </c>
-      <c r="AB150">
-        <v>46</v>
       </c>
       <c r="AC150">
         <v>46</v>
       </c>
       <c r="AD150">
+        <v>46</v>
+      </c>
+      <c r="AE150">
         <v>10000</v>
       </c>
-      <c r="AE150">
+      <c r="AF150">
         <v>6800</v>
       </c>
-      <c r="AF150" t="s">
-        <v>1</v>
-      </c>
       <c r="AG150" t="s">
         <v>1</v>
       </c>
+      <c r="AH150" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -17219,29 +17227,29 @@
       <c r="Z151" t="s">
         <v>17</v>
       </c>
-      <c r="AA151">
+      <c r="AB151">
         <v>4500</v>
-      </c>
-      <c r="AB151">
-        <v>25</v>
       </c>
       <c r="AC151">
         <v>25</v>
       </c>
       <c r="AD151">
+        <v>25</v>
+      </c>
+      <c r="AE151">
         <v>30000</v>
       </c>
-      <c r="AE151">
+      <c r="AF151">
         <v>2500</v>
       </c>
-      <c r="AF151" t="s">
+      <c r="AG151" t="s">
         <v>21</v>
       </c>
-      <c r="AG151" t="s">
+      <c r="AH151" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -17320,29 +17328,29 @@
       <c r="Z152" t="s">
         <v>1</v>
       </c>
-      <c r="AA152">
+      <c r="AB152">
         <v>10000</v>
-      </c>
-      <c r="AB152">
-        <v>37</v>
       </c>
       <c r="AC152">
         <v>37</v>
       </c>
       <c r="AD152">
+        <v>37</v>
+      </c>
+      <c r="AE152">
         <v>45000</v>
       </c>
-      <c r="AE152">
+      <c r="AF152">
         <v>6500</v>
       </c>
-      <c r="AF152" t="s">
-        <v>1</v>
-      </c>
       <c r="AG152" t="s">
         <v>1</v>
       </c>
+      <c r="AH152" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -17421,29 +17429,29 @@
       <c r="Z153" t="s">
         <v>17</v>
       </c>
-      <c r="AA153">
+      <c r="AB153">
         <v>5000</v>
-      </c>
-      <c r="AB153">
-        <v>35</v>
       </c>
       <c r="AC153">
         <v>35</v>
       </c>
       <c r="AD153">
+        <v>35</v>
+      </c>
+      <c r="AE153">
         <v>9000</v>
       </c>
-      <c r="AE153">
+      <c r="AF153">
         <v>3300</v>
       </c>
-      <c r="AF153" t="s">
+      <c r="AG153" t="s">
         <v>21</v>
       </c>
-      <c r="AG153" t="s">
+      <c r="AH153" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -17522,29 +17530,29 @@
       <c r="Z154" t="s">
         <v>17</v>
       </c>
-      <c r="AA154">
+      <c r="AB154">
         <v>1500</v>
-      </c>
-      <c r="AB154">
-        <v>10</v>
       </c>
       <c r="AC154">
         <v>10</v>
       </c>
       <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
         <v>24000</v>
       </c>
-      <c r="AE154">
+      <c r="AF154">
         <v>1500</v>
       </c>
-      <c r="AF154" t="s">
-        <v>1</v>
-      </c>
       <c r="AG154" t="s">
         <v>1</v>
       </c>
+      <c r="AH154" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -17623,29 +17631,29 @@
       <c r="Z155" t="s">
         <v>1</v>
       </c>
-      <c r="AA155">
+      <c r="AB155">
         <v>10000</v>
-      </c>
-      <c r="AB155">
-        <v>46</v>
       </c>
       <c r="AC155">
         <v>46</v>
       </c>
       <c r="AD155">
+        <v>46</v>
+      </c>
+      <c r="AE155">
         <v>16000</v>
       </c>
-      <c r="AE155">
+      <c r="AF155">
         <v>5500</v>
       </c>
-      <c r="AF155" t="s">
-        <v>1</v>
-      </c>
       <c r="AG155" t="s">
         <v>1</v>
       </c>
+      <c r="AH155" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -17724,29 +17732,29 @@
       <c r="Z156" t="s">
         <v>17</v>
       </c>
-      <c r="AA156">
+      <c r="AB156">
         <v>4000</v>
-      </c>
-      <c r="AB156">
-        <v>33</v>
       </c>
       <c r="AC156">
         <v>33</v>
       </c>
       <c r="AD156">
+        <v>33</v>
+      </c>
+      <c r="AE156">
         <v>80000</v>
       </c>
-      <c r="AE156">
+      <c r="AF156">
         <v>3000</v>
       </c>
-      <c r="AF156" t="s">
+      <c r="AG156" t="s">
         <v>21</v>
       </c>
-      <c r="AG156" t="s">
+      <c r="AH156" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -17825,29 +17833,29 @@
       <c r="Z157" t="s">
         <v>1</v>
       </c>
-      <c r="AA157">
+      <c r="AB157">
         <v>10500</v>
-      </c>
-      <c r="AB157">
-        <v>57</v>
       </c>
       <c r="AC157">
         <v>57</v>
       </c>
       <c r="AD157">
+        <v>57</v>
+      </c>
+      <c r="AE157">
         <v>16000</v>
       </c>
-      <c r="AE157">
+      <c r="AF157">
         <v>8000</v>
       </c>
-      <c r="AF157" t="s">
+      <c r="AG157" t="s">
         <v>21</v>
       </c>
-      <c r="AG157" t="s">
+      <c r="AH157" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -17926,29 +17934,29 @@
       <c r="Z158" t="s">
         <v>17</v>
       </c>
-      <c r="AA158">
+      <c r="AB158">
         <v>9500</v>
-      </c>
-      <c r="AB158">
-        <v>54</v>
       </c>
       <c r="AC158">
         <v>54</v>
       </c>
       <c r="AD158">
+        <v>54</v>
+      </c>
+      <c r="AE158">
         <v>22000</v>
       </c>
-      <c r="AE158">
+      <c r="AF158">
         <v>5000</v>
       </c>
-      <c r="AF158" t="s">
-        <v>1</v>
-      </c>
       <c r="AG158" t="s">
         <v>1</v>
       </c>
+      <c r="AH158" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -18027,29 +18035,29 @@
       <c r="Z159" t="s">
         <v>17</v>
       </c>
-      <c r="AA159">
+      <c r="AB159">
         <v>6000</v>
-      </c>
-      <c r="AB159">
-        <v>35</v>
       </c>
       <c r="AC159">
         <v>35</v>
       </c>
       <c r="AD159">
+        <v>35</v>
+      </c>
+      <c r="AE159">
         <v>13000</v>
       </c>
-      <c r="AE159">
+      <c r="AF159">
         <v>1850</v>
       </c>
-      <c r="AF159" t="s">
+      <c r="AG159" t="s">
         <v>21</v>
       </c>
-      <c r="AG159" t="s">
+      <c r="AH159" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -18128,29 +18136,29 @@
       <c r="Z160" t="s">
         <v>17</v>
       </c>
-      <c r="AA160">
+      <c r="AB160">
         <v>3500</v>
-      </c>
-      <c r="AB160">
-        <v>20</v>
       </c>
       <c r="AC160">
         <v>20</v>
       </c>
       <c r="AD160">
+        <v>20</v>
+      </c>
+      <c r="AE160">
         <v>17800</v>
       </c>
-      <c r="AE160">
+      <c r="AF160">
         <v>1500</v>
       </c>
-      <c r="AF160" t="s">
+      <c r="AG160" t="s">
         <v>21</v>
       </c>
-      <c r="AG160" t="s">
+      <c r="AH160" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18229,29 +18237,29 @@
       <c r="Z161" t="s">
         <v>17</v>
       </c>
-      <c r="AA161">
+      <c r="AB161">
         <v>6750</v>
-      </c>
-      <c r="AB161">
-        <v>50</v>
       </c>
       <c r="AC161">
         <v>50</v>
       </c>
       <c r="AD161">
+        <v>50</v>
+      </c>
+      <c r="AE161">
         <v>16900</v>
       </c>
-      <c r="AE161">
+      <c r="AF161">
         <v>5500</v>
       </c>
-      <c r="AF161" t="s">
-        <v>1</v>
-      </c>
       <c r="AG161" t="s">
         <v>1</v>
       </c>
+      <c r="AH161" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18330,29 +18338,29 @@
       <c r="Z162" t="s">
         <v>17</v>
       </c>
-      <c r="AA162">
+      <c r="AB162">
         <v>10250</v>
-      </c>
-      <c r="AB162">
-        <v>65</v>
       </c>
       <c r="AC162">
         <v>65</v>
       </c>
       <c r="AD162">
+        <v>65</v>
+      </c>
+      <c r="AE162">
         <v>15000</v>
       </c>
-      <c r="AE162">
+      <c r="AF162">
         <v>1800</v>
       </c>
-      <c r="AF162" t="s">
+      <c r="AG162" t="s">
         <v>21</v>
       </c>
-      <c r="AG162" t="s">
+      <c r="AH162" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18431,29 +18439,29 @@
       <c r="Z163" t="s">
         <v>1</v>
       </c>
-      <c r="AA163">
+      <c r="AB163">
         <v>9000</v>
-      </c>
-      <c r="AB163">
-        <v>36</v>
       </c>
       <c r="AC163">
         <v>36</v>
       </c>
       <c r="AD163">
+        <v>36</v>
+      </c>
+      <c r="AE163">
         <v>35000</v>
       </c>
-      <c r="AE163">
+      <c r="AF163">
         <v>6900</v>
       </c>
-      <c r="AF163" t="s">
+      <c r="AG163" t="s">
         <v>21</v>
       </c>
-      <c r="AG163" t="s">
+      <c r="AH163" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18532,29 +18540,29 @@
       <c r="Z164" t="s">
         <v>1</v>
       </c>
-      <c r="AA164">
+      <c r="AB164">
         <v>12500</v>
-      </c>
-      <c r="AB164">
-        <v>61</v>
       </c>
       <c r="AC164">
         <v>61</v>
       </c>
       <c r="AD164">
+        <v>61</v>
+      </c>
+      <c r="AE164">
         <v>44000</v>
       </c>
-      <c r="AE164">
+      <c r="AF164">
         <v>10000</v>
       </c>
-      <c r="AF164" t="s">
+      <c r="AG164" t="s">
         <v>21</v>
       </c>
-      <c r="AG164" t="s">
+      <c r="AH164" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18633,29 +18641,29 @@
       <c r="Z165" t="s">
         <v>17</v>
       </c>
-      <c r="AA165">
+      <c r="AB165">
         <v>7000</v>
-      </c>
-      <c r="AB165">
-        <v>42</v>
       </c>
       <c r="AC165">
         <v>42</v>
       </c>
       <c r="AD165">
+        <v>42</v>
+      </c>
+      <c r="AE165">
         <v>20000</v>
       </c>
-      <c r="AE165">
+      <c r="AF165">
         <v>1800</v>
       </c>
-      <c r="AF165" t="s">
+      <c r="AG165" t="s">
         <v>21</v>
       </c>
-      <c r="AG165" t="s">
+      <c r="AH165" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18734,29 +18742,29 @@
       <c r="Z166" t="s">
         <v>17</v>
       </c>
-      <c r="AA166">
+      <c r="AB166">
         <v>9000</v>
-      </c>
-      <c r="AB166">
-        <v>30</v>
       </c>
       <c r="AC166">
         <v>30</v>
       </c>
       <c r="AD166">
+        <v>30</v>
+      </c>
+      <c r="AE166">
         <v>3000</v>
       </c>
-      <c r="AE166">
+      <c r="AF166">
         <v>6500</v>
       </c>
-      <c r="AF166" t="s">
-        <v>1</v>
-      </c>
       <c r="AG166" t="s">
         <v>1</v>
       </c>
+      <c r="AH166" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18835,29 +18843,29 @@
       <c r="Z167" t="s">
         <v>17</v>
       </c>
-      <c r="AA167">
+      <c r="AB167">
         <v>1400</v>
-      </c>
-      <c r="AB167">
-        <v>50</v>
       </c>
       <c r="AC167">
         <v>50</v>
       </c>
       <c r="AD167">
+        <v>50</v>
+      </c>
+      <c r="AE167">
         <v>50000</v>
       </c>
-      <c r="AE167">
+      <c r="AF167">
         <v>5000</v>
       </c>
-      <c r="AF167" t="s">
+      <c r="AG167" t="s">
         <v>21</v>
       </c>
-      <c r="AG167" t="s">
+      <c r="AH167" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18936,29 +18944,29 @@
       <c r="Z168" t="s">
         <v>17</v>
       </c>
-      <c r="AA168">
+      <c r="AB168">
         <v>2000</v>
-      </c>
-      <c r="AB168">
-        <v>10</v>
       </c>
       <c r="AC168">
         <v>10</v>
       </c>
       <c r="AD168">
+        <v>10</v>
+      </c>
+      <c r="AE168">
         <v>42000</v>
       </c>
-      <c r="AE168">
+      <c r="AF168">
         <v>1000</v>
       </c>
-      <c r="AF168" t="s">
+      <c r="AG168" t="s">
         <v>21</v>
       </c>
-      <c r="AG168" t="s">
+      <c r="AH168" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19037,29 +19045,29 @@
       <c r="Z169" t="s">
         <v>17</v>
       </c>
-      <c r="AA169">
+      <c r="AB169">
         <v>2700</v>
-      </c>
-      <c r="AB169">
-        <v>25</v>
       </c>
       <c r="AC169">
         <v>25</v>
       </c>
       <c r="AD169">
+        <v>25</v>
+      </c>
+      <c r="AE169">
         <v>18000</v>
       </c>
-      <c r="AE169">
+      <c r="AF169">
         <v>1500</v>
       </c>
-      <c r="AF169" t="s">
+      <c r="AG169" t="s">
         <v>21</v>
       </c>
-      <c r="AG169" t="s">
+      <c r="AH169" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19138,29 +19146,29 @@
       <c r="Z170" t="s">
         <v>17</v>
       </c>
-      <c r="AA170">
+      <c r="AB170">
         <v>9750</v>
-      </c>
-      <c r="AB170">
-        <v>85</v>
       </c>
       <c r="AC170">
         <v>85</v>
       </c>
       <c r="AD170">
+        <v>85</v>
+      </c>
+      <c r="AE170">
         <v>50000</v>
       </c>
-      <c r="AE170">
+      <c r="AF170">
         <v>7000</v>
       </c>
-      <c r="AF170" t="s">
+      <c r="AG170" t="s">
         <v>21</v>
       </c>
-      <c r="AG170" t="s">
+      <c r="AH170" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19239,29 +19247,29 @@
       <c r="Z171" t="s">
         <v>17</v>
       </c>
-      <c r="AA171">
+      <c r="AB171">
         <v>1250</v>
-      </c>
-      <c r="AB171">
-        <v>10</v>
       </c>
       <c r="AC171">
         <v>10</v>
       </c>
       <c r="AD171">
+        <v>10</v>
+      </c>
+      <c r="AE171">
         <v>5500</v>
       </c>
-      <c r="AE171">
+      <c r="AF171">
         <v>500</v>
       </c>
-      <c r="AF171" t="s">
-        <v>1</v>
-      </c>
       <c r="AG171" t="s">
         <v>1</v>
       </c>
+      <c r="AH171" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19340,29 +19348,29 @@
       <c r="Z172" t="s">
         <v>17</v>
       </c>
-      <c r="AA172">
+      <c r="AB172">
         <v>8000</v>
-      </c>
-      <c r="AB172">
-        <v>36</v>
       </c>
       <c r="AC172">
         <v>36</v>
       </c>
       <c r="AD172">
+        <v>36</v>
+      </c>
+      <c r="AE172">
         <v>15000</v>
       </c>
-      <c r="AE172">
+      <c r="AF172">
         <v>2800</v>
       </c>
-      <c r="AF172" t="s">
-        <v>1</v>
-      </c>
       <c r="AG172" t="s">
         <v>1</v>
       </c>
+      <c r="AH172" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19441,29 +19449,29 @@
       <c r="Z173" t="s">
         <v>17</v>
       </c>
-      <c r="AA173">
+      <c r="AB173">
         <v>1750</v>
-      </c>
-      <c r="AB173">
-        <v>12</v>
       </c>
       <c r="AC173">
         <v>12</v>
       </c>
       <c r="AD173">
+        <v>12</v>
+      </c>
+      <c r="AE173">
         <v>35000</v>
       </c>
-      <c r="AE173">
+      <c r="AF173">
         <v>2400</v>
       </c>
-      <c r="AF173" t="s">
+      <c r="AG173" t="s">
         <v>21</v>
       </c>
-      <c r="AG173" t="s">
+      <c r="AH173" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19542,29 +19550,29 @@
       <c r="Z174" t="s">
         <v>17</v>
       </c>
-      <c r="AA174">
+      <c r="AB174">
         <v>13000</v>
-      </c>
-      <c r="AB174">
-        <v>75</v>
       </c>
       <c r="AC174">
         <v>75</v>
       </c>
       <c r="AD174">
+        <v>75</v>
+      </c>
+      <c r="AE174">
         <v>30000</v>
       </c>
-      <c r="AE174">
+      <c r="AF174">
         <v>2400</v>
       </c>
-      <c r="AF174" t="s">
+      <c r="AG174" t="s">
         <v>21</v>
       </c>
-      <c r="AG174" t="s">
+      <c r="AH174" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19643,29 +19651,29 @@
       <c r="Z175" t="s">
         <v>17</v>
       </c>
-      <c r="AA175">
+      <c r="AB175">
         <v>9500</v>
-      </c>
-      <c r="AB175">
-        <v>55</v>
       </c>
       <c r="AC175">
         <v>55</v>
       </c>
       <c r="AD175">
+        <v>55</v>
+      </c>
+      <c r="AE175">
         <v>55000</v>
       </c>
-      <c r="AE175">
+      <c r="AF175">
         <v>3000</v>
       </c>
-      <c r="AF175" t="s">
-        <v>1</v>
-      </c>
       <c r="AG175" t="s">
         <v>1</v>
       </c>
+      <c r="AH175" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19744,29 +19752,29 @@
       <c r="Z176" t="s">
         <v>17</v>
       </c>
-      <c r="AA176">
+      <c r="AB176">
         <v>4000</v>
-      </c>
-      <c r="AB176">
-        <v>30</v>
       </c>
       <c r="AC176">
         <v>30</v>
       </c>
       <c r="AD176">
+        <v>30</v>
+      </c>
+      <c r="AE176">
         <v>33000</v>
       </c>
-      <c r="AE176">
+      <c r="AF176">
         <v>2800</v>
       </c>
-      <c r="AF176" t="s">
+      <c r="AG176" t="s">
         <v>21</v>
       </c>
-      <c r="AG176" t="s">
+      <c r="AH176" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19845,29 +19853,29 @@
       <c r="Z177" t="s">
         <v>17</v>
       </c>
-      <c r="AA177">
+      <c r="AB177">
         <v>7500</v>
-      </c>
-      <c r="AB177">
-        <v>50</v>
       </c>
       <c r="AC177">
         <v>50</v>
       </c>
       <c r="AD177">
+        <v>50</v>
+      </c>
+      <c r="AE177">
         <v>30000</v>
       </c>
-      <c r="AE177">
+      <c r="AF177">
         <v>4500</v>
       </c>
-      <c r="AF177" t="s">
-        <v>1</v>
-      </c>
       <c r="AG177" t="s">
         <v>1</v>
       </c>
+      <c r="AH177" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19946,29 +19954,29 @@
       <c r="Z178" t="s">
         <v>17</v>
       </c>
-      <c r="AA178">
+      <c r="AB178">
         <v>5000</v>
-      </c>
-      <c r="AB178">
-        <v>33</v>
       </c>
       <c r="AC178">
         <v>33</v>
       </c>
       <c r="AD178">
+        <v>33</v>
+      </c>
+      <c r="AE178">
         <v>5000</v>
       </c>
-      <c r="AE178">
+      <c r="AF178">
         <v>2000</v>
       </c>
-      <c r="AF178" t="s">
+      <c r="AG178" t="s">
         <v>21</v>
       </c>
-      <c r="AG178" t="s">
+      <c r="AH178" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -20047,29 +20055,29 @@
       <c r="Z179" t="s">
         <v>17</v>
       </c>
-      <c r="AA179">
+      <c r="AB179">
         <v>6000</v>
-      </c>
-      <c r="AB179">
-        <v>40</v>
       </c>
       <c r="AC179">
         <v>40</v>
       </c>
       <c r="AD179">
+        <v>40</v>
+      </c>
+      <c r="AE179">
         <v>35000</v>
       </c>
-      <c r="AE179">
+      <c r="AF179">
         <v>5000</v>
       </c>
-      <c r="AF179" t="s">
-        <v>1</v>
-      </c>
       <c r="AG179" t="s">
         <v>1</v>
       </c>
+      <c r="AH179" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
@@ -20148,29 +20156,29 @@
       <c r="Z180" t="s">
         <v>17</v>
       </c>
-      <c r="AA180">
+      <c r="AB180">
         <v>15500</v>
-      </c>
-      <c r="AB180">
-        <v>58</v>
       </c>
       <c r="AC180">
         <v>58</v>
       </c>
       <c r="AD180">
+        <v>58</v>
+      </c>
+      <c r="AE180">
         <v>30000</v>
       </c>
-      <c r="AE180">
+      <c r="AF180">
         <v>2600</v>
       </c>
-      <c r="AF180" t="s">
-        <v>1</v>
-      </c>
       <c r="AG180" t="s">
         <v>1</v>
       </c>
+      <c r="AH180" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
@@ -20249,29 +20257,29 @@
       <c r="Z181" t="s">
         <v>17</v>
       </c>
-      <c r="AA181">
+      <c r="AB181">
         <v>4000</v>
-      </c>
-      <c r="AB181">
-        <v>30</v>
       </c>
       <c r="AC181">
         <v>30</v>
       </c>
       <c r="AD181">
+        <v>30</v>
+      </c>
+      <c r="AE181">
         <v>33000</v>
       </c>
-      <c r="AE181">
+      <c r="AF181">
         <v>3000</v>
       </c>
-      <c r="AF181" t="s">
+      <c r="AG181" t="s">
         <v>21</v>
       </c>
-      <c r="AG181" t="s">
+      <c r="AH181" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -20350,29 +20358,29 @@
       <c r="Z182" t="s">
         <v>17</v>
       </c>
-      <c r="AA182">
+      <c r="AB182">
         <v>3250</v>
-      </c>
-      <c r="AB182">
-        <v>23</v>
       </c>
       <c r="AC182">
         <v>23</v>
       </c>
       <c r="AD182">
+        <v>23</v>
+      </c>
+      <c r="AE182">
         <v>15000</v>
       </c>
-      <c r="AE182">
+      <c r="AF182">
         <v>1400</v>
       </c>
-      <c r="AF182" t="s">
+      <c r="AG182" t="s">
         <v>21</v>
       </c>
-      <c r="AG182" t="s">
+      <c r="AH182" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -20451,29 +20459,29 @@
       <c r="Z183" t="s">
         <v>17</v>
       </c>
-      <c r="AA183">
+      <c r="AB183">
         <v>7500</v>
-      </c>
-      <c r="AB183">
-        <v>45</v>
       </c>
       <c r="AC183">
         <v>45</v>
       </c>
       <c r="AD183">
+        <v>45</v>
+      </c>
+      <c r="AE183">
         <v>21000</v>
       </c>
-      <c r="AE183">
+      <c r="AF183">
         <v>2400</v>
       </c>
-      <c r="AF183" t="s">
+      <c r="AG183" t="s">
         <v>21</v>
       </c>
-      <c r="AG183" t="s">
+      <c r="AH183" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -20552,29 +20560,29 @@
       <c r="Z184" t="s">
         <v>1</v>
       </c>
-      <c r="AA184">
+      <c r="AB184">
         <v>7000</v>
-      </c>
-      <c r="AB184">
-        <v>43</v>
       </c>
       <c r="AC184">
         <v>43</v>
       </c>
       <c r="AD184">
+        <v>43</v>
+      </c>
+      <c r="AE184">
         <v>25000</v>
       </c>
-      <c r="AE184">
+      <c r="AF184">
         <v>5500</v>
       </c>
-      <c r="AF184" t="s">
+      <c r="AG184" t="s">
         <v>21</v>
       </c>
-      <c r="AG184" t="s">
+      <c r="AH184" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -20653,29 +20661,29 @@
       <c r="Z185" t="s">
         <v>17</v>
       </c>
-      <c r="AA185">
+      <c r="AB185">
         <v>9500</v>
-      </c>
-      <c r="AB185">
-        <v>60</v>
       </c>
       <c r="AC185">
         <v>60</v>
       </c>
       <c r="AD185">
+        <v>60</v>
+      </c>
+      <c r="AE185">
         <v>50000</v>
       </c>
-      <c r="AE185">
+      <c r="AF185">
         <v>1500</v>
       </c>
-      <c r="AF185" t="s">
+      <c r="AG185" t="s">
         <v>21</v>
       </c>
-      <c r="AG185" t="s">
+      <c r="AH185" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -20754,29 +20762,29 @@
       <c r="Z186" t="s">
         <v>17</v>
       </c>
-      <c r="AA186">
+      <c r="AB186">
         <v>4250</v>
-      </c>
-      <c r="AB186">
-        <v>35</v>
       </c>
       <c r="AC186">
         <v>35</v>
       </c>
       <c r="AD186">
+        <v>35</v>
+      </c>
+      <c r="AE186">
         <v>23000</v>
       </c>
-      <c r="AE186">
+      <c r="AF186">
         <v>800</v>
       </c>
-      <c r="AF186" t="s">
+      <c r="AG186" t="s">
         <v>21</v>
       </c>
-      <c r="AG186" t="s">
+      <c r="AH186" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -20855,29 +20863,29 @@
       <c r="Z187" t="s">
         <v>1</v>
       </c>
-      <c r="AA187">
+      <c r="AB187">
         <v>10000</v>
-      </c>
-      <c r="AB187">
-        <v>60</v>
       </c>
       <c r="AC187">
         <v>60</v>
       </c>
       <c r="AD187">
+        <v>60</v>
+      </c>
+      <c r="AE187">
         <v>18000</v>
       </c>
-      <c r="AE187">
+      <c r="AF187">
         <v>13500</v>
       </c>
-      <c r="AF187" t="s">
+      <c r="AG187" t="s">
         <v>21</v>
       </c>
-      <c r="AG187" t="s">
+      <c r="AH187" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
@@ -20956,29 +20964,29 @@
       <c r="Z188" t="s">
         <v>17</v>
       </c>
-      <c r="AA188">
+      <c r="AB188">
         <v>3000</v>
-      </c>
-      <c r="AB188">
-        <v>20</v>
       </c>
       <c r="AC188">
         <v>20</v>
       </c>
       <c r="AD188">
+        <v>20</v>
+      </c>
+      <c r="AE188">
         <v>20000</v>
       </c>
-      <c r="AE188">
+      <c r="AF188">
         <v>1500</v>
       </c>
-      <c r="AF188" t="s">
+      <c r="AG188" t="s">
         <v>21</v>
       </c>
-      <c r="AG188" t="s">
+      <c r="AH188" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
@@ -21057,29 +21065,29 @@
       <c r="Z189" t="s">
         <v>17</v>
       </c>
-      <c r="AA189">
+      <c r="AB189">
         <v>9500</v>
-      </c>
-      <c r="AB189">
-        <v>70</v>
       </c>
       <c r="AC189">
         <v>70</v>
       </c>
       <c r="AD189">
+        <v>70</v>
+      </c>
+      <c r="AE189">
         <v>14500</v>
       </c>
-      <c r="AE189">
+      <c r="AF189">
         <v>2500</v>
       </c>
-      <c r="AF189" t="s">
-        <v>1</v>
-      </c>
       <c r="AG189" t="s">
         <v>1</v>
       </c>
+      <c r="AH189" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -21158,29 +21166,29 @@
       <c r="Z190" t="s">
         <v>1</v>
       </c>
-      <c r="AA190">
+      <c r="AB190">
         <v>8000</v>
-      </c>
-      <c r="AB190">
-        <v>50</v>
       </c>
       <c r="AC190">
         <v>50</v>
       </c>
       <c r="AD190">
+        <v>50</v>
+      </c>
+      <c r="AE190">
         <v>14500</v>
       </c>
-      <c r="AE190">
+      <c r="AF190">
         <v>6750</v>
       </c>
-      <c r="AF190" t="s">
+      <c r="AG190" t="s">
         <v>21</v>
       </c>
-      <c r="AG190" t="s">
+      <c r="AH190" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -21259,29 +21267,29 @@
       <c r="Z191" t="s">
         <v>17</v>
       </c>
-      <c r="AA191">
+      <c r="AB191">
         <v>9500</v>
-      </c>
-      <c r="AB191">
-        <v>70</v>
       </c>
       <c r="AC191">
         <v>70</v>
       </c>
       <c r="AD191">
+        <v>70</v>
+      </c>
+      <c r="AE191">
         <v>14500</v>
       </c>
-      <c r="AE191">
+      <c r="AF191">
         <v>2300</v>
       </c>
-      <c r="AF191" t="s">
-        <v>1</v>
-      </c>
       <c r="AG191" t="s">
         <v>1</v>
       </c>
+      <c r="AH191" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -21360,29 +21368,29 @@
       <c r="Z192" t="s">
         <v>17</v>
       </c>
-      <c r="AA192">
+      <c r="AB192">
         <v>2500</v>
-      </c>
-      <c r="AB192">
-        <v>22</v>
       </c>
       <c r="AC192">
         <v>22</v>
       </c>
       <c r="AD192">
+        <v>22</v>
+      </c>
+      <c r="AE192">
         <v>6000</v>
       </c>
-      <c r="AE192">
+      <c r="AF192">
         <v>600</v>
       </c>
-      <c r="AF192" t="s">
+      <c r="AG192" t="s">
         <v>21</v>
       </c>
-      <c r="AG192" t="s">
+      <c r="AH192" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -21461,29 +21469,29 @@
       <c r="Z193" t="s">
         <v>1</v>
       </c>
-      <c r="AA193">
+      <c r="AB193">
         <v>8000</v>
-      </c>
-      <c r="AB193">
-        <v>26</v>
       </c>
       <c r="AC193">
         <v>26</v>
       </c>
       <c r="AD193">
+        <v>26</v>
+      </c>
+      <c r="AE193">
         <v>15600</v>
       </c>
-      <c r="AE193">
+      <c r="AF193">
         <v>4000</v>
       </c>
-      <c r="AF193" t="s">
+      <c r="AG193" t="s">
         <v>21</v>
       </c>
-      <c r="AG193" t="s">
+      <c r="AH193" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
@@ -21562,29 +21570,29 @@
       <c r="Z194" t="s">
         <v>17</v>
       </c>
-      <c r="AA194">
+      <c r="AB194">
         <v>6500</v>
-      </c>
-      <c r="AB194">
-        <v>38</v>
       </c>
       <c r="AC194">
         <v>38</v>
       </c>
       <c r="AD194">
+        <v>38</v>
+      </c>
+      <c r="AE194">
         <v>8000</v>
       </c>
-      <c r="AE194">
+      <c r="AF194">
         <v>2000</v>
       </c>
-      <c r="AF194" t="s">
-        <v>1</v>
-      </c>
       <c r="AG194" t="s">
         <v>1</v>
       </c>
+      <c r="AH194" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -21663,29 +21671,29 @@
       <c r="Z195" t="s">
         <v>17</v>
       </c>
-      <c r="AA195">
+      <c r="AB195">
         <v>10500</v>
-      </c>
-      <c r="AB195">
-        <v>66</v>
       </c>
       <c r="AC195">
         <v>66</v>
       </c>
       <c r="AD195">
+        <v>66</v>
+      </c>
+      <c r="AE195">
         <v>13000</v>
       </c>
-      <c r="AE195">
+      <c r="AF195">
         <v>1800</v>
       </c>
-      <c r="AF195" t="s">
-        <v>1</v>
-      </c>
       <c r="AG195" t="s">
         <v>1</v>
       </c>
+      <c r="AH195" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -21764,29 +21772,29 @@
       <c r="Z196" t="s">
         <v>17</v>
       </c>
-      <c r="AA196">
+      <c r="AB196">
         <v>6000</v>
-      </c>
-      <c r="AB196">
-        <v>25</v>
       </c>
       <c r="AC196">
         <v>25</v>
       </c>
       <c r="AD196">
+        <v>25</v>
+      </c>
+      <c r="AE196">
         <v>10000</v>
       </c>
-      <c r="AE196">
+      <c r="AF196">
         <v>3200</v>
       </c>
-      <c r="AF196" t="s">
-        <v>1</v>
-      </c>
       <c r="AG196" t="s">
         <v>1</v>
       </c>
+      <c r="AH196" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -21865,29 +21873,29 @@
       <c r="Z197" t="s">
         <v>1</v>
       </c>
-      <c r="AA197">
+      <c r="AB197">
         <v>10500</v>
-      </c>
-      <c r="AB197">
-        <v>62</v>
       </c>
       <c r="AC197">
         <v>62</v>
       </c>
       <c r="AD197">
+        <v>62</v>
+      </c>
+      <c r="AE197">
         <v>25000</v>
       </c>
-      <c r="AE197">
+      <c r="AF197">
         <v>7000</v>
       </c>
-      <c r="AF197" t="s">
+      <c r="AG197" t="s">
         <v>21</v>
       </c>
-      <c r="AG197" t="s">
+      <c r="AH197" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -21966,29 +21974,29 @@
       <c r="Z198" t="s">
         <v>17</v>
       </c>
-      <c r="AA198">
+      <c r="AB198">
         <v>8000</v>
-      </c>
-      <c r="AB198">
-        <v>60</v>
       </c>
       <c r="AC198">
         <v>60</v>
       </c>
       <c r="AD198">
+        <v>60</v>
+      </c>
+      <c r="AE198">
         <v>17000</v>
       </c>
-      <c r="AE198">
+      <c r="AF198">
         <v>2200</v>
       </c>
-      <c r="AF198" t="s">
+      <c r="AG198" t="s">
         <v>21</v>
       </c>
-      <c r="AG198" t="s">
+      <c r="AH198" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
@@ -22067,29 +22075,29 @@
       <c r="Z199" t="s">
         <v>17</v>
       </c>
-      <c r="AA199">
+      <c r="AB199">
         <v>7500</v>
-      </c>
-      <c r="AB199">
-        <v>40</v>
       </c>
       <c r="AC199">
         <v>40</v>
       </c>
       <c r="AD199">
+        <v>40</v>
+      </c>
+      <c r="AE199">
         <v>12000</v>
       </c>
-      <c r="AE199">
+      <c r="AF199">
         <v>500</v>
       </c>
-      <c r="AF199" t="s">
+      <c r="AG199" t="s">
         <v>21</v>
       </c>
-      <c r="AG199" t="s">
+      <c r="AH199" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -22168,29 +22176,29 @@
       <c r="Z200" t="s">
         <v>17</v>
       </c>
-      <c r="AA200">
+      <c r="AB200">
         <v>7000</v>
-      </c>
-      <c r="AB200">
-        <v>42</v>
       </c>
       <c r="AC200">
         <v>42</v>
       </c>
       <c r="AD200">
+        <v>42</v>
+      </c>
+      <c r="AE200">
         <v>42000</v>
       </c>
-      <c r="AE200">
+      <c r="AF200">
         <v>2200</v>
       </c>
-      <c r="AF200" t="s">
+      <c r="AG200" t="s">
         <v>21</v>
       </c>
-      <c r="AG200" t="s">
+      <c r="AH200" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
@@ -22269,29 +22277,29 @@
       <c r="Z201" t="s">
         <v>17</v>
       </c>
-      <c r="AA201">
+      <c r="AB201">
         <v>7000</v>
-      </c>
-      <c r="AB201">
-        <v>42</v>
       </c>
       <c r="AC201">
         <v>42</v>
       </c>
       <c r="AD201">
+        <v>42</v>
+      </c>
+      <c r="AE201">
         <v>42000</v>
       </c>
-      <c r="AE201">
+      <c r="AF201">
         <v>2100</v>
       </c>
-      <c r="AF201" t="s">
+      <c r="AG201" t="s">
         <v>21</v>
       </c>
-      <c r="AG201" t="s">
+      <c r="AH201" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -22370,29 +22378,29 @@
       <c r="Z202" t="s">
         <v>17</v>
       </c>
-      <c r="AA202">
+      <c r="AB202">
         <v>7000</v>
-      </c>
-      <c r="AB202">
-        <v>42</v>
       </c>
       <c r="AC202">
         <v>42</v>
       </c>
       <c r="AD202">
+        <v>42</v>
+      </c>
+      <c r="AE202">
         <v>42000</v>
       </c>
-      <c r="AE202">
+      <c r="AF202">
         <v>2200</v>
       </c>
-      <c r="AF202" t="s">
-        <v>1</v>
-      </c>
       <c r="AG202" t="s">
         <v>1</v>
       </c>
+      <c r="AH202" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -22471,29 +22479,29 @@
       <c r="Z203" t="s">
         <v>17</v>
       </c>
-      <c r="AA203">
+      <c r="AB203">
         <v>20000</v>
-      </c>
-      <c r="AB203">
-        <v>63</v>
       </c>
       <c r="AC203">
         <v>63</v>
       </c>
       <c r="AD203">
+        <v>63</v>
+      </c>
+      <c r="AE203">
         <v>5000</v>
       </c>
-      <c r="AE203">
+      <c r="AF203">
         <v>2500</v>
       </c>
-      <c r="AF203" t="s">
+      <c r="AG203" t="s">
         <v>21</v>
       </c>
-      <c r="AG203" t="s">
+      <c r="AH203" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -22572,29 +22580,29 @@
       <c r="Z204" t="s">
         <v>1</v>
       </c>
-      <c r="AA204">
+      <c r="AB204">
         <v>10000</v>
-      </c>
-      <c r="AB204">
-        <v>52</v>
       </c>
       <c r="AC204">
         <v>52</v>
       </c>
       <c r="AD204">
+        <v>52</v>
+      </c>
+      <c r="AE204">
         <v>35000</v>
       </c>
-      <c r="AE204">
+      <c r="AF204">
         <v>5500</v>
       </c>
-      <c r="AF204" t="s">
-        <v>1</v>
-      </c>
       <c r="AG204" t="s">
         <v>1</v>
       </c>
+      <c r="AH204" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -22673,29 +22681,29 @@
       <c r="Z205" t="s">
         <v>17</v>
       </c>
-      <c r="AA205">
+      <c r="AB205">
         <v>4000</v>
-      </c>
-      <c r="AB205">
-        <v>30</v>
       </c>
       <c r="AC205">
         <v>30</v>
       </c>
       <c r="AD205">
+        <v>30</v>
+      </c>
+      <c r="AE205">
         <v>12000</v>
       </c>
-      <c r="AE205">
+      <c r="AF205">
         <v>3800</v>
       </c>
-      <c r="AF205" t="s">
+      <c r="AG205" t="s">
         <v>21</v>
       </c>
-      <c r="AG205" t="s">
+      <c r="AH205" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -22774,29 +22782,29 @@
       <c r="Z206" t="s">
         <v>1</v>
       </c>
-      <c r="AA206">
+      <c r="AB206">
         <v>10250</v>
-      </c>
-      <c r="AB206">
-        <v>48</v>
       </c>
       <c r="AC206">
         <v>48</v>
       </c>
       <c r="AD206">
+        <v>48</v>
+      </c>
+      <c r="AE206">
         <v>40000</v>
       </c>
-      <c r="AE206">
+      <c r="AF206">
         <v>7350</v>
       </c>
-      <c r="AF206" t="s">
-        <v>1</v>
-      </c>
       <c r="AG206" t="s">
         <v>1</v>
       </c>
+      <c r="AH206" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -22875,29 +22883,29 @@
       <c r="Z207" t="s">
         <v>17</v>
       </c>
-      <c r="AA207">
+      <c r="AB207">
         <v>3000</v>
-      </c>
-      <c r="AB207">
-        <v>30</v>
       </c>
       <c r="AC207">
         <v>30</v>
       </c>
       <c r="AD207">
+        <v>30</v>
+      </c>
+      <c r="AE207">
         <v>21000</v>
       </c>
-      <c r="AE207">
+      <c r="AF207">
         <v>3000</v>
       </c>
-      <c r="AF207" t="s">
-        <v>1</v>
-      </c>
       <c r="AG207" t="s">
         <v>1</v>
       </c>
+      <c r="AH207" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
@@ -22976,29 +22984,29 @@
       <c r="Z208" t="s">
         <v>17</v>
       </c>
-      <c r="AA208">
+      <c r="AB208">
         <v>8000</v>
-      </c>
-      <c r="AB208">
-        <v>45</v>
       </c>
       <c r="AC208">
         <v>45</v>
       </c>
       <c r="AD208">
+        <v>45</v>
+      </c>
+      <c r="AE208">
         <v>16000</v>
       </c>
-      <c r="AE208">
+      <c r="AF208">
         <v>3000</v>
       </c>
-      <c r="AF208" t="s">
-        <v>1</v>
-      </c>
       <c r="AG208" t="s">
         <v>1</v>
       </c>
+      <c r="AH208" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -23077,29 +23085,29 @@
       <c r="Z209" t="s">
         <v>17</v>
       </c>
-      <c r="AA209">
+      <c r="AB209">
         <v>4500</v>
-      </c>
-      <c r="AB209">
-        <v>40</v>
       </c>
       <c r="AC209">
         <v>40</v>
       </c>
       <c r="AD209">
+        <v>40</v>
+      </c>
+      <c r="AE209">
         <v>12000</v>
       </c>
-      <c r="AE209">
+      <c r="AF209">
         <v>2000</v>
       </c>
-      <c r="AF209" t="s">
-        <v>1</v>
-      </c>
       <c r="AG209" t="s">
         <v>1</v>
       </c>
+      <c r="AH209" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -23178,29 +23186,29 @@
       <c r="Z210" t="s">
         <v>17</v>
       </c>
-      <c r="AA210">
+      <c r="AB210">
         <v>7000</v>
-      </c>
-      <c r="AB210">
-        <v>38</v>
       </c>
       <c r="AC210">
         <v>38</v>
       </c>
       <c r="AD210">
+        <v>38</v>
+      </c>
+      <c r="AE210">
         <v>20000</v>
       </c>
-      <c r="AE210">
+      <c r="AF210">
         <v>1800</v>
       </c>
-      <c r="AF210" t="s">
+      <c r="AG210" t="s">
         <v>21</v>
       </c>
-      <c r="AG210" t="s">
+      <c r="AH210" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -23279,29 +23287,29 @@
       <c r="Z211" t="s">
         <v>1</v>
       </c>
-      <c r="AA211">
+      <c r="AB211">
         <v>7000</v>
-      </c>
-      <c r="AB211">
-        <v>51</v>
       </c>
       <c r="AC211">
         <v>51</v>
       </c>
       <c r="AD211">
+        <v>51</v>
+      </c>
+      <c r="AE211">
         <v>20000</v>
       </c>
-      <c r="AE211">
+      <c r="AF211">
         <v>6200</v>
       </c>
-      <c r="AF211" t="s">
+      <c r="AG211" t="s">
         <v>21</v>
       </c>
-      <c r="AG211" t="s">
+      <c r="AH211" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -23380,29 +23388,29 @@
       <c r="Z212" t="s">
         <v>1</v>
       </c>
-      <c r="AA212">
+      <c r="AB212">
         <v>7500</v>
-      </c>
-      <c r="AB212">
-        <v>60</v>
       </c>
       <c r="AC212">
         <v>60</v>
       </c>
       <c r="AD212">
+        <v>60</v>
+      </c>
+      <c r="AE212">
         <v>19000</v>
       </c>
-      <c r="AE212">
+      <c r="AF212">
         <v>4000</v>
       </c>
-      <c r="AF212" t="s">
+      <c r="AG212" t="s">
         <v>21</v>
       </c>
-      <c r="AG212" t="s">
+      <c r="AH212" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
@@ -23481,29 +23489,29 @@
       <c r="Z213" t="s">
         <v>17</v>
       </c>
-      <c r="AA213">
+      <c r="AB213">
         <v>6800</v>
-      </c>
-      <c r="AB213">
-        <v>39</v>
       </c>
       <c r="AC213">
         <v>39</v>
       </c>
       <c r="AD213">
+        <v>39</v>
+      </c>
+      <c r="AE213">
         <v>40000</v>
       </c>
-      <c r="AE213">
+      <c r="AF213">
         <v>5900</v>
       </c>
-      <c r="AF213" t="s">
-        <v>1</v>
-      </c>
       <c r="AG213" t="s">
         <v>1</v>
       </c>
+      <c r="AH213" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -23582,29 +23590,29 @@
       <c r="Z214" t="s">
         <v>1</v>
       </c>
-      <c r="AA214">
+      <c r="AB214">
         <v>4500</v>
-      </c>
-      <c r="AB214">
-        <v>35</v>
       </c>
       <c r="AC214">
         <v>35</v>
       </c>
       <c r="AD214">
+        <v>35</v>
+      </c>
+      <c r="AE214">
         <v>16000</v>
       </c>
-      <c r="AE214">
+      <c r="AF214">
         <v>5100</v>
       </c>
-      <c r="AF214" t="s">
+      <c r="AG214" t="s">
         <v>21</v>
       </c>
-      <c r="AG214" t="s">
+      <c r="AH214" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -23683,29 +23691,29 @@
       <c r="Z215" t="s">
         <v>17</v>
       </c>
-      <c r="AA215">
+      <c r="AB215">
         <v>4500</v>
-      </c>
-      <c r="AB215">
-        <v>35</v>
       </c>
       <c r="AC215">
         <v>35</v>
       </c>
       <c r="AD215">
+        <v>35</v>
+      </c>
+      <c r="AE215">
         <v>16000</v>
       </c>
-      <c r="AE215">
+      <c r="AF215">
         <v>3000</v>
       </c>
-      <c r="AF215" t="s">
+      <c r="AG215" t="s">
         <v>21</v>
       </c>
-      <c r="AG215" t="s">
+      <c r="AH215" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -23784,29 +23792,29 @@
       <c r="Z216" t="s">
         <v>17</v>
       </c>
-      <c r="AA216">
+      <c r="AB216">
         <v>10000</v>
-      </c>
-      <c r="AB216">
-        <v>38</v>
       </c>
       <c r="AC216">
         <v>38</v>
       </c>
       <c r="AD216">
+        <v>38</v>
+      </c>
+      <c r="AE216">
         <v>45000</v>
       </c>
-      <c r="AE216">
+      <c r="AF216">
         <v>1000</v>
       </c>
-      <c r="AF216" t="s">
-        <v>1</v>
-      </c>
       <c r="AG216" t="s">
         <v>1</v>
       </c>
+      <c r="AH216" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -23885,29 +23893,29 @@
       <c r="Z217" t="s">
         <v>17</v>
       </c>
-      <c r="AA217">
+      <c r="AB217">
         <v>2000</v>
-      </c>
-      <c r="AB217">
-        <v>20</v>
       </c>
       <c r="AC217">
         <v>20</v>
       </c>
       <c r="AD217">
+        <v>20</v>
+      </c>
+      <c r="AE217">
         <v>15000</v>
       </c>
-      <c r="AE217">
+      <c r="AF217">
         <v>625</v>
       </c>
-      <c r="AF217" t="s">
+      <c r="AG217" t="s">
         <v>21</v>
       </c>
-      <c r="AG217" t="s">
+      <c r="AH217" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -23986,29 +23994,29 @@
       <c r="Z218" t="s">
         <v>17</v>
       </c>
-      <c r="AA218">
+      <c r="AB218">
         <v>4000</v>
-      </c>
-      <c r="AB218">
-        <v>33</v>
       </c>
       <c r="AC218">
         <v>33</v>
       </c>
       <c r="AD218">
+        <v>33</v>
+      </c>
+      <c r="AE218">
         <v>26000</v>
       </c>
-      <c r="AE218">
+      <c r="AF218">
         <v>3200</v>
       </c>
-      <c r="AF218" t="s">
+      <c r="AG218" t="s">
         <v>21</v>
       </c>
-      <c r="AG218" t="s">
+      <c r="AH218" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
@@ -24087,29 +24095,29 @@
       <c r="Z219" t="s">
         <v>1</v>
       </c>
-      <c r="AA219">
+      <c r="AB219">
         <v>9500</v>
-      </c>
-      <c r="AB219">
-        <v>40</v>
       </c>
       <c r="AC219">
         <v>40</v>
       </c>
       <c r="AD219">
+        <v>40</v>
+      </c>
+      <c r="AE219">
         <v>35000</v>
       </c>
-      <c r="AE219">
+      <c r="AF219">
         <v>7000</v>
       </c>
-      <c r="AF219" t="s">
-        <v>1</v>
-      </c>
       <c r="AG219" t="s">
         <v>1</v>
       </c>
+      <c r="AH219" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -24188,29 +24196,29 @@
       <c r="Z220" t="s">
         <v>17</v>
       </c>
-      <c r="AA220">
+      <c r="AB220">
         <v>9500</v>
-      </c>
-      <c r="AB220">
-        <v>41</v>
       </c>
       <c r="AC220">
         <v>41</v>
       </c>
       <c r="AD220">
+        <v>41</v>
+      </c>
+      <c r="AE220">
         <v>35000</v>
       </c>
-      <c r="AE220">
+      <c r="AF220">
         <v>5200</v>
       </c>
-      <c r="AF220" t="s">
+      <c r="AG220" t="s">
         <v>21</v>
       </c>
-      <c r="AG220" t="s">
+      <c r="AH220" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -24289,29 +24297,29 @@
       <c r="Z221" t="s">
         <v>17</v>
       </c>
-      <c r="AA221">
+      <c r="AB221">
         <v>9000</v>
-      </c>
-      <c r="AB221">
-        <v>60</v>
       </c>
       <c r="AC221">
         <v>60</v>
       </c>
       <c r="AD221">
+        <v>60</v>
+      </c>
+      <c r="AE221">
         <v>20000</v>
       </c>
-      <c r="AE221">
+      <c r="AF221">
         <v>500</v>
       </c>
-      <c r="AF221" t="s">
-        <v>1</v>
-      </c>
       <c r="AG221" t="s">
         <v>1</v>
       </c>
+      <c r="AH221" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -24390,29 +24398,29 @@
       <c r="Z222" t="s">
         <v>17</v>
       </c>
-      <c r="AA222">
+      <c r="AB222">
         <v>5000</v>
-      </c>
-      <c r="AB222">
-        <v>42</v>
       </c>
       <c r="AC222">
         <v>42</v>
       </c>
       <c r="AD222">
+        <v>42</v>
+      </c>
+      <c r="AE222">
         <v>28000</v>
       </c>
-      <c r="AE222">
+      <c r="AF222">
         <v>3500</v>
       </c>
-      <c r="AF222" t="s">
+      <c r="AG222" t="s">
         <v>21</v>
       </c>
-      <c r="AG222" t="s">
+      <c r="AH222" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -24491,29 +24499,29 @@
       <c r="Z223" t="s">
         <v>17</v>
       </c>
-      <c r="AA223">
+      <c r="AB223">
         <v>3000</v>
-      </c>
-      <c r="AB223">
-        <v>21</v>
       </c>
       <c r="AC223">
         <v>21</v>
       </c>
       <c r="AD223">
+        <v>21</v>
+      </c>
+      <c r="AE223">
         <v>5000</v>
       </c>
-      <c r="AE223">
+      <c r="AF223">
         <v>2000</v>
       </c>
-      <c r="AF223" t="s">
-        <v>1</v>
-      </c>
       <c r="AG223" t="s">
         <v>1</v>
       </c>
+      <c r="AH223" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
@@ -24592,29 +24600,29 @@
       <c r="Z224" t="s">
         <v>17</v>
       </c>
-      <c r="AA224">
+      <c r="AB224">
         <v>4000</v>
-      </c>
-      <c r="AB224">
-        <v>25</v>
       </c>
       <c r="AC224">
         <v>25</v>
       </c>
       <c r="AD224">
+        <v>25</v>
+      </c>
+      <c r="AE224">
         <v>35000</v>
       </c>
-      <c r="AE224">
+      <c r="AF224">
         <v>1500</v>
       </c>
-      <c r="AF224" t="s">
+      <c r="AG224" t="s">
         <v>21</v>
       </c>
-      <c r="AG224" t="s">
+      <c r="AH224" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -24693,29 +24701,29 @@
       <c r="Z225" t="s">
         <v>17</v>
       </c>
-      <c r="AA225">
+      <c r="AB225">
         <v>9000</v>
-      </c>
-      <c r="AB225">
-        <v>50</v>
       </c>
       <c r="AC225">
         <v>50</v>
       </c>
       <c r="AD225">
+        <v>50</v>
+      </c>
+      <c r="AE225">
         <v>40000</v>
       </c>
-      <c r="AE225">
+      <c r="AF225">
         <v>6500</v>
       </c>
-      <c r="AF225" t="s">
+      <c r="AG225" t="s">
         <v>21</v>
       </c>
-      <c r="AG225" t="s">
+      <c r="AH225" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -24794,29 +24802,29 @@
       <c r="Z226" t="s">
         <v>17</v>
       </c>
-      <c r="AA226">
+      <c r="AB226">
         <v>8750</v>
-      </c>
-      <c r="AB226">
-        <v>52</v>
       </c>
       <c r="AC226">
         <v>52</v>
       </c>
       <c r="AD226">
+        <v>52</v>
+      </c>
+      <c r="AE226">
         <v>14000</v>
       </c>
-      <c r="AE226">
+      <c r="AF226">
         <v>1500</v>
       </c>
-      <c r="AF226" t="s">
+      <c r="AG226" t="s">
         <v>21</v>
       </c>
-      <c r="AG226" t="s">
+      <c r="AH226" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -24895,29 +24903,29 @@
       <c r="Z227" t="s">
         <v>1</v>
       </c>
-      <c r="AA227">
+      <c r="AB227">
         <v>1800</v>
-      </c>
-      <c r="AB227">
-        <v>10</v>
       </c>
       <c r="AC227">
         <v>10</v>
       </c>
       <c r="AD227">
+        <v>10</v>
+      </c>
+      <c r="AE227">
         <v>9000</v>
       </c>
-      <c r="AE227">
+      <c r="AF227">
         <v>13000</v>
       </c>
-      <c r="AF227" t="s">
+      <c r="AG227" t="s">
         <v>21</v>
       </c>
-      <c r="AG227" t="s">
+      <c r="AH227" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -24996,29 +25004,29 @@
       <c r="Z228" t="s">
         <v>1</v>
       </c>
-      <c r="AA228">
+      <c r="AB228">
         <v>10000</v>
-      </c>
-      <c r="AB228">
-        <v>40</v>
       </c>
       <c r="AC228">
         <v>40</v>
       </c>
       <c r="AD228">
+        <v>40</v>
+      </c>
+      <c r="AE228">
         <v>16000</v>
       </c>
-      <c r="AE228">
+      <c r="AF228">
         <v>7000</v>
       </c>
-      <c r="AF228" t="s">
-        <v>1</v>
-      </c>
       <c r="AG228" t="s">
         <v>1</v>
       </c>
+      <c r="AH228" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -25097,29 +25105,29 @@
       <c r="Z229" t="s">
         <v>17</v>
       </c>
-      <c r="AA229">
+      <c r="AB229">
         <v>7000</v>
-      </c>
-      <c r="AB229">
-        <v>40</v>
       </c>
       <c r="AC229">
         <v>40</v>
       </c>
       <c r="AD229">
+        <v>40</v>
+      </c>
+      <c r="AE229">
         <v>18200</v>
       </c>
-      <c r="AE229">
+      <c r="AF229">
         <v>2200</v>
       </c>
-      <c r="AF229" t="s">
+      <c r="AG229" t="s">
         <v>21</v>
       </c>
-      <c r="AG229" t="s">
+      <c r="AH229" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -25198,29 +25206,29 @@
       <c r="Z230" t="s">
         <v>1</v>
       </c>
-      <c r="AA230">
+      <c r="AB230">
         <v>9500</v>
-      </c>
-      <c r="AB230">
-        <v>38</v>
       </c>
       <c r="AC230">
         <v>38</v>
       </c>
       <c r="AD230">
+        <v>38</v>
+      </c>
+      <c r="AE230">
         <v>22000</v>
       </c>
-      <c r="AE230">
+      <c r="AF230">
         <v>7000</v>
       </c>
-      <c r="AF230" t="s">
+      <c r="AG230" t="s">
         <v>21</v>
       </c>
-      <c r="AG230" t="s">
+      <c r="AH230" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -25299,29 +25307,29 @@
       <c r="Z231" t="s">
         <v>17</v>
       </c>
-      <c r="AA231">
+      <c r="AB231">
         <v>21000</v>
-      </c>
-      <c r="AB231">
-        <v>65</v>
       </c>
       <c r="AC231">
         <v>65</v>
       </c>
       <c r="AD231">
+        <v>65</v>
+      </c>
+      <c r="AE231">
         <v>65000</v>
       </c>
-      <c r="AE231">
+      <c r="AF231">
         <v>2200</v>
       </c>
-      <c r="AF231" t="s">
+      <c r="AG231" t="s">
         <v>21</v>
       </c>
-      <c r="AG231" t="s">
+      <c r="AH231" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -25400,29 +25408,29 @@
       <c r="Z232" t="s">
         <v>1</v>
       </c>
-      <c r="AA232">
+      <c r="AB232">
         <v>10000</v>
-      </c>
-      <c r="AB232">
-        <v>35</v>
       </c>
       <c r="AC232">
         <v>35</v>
       </c>
       <c r="AD232">
+        <v>35</v>
+      </c>
+      <c r="AE232">
         <v>36000</v>
       </c>
-      <c r="AE232">
+      <c r="AF232">
         <v>7000</v>
       </c>
-      <c r="AF232" t="s">
+      <c r="AG232" t="s">
         <v>21</v>
       </c>
-      <c r="AG232" t="s">
+      <c r="AH232" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
@@ -25501,29 +25509,29 @@
       <c r="Z233" t="s">
         <v>17</v>
       </c>
-      <c r="AA233">
+      <c r="AB233">
         <v>1500</v>
-      </c>
-      <c r="AB233">
-        <v>10</v>
       </c>
       <c r="AC233">
         <v>10</v>
       </c>
       <c r="AD233">
+        <v>10</v>
+      </c>
+      <c r="AE233">
         <v>19000</v>
       </c>
-      <c r="AE233">
+      <c r="AF233">
         <v>1600</v>
       </c>
-      <c r="AF233" t="s">
-        <v>1</v>
-      </c>
       <c r="AG233" t="s">
         <v>1</v>
       </c>
+      <c r="AH233" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -25602,29 +25610,29 @@
       <c r="Z234" t="s">
         <v>1</v>
       </c>
-      <c r="AA234">
+      <c r="AB234">
         <v>10000</v>
-      </c>
-      <c r="AB234">
-        <v>36</v>
       </c>
       <c r="AC234">
         <v>36</v>
       </c>
       <c r="AD234">
+        <v>36</v>
+      </c>
+      <c r="AE234">
         <v>50000</v>
       </c>
-      <c r="AE234">
+      <c r="AF234">
         <v>5500</v>
       </c>
-      <c r="AF234" t="s">
+      <c r="AG234" t="s">
         <v>21</v>
       </c>
-      <c r="AG234" t="s">
+      <c r="AH234" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -25703,29 +25711,29 @@
       <c r="Z235" t="s">
         <v>17</v>
       </c>
-      <c r="AA235">
+      <c r="AB235">
         <v>9500</v>
-      </c>
-      <c r="AB235">
-        <v>35</v>
       </c>
       <c r="AC235">
         <v>35</v>
       </c>
       <c r="AD235">
+        <v>35</v>
+      </c>
+      <c r="AE235">
         <v>30000</v>
       </c>
-      <c r="AE235">
+      <c r="AF235">
         <v>5500</v>
       </c>
-      <c r="AF235" t="s">
+      <c r="AG235" t="s">
         <v>21</v>
       </c>
-      <c r="AG235" t="s">
+      <c r="AH235" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -25804,29 +25812,29 @@
       <c r="Z236" t="s">
         <v>17</v>
       </c>
-      <c r="AA236">
+      <c r="AB236">
         <v>6000</v>
-      </c>
-      <c r="AB236">
-        <v>35</v>
       </c>
       <c r="AC236">
         <v>35</v>
       </c>
       <c r="AD236">
+        <v>35</v>
+      </c>
+      <c r="AE236">
         <v>18000</v>
       </c>
-      <c r="AE236">
+      <c r="AF236">
         <v>1600</v>
       </c>
-      <c r="AF236" t="s">
+      <c r="AG236" t="s">
         <v>21</v>
       </c>
-      <c r="AG236" t="s">
+      <c r="AH236" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
@@ -25905,25 +25913,25 @@
       <c r="Z237" t="s">
         <v>17</v>
       </c>
-      <c r="AA237">
+      <c r="AB237">
         <v>3500</v>
-      </c>
-      <c r="AB237">
-        <v>20</v>
       </c>
       <c r="AC237">
         <v>20</v>
       </c>
       <c r="AD237">
+        <v>20</v>
+      </c>
+      <c r="AE237">
         <v>17500</v>
       </c>
-      <c r="AE237">
+      <c r="AF237">
         <v>1750</v>
       </c>
-      <c r="AF237" t="s">
+      <c r="AG237" t="s">
         <v>21</v>
       </c>
-      <c r="AG237" t="s">
+      <c r="AH237" t="s">
         <v>1</v>
       </c>
     </row>
